--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francesco.dipalma\Desktop\RSA_Validazione\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSA_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5FB777-BD9A-429B-99C3-511E2F3FD4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA441385-9E93-432D-9E21-43B1007F24E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="898">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -7591,10 +7591,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O161" sqref="O161"/>
+      <selection pane="bottomRight" activeCell="J385" sqref="J385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13432,7 +13432,9 @@
       <c r="I168" s="24" t="s">
         <v>897</v>
       </c>
-      <c r="J168" s="25"/>
+      <c r="J168" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K168" s="25"/>
       <c r="L168" s="25" t="s">
         <v>138</v>

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSA_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA441385-9E93-432D-9E21-43B1007F24E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B633C20-D4D6-4665-8A30-3C635C94A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="900">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4608,39 +4608,15 @@
     <t>GRUPPO INFORMATICO S.R.L.</t>
   </si>
   <si>
-    <t>2023-12-29T17:01:32Z</t>
-  </si>
-  <si>
-    <t>a5e6f830491bf84f</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>84206c4e3590822d</t>
-  </si>
-  <si>
     <t>Campo token JWT non valido. -&gt; Il campo action_id non è corretto</t>
   </si>
   <si>
-    <t>2023-12-29T17:01:33Z</t>
-  </si>
-  <si>
-    <t>6aaf6b3cd318b520</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.309c824078^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-12-29T17:01:34Z</t>
   </si>
   <si>
-    <t>4e420f02599b1282</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d2ddfb63d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>881e2bb0a2b3a654</t>
   </si>
   <si>
@@ -4681,6 +4657,36 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6cb55db3ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-04T11:48:38Z</t>
+  </si>
+  <si>
+    <t>a42aa78dbc040416</t>
+  </si>
+  <si>
+    <t>2024-01-04T11:48:39Z</t>
+  </si>
+  <si>
+    <t>bf6ff085a31c65d3</t>
+  </si>
+  <si>
+    <t>2024-01-04T11:48:41Z</t>
+  </si>
+  <si>
+    <t>d8314bfa7092b10a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.aa2540a724^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-04T11:48:40Z</t>
+  </si>
+  <si>
+    <t>937b3ff0847034f4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.495a729b92^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5422,14 +5428,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.140625" customWidth="1"/>
-    <col min="2" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="130.109375" customWidth="1"/>
+    <col min="2" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -5447,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="195">
+    <row r="4" spans="1:1" ht="172.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5457,12 +5463,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5475,7 +5481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="45">
+    <row r="10" spans="1:1" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6492,11 +6498,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="194.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="194.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -6512,7 +6518,7 @@
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -6520,7 +6526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="28.8">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -6528,7 +6534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="14.4">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="72">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -6544,7 +6550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -6552,7 +6558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="14.4">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="14.4">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -6568,7 +6574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
+    <row r="11" spans="1:2" ht="43.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -6576,7 +6582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
+    <row r="12" spans="1:2" ht="28.8">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -6584,7 +6590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="28.8">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -7591,27 +7597,27 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J385" sqref="J385"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="51.28515625" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="20" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.88671875" customWidth="1"/>
+    <col min="6" max="8" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="11" max="15" width="36.44140625" customWidth="1"/>
+    <col min="16" max="16" width="51.33203125" customWidth="1"/>
+    <col min="17" max="17" width="33.109375" customWidth="1"/>
+    <col min="18" max="18" width="36.44140625" customWidth="1"/>
+    <col min="19" max="20" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -8851,23 +8857,23 @@
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="G39" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="I39" s="24" t="s">
         <v>873</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>875</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>138</v>
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="25" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="M39" s="25" t="s">
         <v>138</v>
@@ -9145,29 +9151,29 @@
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="G47" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="I47" s="24" t="s">
         <v>873</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>875</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>138</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="25" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="M47" s="25" t="s">
         <v>138</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>138</v>
@@ -9455,7 +9461,7 @@
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="M55" s="25" t="s">
         <v>138</v>
@@ -12831,16 +12837,16 @@
         <v>337</v>
       </c>
       <c r="F154" s="23">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="H154" s="24" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>138</v>
@@ -13030,26 +13036,26 @@
         <v>45289</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
       </c>
       <c r="K159" s="25"/>
       <c r="L159" s="25" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="M159" s="25" t="s">
         <v>138</v>
       </c>
       <c r="N159" s="25" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>138</v>
@@ -13122,26 +13128,26 @@
         <v>45289</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
       </c>
       <c r="K161" s="25"/>
       <c r="L161" s="25" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="M161" s="25" t="s">
         <v>138</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="O161" s="25" t="s">
         <v>138</v>
@@ -13292,26 +13298,26 @@
         <v>45289</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
       </c>
       <c r="K165" s="33"/>
       <c r="L165" s="25" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="M165" s="25" t="s">
         <v>138</v>
       </c>
       <c r="N165" s="25" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="O165" s="25" t="s">
         <v>138</v>
@@ -13424,26 +13430,26 @@
         <v>45289</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
       </c>
       <c r="K168" s="25"/>
       <c r="L168" s="25" t="s">
-        <v>138</v>
+        <v>847</v>
       </c>
       <c r="M168" s="25" t="s">
         <v>138</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="O168" s="25" t="s">
         <v>138</v>
@@ -20715,16 +20721,16 @@
         <v>789</v>
       </c>
       <c r="F381" s="23">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>
@@ -25518,13 +25524,13 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -25611,7 +25617,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="11" t="s">
         <v>93</v>
       </c>
@@ -25625,7 +25631,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="11" t="s">
         <v>112</v>
       </c>
@@ -25639,7 +25645,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -25653,7 +25659,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.2">
       <c r="A10" s="11" t="s">
         <v>813</v>
       </c>
@@ -27189,11 +27195,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSA_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B633C20-D4D6-4665-8A30-3C635C94A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8037F84-38B5-4D6B-BE5C-80D14C70F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="897">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4614,24 +4614,6 @@
     <t>Campo token JWT non valido. -&gt; Il campo action_id non è corretto</t>
   </si>
   <si>
-    <t>2023-12-29T17:01:34Z</t>
-  </si>
-  <si>
-    <t>881e2bb0a2b3a654</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1c7f72ec02^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-12-29T17:01:35Z</t>
-  </si>
-  <si>
-    <t>928456b50e8636da</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fb7492cc66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Errore semantico. -&gt; [ERRORE-44| Il codice fiscale 'pRVPRV69A41C665J' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
   </si>
   <si>
@@ -4644,49 +4626,58 @@
     <t>Errore semantico. -&gt; [ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
-    <t>7e91397680bd03a9</t>
-  </si>
-  <si>
-    <t>f0dc43b649588fdc</t>
-  </si>
-  <si>
-    <t>2023-12-29T17:01:36Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.bffd5096d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6cb55db3ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-04T11:48:38Z</t>
-  </si>
-  <si>
-    <t>a42aa78dbc040416</t>
-  </si>
-  <si>
-    <t>2024-01-04T11:48:39Z</t>
-  </si>
-  <si>
-    <t>bf6ff085a31c65d3</t>
-  </si>
-  <si>
-    <t>2024-01-04T11:48:41Z</t>
-  </si>
-  <si>
-    <t>d8314bfa7092b10a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.aa2540a724^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-04T11:48:40Z</t>
-  </si>
-  <si>
-    <t>937b3ff0847034f4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.495a729b92^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-01-05T12:05:19Z</t>
+  </si>
+  <si>
+    <t>9fec256cf8cc44df</t>
+  </si>
+  <si>
+    <t>2024-01-05T12:05:20Z</t>
+  </si>
+  <si>
+    <t>1ee12095e3d40dc4</t>
+  </si>
+  <si>
+    <t>2024-01-05T12:05:21Z</t>
+  </si>
+  <si>
+    <t>cb1f444f018a0183</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.38eec65546^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>cd9890f13306f1a1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.be5b00e433^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4f60b02c100c2c44</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.35c40e1f9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-05T12:05:22Z</t>
+  </si>
+  <si>
+    <t>9ac23c8c33941ef0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e13774a140^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>04855ba20e02fd5a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3d84a0edf4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>bd766383c18028f3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4617f370d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5432,10 +5423,10 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="130.109375" customWidth="1"/>
-    <col min="2" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="130.140625" customWidth="1"/>
+    <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
@@ -5453,7 +5444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="172.8">
+    <row r="4" spans="1:1" ht="195">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5463,12 +5454,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="28.8">
+    <row r="6" spans="1:1" ht="30">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.4">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5481,7 +5472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="28.8">
+    <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6498,11 +6489,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="194.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="194.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -6518,7 +6509,7 @@
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="14.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -6526,7 +6517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -6534,7 +6525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -6542,7 +6533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72">
+    <row r="7" spans="1:2" ht="75">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -6550,7 +6541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4">
+    <row r="8" spans="1:2">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -6558,7 +6549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4">
+    <row r="9" spans="1:2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -6566,7 +6557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4">
+    <row r="10" spans="1:2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -6574,7 +6565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2">
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -6582,7 +6573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8">
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -6590,7 +6581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.8">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -7597,27 +7588,27 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight" activeCell="I381" sqref="I381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
-    <col min="5" max="5" width="104.88671875" customWidth="1"/>
-    <col min="6" max="8" width="33.109375" customWidth="1"/>
-    <col min="9" max="9" width="47.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
-    <col min="11" max="15" width="36.44140625" customWidth="1"/>
-    <col min="16" max="16" width="51.33203125" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" customWidth="1"/>
-    <col min="19" max="20" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="15" width="36.42578125" customWidth="1"/>
+    <col min="16" max="16" width="51.28515625" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -8857,13 +8848,13 @@
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>873</v>
@@ -9151,13 +9142,13 @@
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>873</v>
@@ -12837,16 +12828,16 @@
         <v>337</v>
       </c>
       <c r="F154" s="23">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="H154" s="24" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>138</v>
@@ -13033,16 +13024,16 @@
         <v>347</v>
       </c>
       <c r="F159" s="23">
-        <v>45289</v>
+        <v>45296</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
@@ -13055,7 +13046,7 @@
         <v>138</v>
       </c>
       <c r="N159" s="25" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>138</v>
@@ -13125,16 +13116,16 @@
         <v>351</v>
       </c>
       <c r="F161" s="23">
-        <v>45289</v>
+        <v>45296</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -13147,7 +13138,7 @@
         <v>138</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="O161" s="25" t="s">
         <v>138</v>
@@ -13295,16 +13286,16 @@
         <v>359</v>
       </c>
       <c r="F165" s="23">
-        <v>45289</v>
+        <v>45296</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -13317,7 +13308,7 @@
         <v>138</v>
       </c>
       <c r="N165" s="25" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="O165" s="25" t="s">
         <v>138</v>
@@ -13427,16 +13418,16 @@
         <v>365</v>
       </c>
       <c r="F168" s="23">
-        <v>45289</v>
+        <v>45296</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -13449,7 +13440,7 @@
         <v>138</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="O168" s="25" t="s">
         <v>138</v>
@@ -20721,16 +20712,16 @@
         <v>789</v>
       </c>
       <c r="F381" s="23">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>
@@ -25496,7 +25487,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -25524,13 +25515,13 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -25617,7 +25608,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
         <v>93</v>
       </c>
@@ -25631,7 +25622,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>112</v>
       </c>
@@ -25645,7 +25636,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -25659,7 +25650,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="11" t="s">
         <v>813</v>
       </c>
@@ -27195,11 +27186,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSA_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSALABRAD_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8037F84-38B5-4D6B-BE5C-80D14C70F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA4E19-5886-47E6-B187-6DEC019B4814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="954">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4620,64 +4615,235 @@
     <t>Errore semantico. -&gt; [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]</t>
   </si>
   <si>
-    <t>[ERRORE-38| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
-  </si>
-  <si>
     <t>Errore semantico. -&gt; [ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
-    <t>2024-01-05T12:05:19Z</t>
-  </si>
-  <si>
-    <t>9fec256cf8cc44df</t>
-  </si>
-  <si>
-    <t>2024-01-05T12:05:20Z</t>
-  </si>
-  <si>
-    <t>1ee12095e3d40dc4</t>
-  </si>
-  <si>
-    <t>2024-01-05T12:05:21Z</t>
-  </si>
-  <si>
-    <t>cb1f444f018a0183</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.38eec65546^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cd9890f13306f1a1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.be5b00e433^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4f60b02c100c2c44</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.35c40e1f9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-05T12:05:22Z</t>
-  </si>
-  <si>
-    <t>9ac23c8c33941ef0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e13774a140^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>04855ba20e02fd5a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3d84a0edf4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bd766383c18028f3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4617f370d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Il campo specimen non è gestito dall'applicativo</t>
+  </si>
+  <si>
+    <t>Il codice della prestazione della BATTERY è obbligatorio</t>
+  </si>
+  <si>
+    <t>Errore semantico. -&gt; [ERRORE-38| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
+  </si>
+  <si>
+    <t>Errore semantico. -&gt; [ERRORE-31| In ClinicalDocuemnt DEVE essere presente almeno un elemento 'inFulfillmentOf'. ]</t>
+  </si>
+  <si>
+    <t>Errore semantico. -&gt; [ERRORE-b1| L'elemento code della section DEVE essere valorizzato con uno dei seguenti codici LOINC individuati: 18717-9 BANCA DEL SANGUE 18718-7 MARCATORI CELLULARI 18719-5 CHIMICA 18720-3 COAGULAZIONE 18721-1 MONITORAGGIO TERAPEUTICO DEI FARMACI 18721-1 MONITORAGGIO TERAPEUTICO DEI FARMACI 18722-9 FERTILITÀ 18723-7 EMATOLOGIA 18724-5 HLA 18725-2 MICROBIOLOGIA 18727-8 SEROLOGIA 18728-6 TOSSICOLOGIA 18729-4 ESAMI DELLE URINE 18767-4 EMOGASANALISI 18768-2 CONTE CELLULARE+DIFFERENZIALE 18769-0 SUSCETTIBILITÀ ANTIMICROBICA 26435-8 PATOLOGIA MOLECOLARE 26436-6 ESAMI DI LABORATORIO 26437-4 TEST DI SENSIBILITÀ A SOSTANZE CHIMICHE 26438-2 CITOLOGIA 18716-1 ALLERGOLOGIA 26439-0 PATOLOGIA CHIRURGICA]</t>
+  </si>
+  <si>
+    <t>La sezione opzionale Precedenti Esami Eseguiti e tutte le sue sotto-sezioni non sono gestite dall'applicativo</t>
+  </si>
+  <si>
+    <t>Le sezioni opzionali, quali storia clinica, precedenti esami eseguiti, suggerimenti medico prescrittore, complicanze e DICOM Object Catalog e tutte le relative sotto-sezioni non sono gestite dall'applicativo. Per la sezione Quesito Diagnostico l'applicativo gestisce solo le informazioni "human readable".</t>
+  </si>
+  <si>
+    <t>Il campo relativo al Medico Prescrittore non è obbligatorio e se presente è sempre compilato con il codice fiscale del medico</t>
+  </si>
+  <si>
+    <t>La data di insorgenza del problema non è un campo gestito dall'applicativo</t>
+  </si>
+  <si>
+    <t>Il sistema ammette l'invio del solo valore RAD_PROG</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:21Z</t>
+  </si>
+  <si>
+    <t>eca5764534a895bf</t>
+  </si>
+  <si>
+    <t>3966c4b54f554380</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:22Z</t>
+  </si>
+  <si>
+    <t>b8f466fea372aaeb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.53e48aaf99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e256e6c254c7501e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.baa244796e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:23Z</t>
+  </si>
+  <si>
+    <t>2c1ff91de0685cbc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.464116104a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>92df7afcb4d8b889</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.41e805d358^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:24Z</t>
+  </si>
+  <si>
+    <t>413c0e25bbbbc8fb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c8a99622e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6450973656900e76</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3beff36111^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a94a93021aaee05e</t>
+  </si>
+  <si>
+    <t>e328753f6a207570</t>
+  </si>
+  <si>
+    <t>9add43a8c6d32410</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f61f34d50e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>df9f215b6f446716</t>
+  </si>
+  <si>
+    <t>705fb72127bfddcb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c89eb14d7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.771420d3fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ff5f571059134595</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e5fb95c2a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>63ca723fdb13d63e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0dcbeb2d76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:25Z</t>
+  </si>
+  <si>
+    <t>eae7c680ada15f1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.076136ebc5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:26Z</t>
+  </si>
+  <si>
+    <t>eadcade2a6900e00</t>
+  </si>
+  <si>
+    <t>09457ad155a5d590</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4177e301fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4e4d19d443^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:27Z</t>
+  </si>
+  <si>
+    <t>6f0a22b3a026cd4e</t>
+  </si>
+  <si>
+    <t>70154ea0b7ac6ea3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.057c4f5d9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e99e0972c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-15T16:57:28Z</t>
+  </si>
+  <si>
+    <t>7c0e92ac460778e4</t>
+  </si>
+  <si>
+    <t>c51a7a2a9c6c9565</t>
+  </si>
+  <si>
+    <t>4a6bc06e54cef548</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.5abb786165^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.16b4610d62^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.5eed82688d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>00a8d2d4f648862d</t>
+  </si>
+  <si>
+    <t>6e13d6e599c3b657</t>
+  </si>
+  <si>
+    <t>81148ac8ad28b259</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1932d68dfe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16ffa3f4dee7a4a2</t>
+  </si>
+  <si>
+    <t>62513684bae02a1f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2e20748dc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8b8996e87a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d7d27d1556871213</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.891ee5c6d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f2ce53e65d841eea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6c7281759f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>53be140d11fc3ffc</t>
+  </si>
+  <si>
+    <t>c5f11ceb149f0cf2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.37aa0ec54a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.438937e731^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5006,7 +5172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5123,6 +5289,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5419,8 +5598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7588,10 +7767,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I381" sqref="I381"/>
+      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7601,7 +7780,8 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="8" width="33.140625" customWidth="1"/>
+    <col min="6" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="50" customWidth="1"/>
     <col min="9" max="9" width="47.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
@@ -7615,7 +7795,7 @@
       <c r="C1" s="4"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -7640,7 +7820,7 @@
       <c r="D2" s="38"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -7665,7 +7845,7 @@
       <c r="D3" s="38"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -7689,7 +7869,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -7712,7 +7892,7 @@
       <c r="D5" s="38"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -7732,7 +7912,7 @@
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -7752,7 +7932,7 @@
       <c r="C7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -7769,7 +7949,7 @@
     <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -7805,7 +7985,7 @@
       <c r="G9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="18" t="s">
@@ -7845,7 +8025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:20" ht="55.5" customHeight="1" thickBot="1">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -7861,11 +8041,21 @@
       <c r="E10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="F10" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
@@ -7879,7 +8069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:20" ht="55.5" customHeight="1" thickBot="1">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -7895,11 +8085,21 @@
       <c r="E11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="F11" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -7913,7 +8113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:20" ht="63" customHeight="1" thickBot="1">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -7929,11 +8129,21 @@
       <c r="E12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="F12" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -7947,7 +8157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:20" ht="65.25" customHeight="1" thickBot="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -7963,11 +8173,21 @@
       <c r="E13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -7981,7 +8201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" ht="76.5" customHeight="1" thickBot="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -7997,11 +8217,21 @@
       <c r="E14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="F14" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -8015,7 +8245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -8049,7 +8279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -8083,7 +8313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -8117,7 +8347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -8151,7 +8381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:20" ht="99.75" customHeight="1" thickBot="1">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -8167,11 +8397,21 @@
       <c r="E19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+      <c r="F19" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -8185,7 +8425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:20" ht="102.75" customHeight="1" thickBot="1">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -8201,11 +8441,21 @@
       <c r="E20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
+      <c r="F20" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -8219,7 +8469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:20" ht="178.5" customHeight="1" thickBot="1">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -8239,8 +8489,12 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>884</v>
+      </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -8253,7 +8507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:20" ht="153" customHeight="1" thickBot="1">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -8273,8 +8527,12 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>884</v>
+      </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -8287,7 +8545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A23" s="20">
         <v>16</v>
       </c>
@@ -8321,7 +8579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="20">
         <v>17</v>
       </c>
@@ -8355,7 +8613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="20">
         <v>18</v>
       </c>
@@ -8389,7 +8647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="20">
         <v>19</v>
       </c>
@@ -8423,7 +8681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -8457,7 +8715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="20">
         <v>21</v>
       </c>
@@ -8491,7 +8749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="20">
         <v>22</v>
       </c>
@@ -8525,7 +8783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="20">
         <v>23</v>
       </c>
@@ -8559,7 +8817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A31" s="20">
         <v>24</v>
       </c>
@@ -8593,7 +8851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="20">
         <v>25</v>
       </c>
@@ -8627,7 +8885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="20">
         <v>26</v>
       </c>
@@ -8661,7 +8919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="34" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="20">
         <v>27</v>
       </c>
@@ -8695,7 +8953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:20" ht="74.25" customHeight="1" thickBot="1">
       <c r="A35" s="20">
         <v>28</v>
       </c>
@@ -8711,25 +8969,47 @@
       <c r="E35" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
+      <c r="F35" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
+      <c r="L35" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>851</v>
+      </c>
       <c r="Q35" s="25"/>
       <c r="R35" s="26"/>
-      <c r="S35" s="27"/>
+      <c r="S35" s="34" t="s">
+        <v>866</v>
+      </c>
       <c r="T35" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="20">
         <v>29</v>
       </c>
@@ -8763,7 +9043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="20">
         <v>30</v>
       </c>
@@ -8797,7 +9077,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="38" spans="1:20" ht="96.75" customHeight="1" thickBot="1">
       <c r="A38" s="20">
         <v>31</v>
       </c>
@@ -8813,20 +9093,42 @@
       <c r="E38" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
+      <c r="F38" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
+      <c r="L38" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>851</v>
+      </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
-      <c r="S38" s="27"/>
+      <c r="S38" s="34" t="s">
+        <v>866</v>
+      </c>
       <c r="T38" s="28" t="s">
         <v>104</v>
       </c>
@@ -8848,13 +9150,13 @@
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>879</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>880</v>
+        <v>888</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>889</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>873</v>
@@ -8887,7 +9189,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="20">
         <v>33</v>
       </c>
@@ -8921,7 +9223,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="20">
         <v>34</v>
       </c>
@@ -8955,7 +9257,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A42" s="20">
         <v>35</v>
       </c>
@@ -8989,7 +9291,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:20" ht="76.5" customHeight="1" thickBot="1">
       <c r="A43" s="20">
         <v>36</v>
       </c>
@@ -9005,25 +9307,47 @@
       <c r="E43" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
+      <c r="F43" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
+      <c r="L43" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>851</v>
+      </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
-      <c r="S43" s="27"/>
+      <c r="S43" s="34" t="s">
+        <v>866</v>
+      </c>
       <c r="T43" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A44" s="20">
         <v>37</v>
       </c>
@@ -9057,7 +9381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A45" s="20">
         <v>38</v>
       </c>
@@ -9091,7 +9415,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="54" hidden="1" customHeight="1">
+    <row r="46" spans="1:20" ht="109.5" customHeight="1" thickBot="1">
       <c r="A46" s="20">
         <v>39</v>
       </c>
@@ -9107,20 +9431,42 @@
       <c r="E46" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
+      <c r="F46" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
+      <c r="L46" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>851</v>
+      </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
-      <c r="S46" s="27"/>
+      <c r="S46" s="34" t="s">
+        <v>866</v>
+      </c>
       <c r="T46" s="28" t="s">
         <v>104</v>
       </c>
@@ -9142,13 +9488,13 @@
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>882</v>
+        <v>888</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>890</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>873</v>
@@ -9181,7 +9527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A48" s="20">
         <v>41</v>
       </c>
@@ -9215,7 +9561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A49" s="20">
         <v>42</v>
       </c>
@@ -9249,7 +9595,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="50" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="20">
         <v>43</v>
       </c>
@@ -9283,7 +9629,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="51" spans="1:20" ht="135" customHeight="1" thickBot="1">
       <c r="A51" s="20">
         <v>44</v>
       </c>
@@ -9303,23 +9649,33 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
+      <c r="J51" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
+      <c r="L51" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M51" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N51" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>851</v>
+      </c>
       <c r="Q51" s="25"/>
-      <c r="R51" s="26" t="s">
-        <v>138</v>
-      </c>
+      <c r="R51" s="26"/>
       <c r="S51" s="27"/>
       <c r="T51" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="20">
         <v>45</v>
       </c>
@@ -9355,7 +9711,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A53" s="20">
         <v>46</v>
       </c>
@@ -9391,7 +9747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:20" ht="138" customHeight="1" thickBot="1">
       <c r="A54" s="20">
         <v>47</v>
       </c>
@@ -9411,17 +9767,27 @@
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
+      <c r="J54" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
+      <c r="L54" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M54" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>851</v>
+      </c>
       <c r="Q54" s="25"/>
-      <c r="R54" s="26" t="s">
-        <v>138</v>
-      </c>
+      <c r="R54" s="26"/>
       <c r="S54" s="27"/>
       <c r="T54" s="28" t="s">
         <v>104</v>
@@ -9445,7 +9811,7 @@
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="24"/>
       <c r="J55" s="25" t="s">
         <v>138</v>
@@ -9473,7 +9839,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A56" s="20">
         <v>49</v>
       </c>
@@ -9509,7 +9875,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A57" s="20">
         <v>50</v>
       </c>
@@ -9545,7 +9911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="58" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A58" s="20">
         <v>51</v>
       </c>
@@ -9581,7 +9947,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="59" spans="1:20" ht="69" customHeight="1" thickBot="1">
       <c r="A59" s="20">
         <v>52</v>
       </c>
@@ -9601,8 +9967,12 @@
       <c r="G59" s="24"/>
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="J59" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>854</v>
+      </c>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
@@ -9615,7 +9985,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="60" spans="1:20" ht="100.5" customHeight="1" thickBot="1">
       <c r="A60" s="20">
         <v>53</v>
       </c>
@@ -9631,25 +10001,47 @@
       <c r="E60" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="25"/>
+      <c r="F60" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
+      <c r="L60" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M60" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N60" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="O60" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P60" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q60" s="25"/>
       <c r="R60" s="26"/>
-      <c r="S60" s="27"/>
+      <c r="S60" s="34" t="s">
+        <v>857</v>
+      </c>
       <c r="T60" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="61" spans="1:20" ht="102.75" customHeight="1" thickBot="1">
       <c r="A61" s="20">
         <v>54</v>
       </c>
@@ -9669,8 +10061,12 @@
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
+      <c r="J61" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K61" s="25" t="s">
+        <v>856</v>
+      </c>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
@@ -9683,7 +10079,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="62" spans="1:20" ht="134.25" customHeight="1" thickBot="1">
       <c r="A62" s="20">
         <v>55</v>
       </c>
@@ -9699,25 +10095,45 @@
       <c r="E62" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="25"/>
+      <c r="F62" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>926</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
+      <c r="L62" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M62" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N62" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="O62" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P62" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q62" s="25"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="27"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="28"/>
       <c r="T62" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" spans="1:20" ht="66.75" customHeight="1" thickBot="1">
       <c r="A63" s="20">
         <v>56</v>
       </c>
@@ -9737,8 +10153,12 @@
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
       <c r="I63" s="24"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="J63" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K63" s="25" t="s">
+        <v>858</v>
+      </c>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
       <c r="N63" s="25"/>
@@ -9751,7 +10171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="64" spans="1:20" ht="61.5" customHeight="1" thickBot="1">
       <c r="A64" s="20">
         <v>57</v>
       </c>
@@ -9771,8 +10191,12 @@
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
+      <c r="J64" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K64" s="25" t="s">
+        <v>859</v>
+      </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="N64" s="25"/>
@@ -9785,7 +10209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="65" spans="1:20" ht="119.25" customHeight="1" thickBot="1">
       <c r="A65" s="20">
         <v>58</v>
       </c>
@@ -9801,25 +10225,47 @@
       <c r="E65" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
+      <c r="F65" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
+      <c r="L65" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M65" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N65" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="O65" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q65" s="25"/>
       <c r="R65" s="26"/>
-      <c r="S65" s="27"/>
+      <c r="S65" s="34" t="s">
+        <v>865</v>
+      </c>
       <c r="T65" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="66" spans="1:20" ht="140.25" customHeight="1" thickBot="1">
       <c r="A66" s="20">
         <v>59</v>
       </c>
@@ -9835,17 +10281,37 @@
       <c r="E66" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
+      <c r="F66" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>931</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
+      <c r="L66" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M66" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="O66" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q66" s="25"/>
       <c r="R66" s="26"/>
       <c r="S66" s="27"/>
@@ -9853,7 +10319,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="67" spans="1:20" ht="134.25" customHeight="1" thickBot="1">
       <c r="A67" s="20">
         <v>60</v>
       </c>
@@ -9869,17 +10335,37 @@
       <c r="E67" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="25"/>
+      <c r="F67" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G67" s="51" t="s">
+        <v>931</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
+      <c r="L67" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N67" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="O67" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P67" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q67" s="25"/>
       <c r="R67" s="26"/>
       <c r="S67" s="27"/>
@@ -9887,7 +10373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="68" spans="1:20" ht="49.5" customHeight="1" thickBot="1">
       <c r="A68" s="20">
         <v>61</v>
       </c>
@@ -9907,8 +10393,12 @@
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
+      <c r="J68" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K68" s="25" t="s">
+        <v>878</v>
+      </c>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
       <c r="N68" s="25"/>
@@ -9921,7 +10411,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="69" spans="1:20" ht="60" customHeight="1" thickBot="1">
       <c r="A69" s="20">
         <v>62</v>
       </c>
@@ -9941,8 +10431,12 @@
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="J69" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K69" s="25" t="s">
+        <v>879</v>
+      </c>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
       <c r="N69" s="25"/>
@@ -9955,7 +10449,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="70" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A70" s="20">
         <v>63</v>
       </c>
@@ -9989,7 +10483,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="71" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A71" s="20">
         <v>64</v>
       </c>
@@ -10023,7 +10517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="72" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A72" s="20">
         <v>65</v>
       </c>
@@ -10057,7 +10551,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="73" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A73" s="20">
         <v>66</v>
       </c>
@@ -10091,7 +10585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="74" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A74" s="20">
         <v>67</v>
       </c>
@@ -10125,7 +10619,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A75" s="20">
         <v>68</v>
       </c>
@@ -10159,7 +10653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="76" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A76" s="20">
         <v>69</v>
       </c>
@@ -10193,7 +10687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="77" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A77" s="20">
         <v>70</v>
       </c>
@@ -10227,7 +10721,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="78" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A78" s="20">
         <v>71</v>
       </c>
@@ -10261,7 +10755,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="79" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A79" s="20">
         <v>72</v>
       </c>
@@ -10295,7 +10789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="80" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A80" s="20">
         <v>73</v>
       </c>
@@ -10329,7 +10823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="81" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A81" s="20">
         <v>74</v>
       </c>
@@ -10363,7 +10857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="82" spans="1:20" ht="63.75" customHeight="1" thickBot="1">
       <c r="A82" s="20">
         <v>75</v>
       </c>
@@ -10383,8 +10877,12 @@
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
+      <c r="J82" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K82" s="33" t="s">
+        <v>854</v>
+      </c>
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
       <c r="N82" s="25"/>
@@ -10397,7 +10895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="83" spans="1:20" ht="106.5" customHeight="1" thickBot="1">
       <c r="A83" s="20">
         <v>76</v>
       </c>
@@ -10413,25 +10911,47 @@
       <c r="E83" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="25"/>
+      <c r="F83" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>896</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
+      <c r="L83" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M83" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N83" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="O83" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P83" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q83" s="25"/>
       <c r="R83" s="26"/>
-      <c r="S83" s="27"/>
+      <c r="S83" s="34" t="s">
+        <v>857</v>
+      </c>
       <c r="T83" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="84" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
       <c r="A84" s="20">
         <v>77</v>
       </c>
@@ -10451,8 +10971,12 @@
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
+      <c r="J84" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K84" s="25" t="s">
+        <v>856</v>
+      </c>
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
@@ -10465,7 +10989,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="85" spans="1:20" ht="117" customHeight="1" thickBot="1">
       <c r="A85" s="20">
         <v>78</v>
       </c>
@@ -10481,25 +11005,45 @@
       <c r="E85" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="25"/>
+      <c r="F85" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="J85" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
+      <c r="L85" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M85" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N85" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="O85" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P85" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q85" s="25"/>
       <c r="R85" s="26"/>
-      <c r="S85" s="27"/>
+      <c r="S85" s="34"/>
       <c r="T85" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="86" spans="1:20" ht="69.75" customHeight="1" thickBot="1">
       <c r="A86" s="20">
         <v>79</v>
       </c>
@@ -10519,8 +11063,12 @@
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
+      <c r="J86" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K86" s="25" t="s">
+        <v>858</v>
+      </c>
       <c r="L86" s="25"/>
       <c r="M86" s="25"/>
       <c r="N86" s="25"/>
@@ -10533,7 +11081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" spans="1:20" ht="66" customHeight="1" thickBot="1">
       <c r="A87" s="20">
         <v>80</v>
       </c>
@@ -10553,8 +11101,12 @@
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
+      <c r="J87" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K87" s="25" t="s">
+        <v>859</v>
+      </c>
       <c r="L87" s="25"/>
       <c r="M87" s="25"/>
       <c r="N87" s="25"/>
@@ -10567,7 +11119,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="88" spans="1:20" ht="108" customHeight="1" thickBot="1">
       <c r="A88" s="20">
         <v>81</v>
       </c>
@@ -10587,8 +11139,12 @@
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
+      <c r="J88" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K88" s="25" t="s">
+        <v>885</v>
+      </c>
       <c r="L88" s="25"/>
       <c r="M88" s="25"/>
       <c r="N88" s="25"/>
@@ -10601,7 +11157,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="89" spans="1:20" ht="110.25" customHeight="1" thickBot="1">
       <c r="A89" s="20">
         <v>82</v>
       </c>
@@ -10617,25 +11173,47 @@
       <c r="E89" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="25"/>
+      <c r="F89" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="J89" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
+      <c r="L89" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M89" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N89" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="O89" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P89" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q89" s="25"/>
       <c r="R89" s="26"/>
-      <c r="S89" s="27"/>
+      <c r="S89" s="34" t="s">
+        <v>865</v>
+      </c>
       <c r="T89" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="90" spans="1:20" ht="93" customHeight="1" thickBot="1">
       <c r="A90" s="20">
         <v>83</v>
       </c>
@@ -10655,8 +11233,12 @@
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
+      <c r="J90" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>861</v>
+      </c>
       <c r="L90" s="25"/>
       <c r="M90" s="25"/>
       <c r="N90" s="25"/>
@@ -10669,7 +11251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="91" spans="1:20" ht="89.25" customHeight="1" thickBot="1">
       <c r="A91" s="20">
         <v>84</v>
       </c>
@@ -10689,8 +11271,12 @@
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
+      <c r="J91" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>869</v>
+      </c>
       <c r="L91" s="25"/>
       <c r="M91" s="25"/>
       <c r="N91" s="25"/>
@@ -10703,7 +11289,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="92" spans="1:20" ht="115.5" customHeight="1" thickBot="1">
       <c r="A92" s="20">
         <v>85</v>
       </c>
@@ -10719,17 +11305,37 @@
       <c r="E92" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="25"/>
+      <c r="F92" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="J92" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
+      <c r="L92" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="M92" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N92" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="O92" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P92" s="25" t="s">
+        <v>855</v>
+      </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="26"/>
       <c r="S92" s="27"/>
@@ -10737,7 +11343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="93" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A93" s="20">
         <v>86</v>
       </c>
@@ -10757,8 +11363,12 @@
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
+      <c r="J93" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K93" s="33" t="s">
+        <v>883</v>
+      </c>
       <c r="L93" s="25"/>
       <c r="M93" s="25"/>
       <c r="N93" s="25"/>
@@ -10771,7 +11381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="94" spans="1:20" ht="129.75" customHeight="1" thickBot="1">
       <c r="A94" s="20">
         <v>87</v>
       </c>
@@ -10791,8 +11401,12 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
+      <c r="J94" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K94" s="25" t="s">
+        <v>884</v>
+      </c>
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
       <c r="N94" s="25"/>
@@ -10805,7 +11419,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="95" spans="1:20" ht="102.75" customHeight="1" thickBot="1">
       <c r="A95" s="20">
         <v>88</v>
       </c>
@@ -10825,8 +11439,12 @@
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
+      <c r="J95" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K95" s="25" t="s">
+        <v>886</v>
+      </c>
       <c r="L95" s="25"/>
       <c r="M95" s="25"/>
       <c r="N95" s="25"/>
@@ -10839,7 +11457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="96" spans="1:20" ht="72" customHeight="1" thickBot="1">
       <c r="A96" s="20">
         <v>89</v>
       </c>
@@ -10859,8 +11477,12 @@
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
+      <c r="J96" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K96" s="33" t="s">
+        <v>849</v>
+      </c>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
       <c r="N96" s="25"/>
@@ -10873,7 +11495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="97" spans="1:20" ht="91.5" customHeight="1" thickBot="1">
       <c r="A97" s="20">
         <v>90</v>
       </c>
@@ -10893,8 +11515,12 @@
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
+      <c r="J97" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K97" s="33" t="s">
+        <v>849</v>
+      </c>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
       <c r="N97" s="25"/>
@@ -10907,7 +11533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="98" spans="1:20" ht="84.75" customHeight="1" thickBot="1">
       <c r="A98" s="20">
         <v>91</v>
       </c>
@@ -10927,8 +11553,12 @@
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
+      <c r="J98" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K98" s="33" t="s">
+        <v>849</v>
+      </c>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
       <c r="N98" s="25"/>
@@ -10941,7 +11571,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="99" spans="1:20" ht="115.5" customHeight="1" thickBot="1">
       <c r="A99" s="20">
         <v>92</v>
       </c>
@@ -10961,8 +11591,12 @@
       <c r="G99" s="24"/>
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
+      <c r="J99" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K99" s="33" t="s">
+        <v>852</v>
+      </c>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
       <c r="N99" s="25"/>
@@ -10975,7 +11609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="100" spans="1:20" ht="138.75" customHeight="1" thickBot="1">
       <c r="A100" s="20">
         <v>93</v>
       </c>
@@ -10995,8 +11629,12 @@
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
       <c r="I100" s="24"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
+      <c r="J100" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>887</v>
+      </c>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
       <c r="N100" s="25"/>
@@ -11009,7 +11647,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="101" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A101" s="20">
         <v>94</v>
       </c>
@@ -11043,7 +11681,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="102" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A102" s="20">
         <v>95</v>
       </c>
@@ -11077,7 +11715,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A103" s="20">
         <v>96</v>
       </c>
@@ -11111,7 +11749,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A104" s="20">
         <v>97</v>
       </c>
@@ -11145,7 +11783,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A105" s="20">
         <v>98</v>
       </c>
@@ -11179,7 +11817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A106" s="20">
         <v>99</v>
       </c>
@@ -11213,7 +11851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A107" s="20">
         <v>100</v>
       </c>
@@ -11247,7 +11885,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A108" s="20">
         <v>101</v>
       </c>
@@ -11281,7 +11919,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A109" s="20">
         <v>102</v>
       </c>
@@ -11315,7 +11953,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A110" s="20">
         <v>103</v>
       </c>
@@ -11349,7 +11987,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A111" s="20">
         <v>104</v>
       </c>
@@ -11383,7 +12021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A112" s="20">
         <v>105</v>
       </c>
@@ -11417,7 +12055,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A113" s="20">
         <v>106</v>
       </c>
@@ -11451,7 +12089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A114" s="20">
         <v>107</v>
       </c>
@@ -11485,7 +12123,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A115" s="20">
         <v>108</v>
       </c>
@@ -11519,7 +12157,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A116" s="20">
         <v>109</v>
       </c>
@@ -11553,7 +12191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A117" s="20">
         <v>110</v>
       </c>
@@ -11587,7 +12225,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A118" s="20">
         <v>111</v>
       </c>
@@ -11621,7 +12259,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A119" s="20">
         <v>112</v>
       </c>
@@ -11655,7 +12293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A120" s="20">
         <v>113</v>
       </c>
@@ -11689,7 +12327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A121" s="20">
         <v>114</v>
       </c>
@@ -11723,7 +12361,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A122" s="20">
         <v>115</v>
       </c>
@@ -11757,7 +12395,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A123" s="20">
         <v>116</v>
       </c>
@@ -11791,7 +12429,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A124" s="20">
         <v>117</v>
       </c>
@@ -11825,7 +12463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A125" s="20">
         <v>118</v>
       </c>
@@ -11859,7 +12497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A126" s="20">
         <v>119</v>
       </c>
@@ -11893,7 +12531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A127" s="20">
         <v>120</v>
       </c>
@@ -11927,7 +12565,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A128" s="20">
         <v>121</v>
       </c>
@@ -11961,7 +12599,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="129" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A129" s="20">
         <v>122</v>
       </c>
@@ -11995,7 +12633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="130" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A130" s="20">
         <v>123</v>
       </c>
@@ -12029,7 +12667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="131" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A131" s="20">
         <v>124</v>
       </c>
@@ -12063,7 +12701,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="132" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A132" s="20">
         <v>125</v>
       </c>
@@ -12097,7 +12735,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="133" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A133" s="20">
         <v>126</v>
       </c>
@@ -12131,7 +12769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="134" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A134" s="20">
         <v>127</v>
       </c>
@@ -12165,7 +12803,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="135" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A135" s="20">
         <v>128</v>
       </c>
@@ -12199,7 +12837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="136" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A136" s="20">
         <v>129</v>
       </c>
@@ -12233,7 +12871,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="137" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A137" s="20">
         <v>130</v>
       </c>
@@ -12267,7 +12905,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="138" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A138" s="20">
         <v>131</v>
       </c>
@@ -12301,7 +12939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="139" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A139" s="20">
         <v>132</v>
       </c>
@@ -12335,7 +12973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="140" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A140" s="20">
         <v>133</v>
       </c>
@@ -12369,7 +13007,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="141" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A141" s="20">
         <v>134</v>
       </c>
@@ -12403,7 +13041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="142" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A142" s="20">
         <v>135</v>
       </c>
@@ -12437,7 +13075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="143" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A143" s="20">
         <v>136</v>
       </c>
@@ -12471,7 +13109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="144" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A144" s="20">
         <v>137</v>
       </c>
@@ -12505,7 +13143,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="145" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A145" s="20">
         <v>138</v>
       </c>
@@ -12539,7 +13177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="146" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A146" s="20">
         <v>139</v>
       </c>
@@ -12573,7 +13211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="147" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A147" s="20">
         <v>140</v>
       </c>
@@ -12607,7 +13245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="148" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A148" s="20">
         <v>141</v>
       </c>
@@ -12641,7 +13279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="149" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A149" s="20">
         <v>142</v>
       </c>
@@ -12675,7 +13313,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="150" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A150" s="20">
         <v>143</v>
       </c>
@@ -12709,7 +13347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="151" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A151" s="20">
         <v>144</v>
       </c>
@@ -12743,7 +13381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="152" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A152" s="20">
         <v>145</v>
       </c>
@@ -12777,7 +13415,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="153" spans="1:20" ht="47.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A153" s="20">
         <v>146</v>
       </c>
@@ -12828,16 +13466,16 @@
         <v>337</v>
       </c>
       <c r="F154" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>883</v>
-      </c>
-      <c r="H154" s="24" t="s">
-        <v>884</v>
+        <v>891</v>
+      </c>
+      <c r="H154" s="48" t="s">
+        <v>894</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>138</v>
@@ -12873,7 +13511,7 @@
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
+      <c r="H155" s="48"/>
       <c r="I155" s="24"/>
       <c r="J155" s="33" t="s">
         <v>847</v>
@@ -12911,7 +13549,7 @@
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
+      <c r="H156" s="48"/>
       <c r="I156" s="24"/>
       <c r="J156" s="25" t="s">
         <v>847</v>
@@ -12949,7 +13587,7 @@
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
+      <c r="H157" s="48"/>
       <c r="I157" s="24"/>
       <c r="J157" s="25" t="s">
         <v>847</v>
@@ -12969,7 +13607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="41.25" customHeight="1" thickBot="1">
+    <row r="158" spans="1:20" ht="131.25" customHeight="1" thickBot="1">
       <c r="A158" s="20">
         <v>151</v>
       </c>
@@ -12987,7 +13625,7 @@
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
+      <c r="H158" s="48"/>
       <c r="I158" s="24"/>
       <c r="J158" s="25" t="s">
         <v>847</v>
@@ -13024,16 +13662,16 @@
         <v>347</v>
       </c>
       <c r="F159" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>883</v>
-      </c>
-      <c r="H159" s="24" t="s">
-        <v>886</v>
+        <v>896</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>897</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
@@ -13056,7 +13694,9 @@
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
-      <c r="S159" s="27"/>
+      <c r="S159" s="34" t="s">
+        <v>857</v>
+      </c>
       <c r="T159" s="28" t="s">
         <v>104</v>
       </c>
@@ -13079,7 +13719,7 @@
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
+      <c r="H160" s="48"/>
       <c r="I160" s="24"/>
       <c r="J160" s="25" t="s">
         <v>847</v>
@@ -13116,16 +13756,16 @@
         <v>351</v>
       </c>
       <c r="F161" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>883</v>
-      </c>
-      <c r="H161" s="24" t="s">
-        <v>888</v>
+        <v>896</v>
+      </c>
+      <c r="H161" s="48" t="s">
+        <v>899</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -13148,9 +13788,7 @@
       </c>
       <c r="Q161" s="25"/>
       <c r="R161" s="26"/>
-      <c r="S161" s="34" t="s">
-        <v>857</v>
-      </c>
+      <c r="S161" s="34"/>
       <c r="T161" s="28" t="s">
         <v>104</v>
       </c>
@@ -13173,7 +13811,7 @@
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="24"/>
-      <c r="H162" s="24"/>
+      <c r="H162" s="48"/>
       <c r="I162" s="24"/>
       <c r="J162" s="25" t="s">
         <v>847</v>
@@ -13211,7 +13849,7 @@
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
+      <c r="H163" s="48"/>
       <c r="I163" s="24"/>
       <c r="J163" s="25" t="s">
         <v>847</v>
@@ -13249,7 +13887,7 @@
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="23"/>
-      <c r="H164" s="23"/>
+      <c r="H164" s="49"/>
       <c r="I164" s="23"/>
       <c r="J164" s="25" t="s">
         <v>847</v>
@@ -13286,16 +13924,16 @@
         <v>359</v>
       </c>
       <c r="F165" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>890</v>
-      </c>
-      <c r="H165" s="24" t="s">
-        <v>891</v>
+        <v>901</v>
+      </c>
+      <c r="H165" s="48" t="s">
+        <v>902</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -13308,7 +13946,7 @@
         <v>138</v>
       </c>
       <c r="N165" s="25" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="O165" s="25" t="s">
         <v>138</v>
@@ -13343,7 +13981,7 @@
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
-      <c r="H166" s="24"/>
+      <c r="H166" s="48"/>
       <c r="I166" s="24"/>
       <c r="J166" s="25" t="s">
         <v>847</v>
@@ -13381,7 +14019,7 @@
       </c>
       <c r="F167" s="23"/>
       <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
+      <c r="H167" s="48"/>
       <c r="I167" s="24"/>
       <c r="J167" s="25" t="s">
         <v>847</v>
@@ -13418,16 +14056,16 @@
         <v>365</v>
       </c>
       <c r="F168" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>890</v>
-      </c>
-      <c r="H168" s="24" t="s">
-        <v>893</v>
+        <v>901</v>
+      </c>
+      <c r="H168" s="48" t="s">
+        <v>904</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -13440,7 +14078,7 @@
         <v>138</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O168" s="25" t="s">
         <v>138</v>
@@ -13473,7 +14111,7 @@
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
+      <c r="H169" s="48"/>
       <c r="I169" s="24"/>
       <c r="J169" s="25" t="s">
         <v>847</v>
@@ -13511,7 +14149,7 @@
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
-      <c r="H170" s="24"/>
+      <c r="H170" s="48"/>
       <c r="I170" s="24"/>
       <c r="J170" s="25" t="s">
         <v>847</v>
@@ -13549,7 +14187,7 @@
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
-      <c r="H171" s="24"/>
+      <c r="H171" s="48"/>
       <c r="I171" s="24"/>
       <c r="J171" s="25" t="s">
         <v>847</v>
@@ -13587,7 +14225,7 @@
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
-      <c r="H172" s="24"/>
+      <c r="H172" s="48"/>
       <c r="I172" s="24"/>
       <c r="J172" s="25" t="s">
         <v>847</v>
@@ -13625,7 +14263,7 @@
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
-      <c r="H173" s="24"/>
+      <c r="H173" s="48"/>
       <c r="I173" s="24"/>
       <c r="J173" s="25" t="s">
         <v>847</v>
@@ -13663,7 +14301,7 @@
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
-      <c r="H174" s="24"/>
+      <c r="H174" s="48"/>
       <c r="I174" s="24"/>
       <c r="J174" s="25" t="s">
         <v>847</v>
@@ -13701,7 +14339,7 @@
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
+      <c r="H175" s="48"/>
       <c r="I175" s="24"/>
       <c r="J175" s="25" t="s">
         <v>847</v>
@@ -13739,7 +14377,7 @@
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="24"/>
-      <c r="H176" s="24"/>
+      <c r="H176" s="48"/>
       <c r="I176" s="24"/>
       <c r="J176" s="25" t="s">
         <v>847</v>
@@ -13759,7 +14397,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="177" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A177" s="20">
         <v>170</v>
       </c>
@@ -13793,7 +14431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="178" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A178" s="20">
         <v>171</v>
       </c>
@@ -13827,7 +14465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="179" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A179" s="20">
         <v>172</v>
       </c>
@@ -13861,7 +14499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="180" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A180" s="20">
         <v>173</v>
       </c>
@@ -13895,7 +14533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="181" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A181" s="20">
         <v>174</v>
       </c>
@@ -13929,7 +14567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="182" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A182" s="20">
         <v>175</v>
       </c>
@@ -13963,7 +14601,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="183" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A183" s="20">
         <v>176</v>
       </c>
@@ -13997,7 +14635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="184" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A184" s="20">
         <v>177</v>
       </c>
@@ -14031,7 +14669,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="185" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A185" s="20">
         <v>178</v>
       </c>
@@ -14065,7 +14703,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="186" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A186" s="20">
         <v>179</v>
       </c>
@@ -14099,7 +14737,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="187" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A187" s="20">
         <v>180</v>
       </c>
@@ -14133,7 +14771,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="188" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A188" s="20">
         <v>181</v>
       </c>
@@ -14167,7 +14805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="189" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A189" s="20">
         <v>182</v>
       </c>
@@ -14201,7 +14839,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="190" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A190" s="20">
         <v>183</v>
       </c>
@@ -14235,7 +14873,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="191" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A191" s="20">
         <v>184</v>
       </c>
@@ -14269,7 +14907,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="192" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A192" s="20">
         <v>185</v>
       </c>
@@ -14303,7 +14941,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="193" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A193" s="20">
         <v>186</v>
       </c>
@@ -14337,7 +14975,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="194" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A194" s="20">
         <v>187</v>
       </c>
@@ -14371,7 +15009,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="195" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A195" s="20">
         <v>188</v>
       </c>
@@ -14405,7 +15043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="196" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A196" s="20">
         <v>189</v>
       </c>
@@ -14439,7 +15077,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="197" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A197" s="20">
         <v>190</v>
       </c>
@@ -14473,7 +15111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="198" spans="1:20" ht="112.5" customHeight="1" thickBot="1">
       <c r="A198" s="20">
         <v>191</v>
       </c>
@@ -14489,11 +15127,21 @@
       <c r="E198" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="F198" s="23"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="24"/>
-      <c r="I198" s="24"/>
-      <c r="J198" s="25"/>
+      <c r="F198" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G198" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="H198" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="I198" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="J198" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K198" s="25"/>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -14507,7 +15155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1">
+    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A199" s="20">
         <v>192</v>
       </c>
@@ -14541,7 +15189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1">
+    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A200" s="20">
         <v>193</v>
       </c>
@@ -14575,7 +15223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A201" s="20">
         <v>194</v>
       </c>
@@ -14609,7 +15257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A202" s="20">
         <v>195</v>
       </c>
@@ -14643,7 +15291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A203" s="20">
         <v>196</v>
       </c>
@@ -14677,7 +15325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A204" s="20">
         <v>197</v>
       </c>
@@ -14711,7 +15359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A205" s="20">
         <v>198</v>
       </c>
@@ -14745,7 +15393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A206" s="20">
         <v>199</v>
       </c>
@@ -14779,7 +15427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A207" s="20">
         <v>200</v>
       </c>
@@ -14813,7 +15461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A208" s="20">
         <v>201</v>
       </c>
@@ -14847,7 +15495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A209" s="20">
         <v>202</v>
       </c>
@@ -14881,7 +15529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A210" s="20">
         <v>203</v>
       </c>
@@ -14915,7 +15563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A211" s="20">
         <v>204</v>
       </c>
@@ -14949,7 +15597,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A212" s="20">
         <v>205</v>
       </c>
@@ -14983,7 +15631,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A213" s="20">
         <v>206</v>
       </c>
@@ -15017,7 +15665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A214" s="20">
         <v>207</v>
       </c>
@@ -15051,7 +15699,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1">
+    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A215" s="20">
         <v>208</v>
       </c>
@@ -15085,7 +15733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A216" s="20">
         <v>209</v>
       </c>
@@ -15119,7 +15767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1">
+    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A217" s="20">
         <v>210</v>
       </c>
@@ -15153,7 +15801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A218" s="20">
         <v>211</v>
       </c>
@@ -15187,7 +15835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A219" s="20">
         <v>212</v>
       </c>
@@ -15221,7 +15869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A220" s="20">
         <v>213</v>
       </c>
@@ -15255,7 +15903,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A221" s="20">
         <v>214</v>
       </c>
@@ -15289,7 +15937,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A222" s="20">
         <v>215</v>
       </c>
@@ -15323,7 +15971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A223" s="20">
         <v>216</v>
       </c>
@@ -15357,7 +16005,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A224" s="20">
         <v>217</v>
       </c>
@@ -15391,7 +16039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A225" s="20">
         <v>218</v>
       </c>
@@ -15425,7 +16073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A226" s="20">
         <v>219</v>
       </c>
@@ -15459,7 +16107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A227" s="20">
         <v>220</v>
       </c>
@@ -15493,7 +16141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1">
+    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A228" s="20">
         <v>221</v>
       </c>
@@ -15527,7 +16175,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A229" s="20">
         <v>222</v>
       </c>
@@ -15561,7 +16209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A230" s="20">
         <v>223</v>
       </c>
@@ -15595,7 +16243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="204" hidden="1" customHeight="1">
+    <row r="231" spans="1:20" ht="204" hidden="1" customHeight="1" thickBot="1">
       <c r="A231" s="20">
         <v>224</v>
       </c>
@@ -15629,7 +16277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="232" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A232" s="20">
         <v>225</v>
       </c>
@@ -15663,7 +16311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="233" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A233" s="20">
         <v>226</v>
       </c>
@@ -15697,7 +16345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="234" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A234" s="20">
         <v>227</v>
       </c>
@@ -15731,7 +16379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="235" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A235" s="20">
         <v>228</v>
       </c>
@@ -15765,7 +16413,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="236" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A236" s="20">
         <v>229</v>
       </c>
@@ -15799,7 +16447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="237" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A237" s="20">
         <v>230</v>
       </c>
@@ -15833,7 +16481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="238" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A238" s="20">
         <v>231</v>
       </c>
@@ -15867,7 +16515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="239" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A239" s="20">
         <v>232</v>
       </c>
@@ -15901,7 +16549,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="240" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A240" s="20">
         <v>233</v>
       </c>
@@ -15935,7 +16583,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="241" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A241" s="20">
         <v>234</v>
       </c>
@@ -15969,7 +16617,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="242" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A242" s="20">
         <v>235</v>
       </c>
@@ -16003,7 +16651,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="243" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A243" s="20">
         <v>236</v>
       </c>
@@ -16037,7 +16685,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="244" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A244" s="20">
         <v>237</v>
       </c>
@@ -16071,7 +16719,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="245" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A245" s="20">
         <v>238</v>
       </c>
@@ -16105,7 +16753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="246" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A246" s="20">
         <v>239</v>
       </c>
@@ -16139,7 +16787,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A247" s="20">
         <v>240</v>
       </c>
@@ -16173,7 +16821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A248" s="20">
         <v>241</v>
       </c>
@@ -16207,7 +16855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A249" s="20">
         <v>242</v>
       </c>
@@ -16241,7 +16889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A250" s="20">
         <v>243</v>
       </c>
@@ -16275,7 +16923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A251" s="20">
         <v>244</v>
       </c>
@@ -16309,7 +16957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A252" s="20">
         <v>245</v>
       </c>
@@ -16343,7 +16991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A253" s="20">
         <v>246</v>
       </c>
@@ -16377,7 +17025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A254" s="20">
         <v>247</v>
       </c>
@@ -16411,7 +17059,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A255" s="20">
         <v>248</v>
       </c>
@@ -16445,7 +17093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A256" s="20">
         <v>249</v>
       </c>
@@ -16479,7 +17127,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A257" s="20">
         <v>250</v>
       </c>
@@ -16513,7 +17161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A258" s="20">
         <v>251</v>
       </c>
@@ -16547,7 +17195,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A259" s="20">
         <v>252</v>
       </c>
@@ -16581,7 +17229,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A260" s="20">
         <v>253</v>
       </c>
@@ -16615,7 +17263,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A261" s="20">
         <v>254</v>
       </c>
@@ -16649,7 +17297,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A262" s="20">
         <v>255</v>
       </c>
@@ -16683,7 +17331,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A263" s="20">
         <v>256</v>
       </c>
@@ -16717,7 +17365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A264" s="20">
         <v>257</v>
       </c>
@@ -16751,7 +17399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A265" s="20">
         <v>258</v>
       </c>
@@ -16785,7 +17433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A266" s="20">
         <v>259</v>
       </c>
@@ -16819,7 +17467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A267" s="20">
         <v>260</v>
       </c>
@@ -16853,7 +17501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A268" s="20">
         <v>261</v>
       </c>
@@ -16887,7 +17535,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A269" s="20">
         <v>262</v>
       </c>
@@ -16921,7 +17569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A270" s="20">
         <v>263</v>
       </c>
@@ -16955,7 +17603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A271" s="20">
         <v>264</v>
       </c>
@@ -16989,7 +17637,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A272" s="20">
         <v>265</v>
       </c>
@@ -17023,7 +17671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A273" s="20">
         <v>266</v>
       </c>
@@ -17057,7 +17705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A274" s="20">
         <v>267</v>
       </c>
@@ -17091,7 +17739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A275" s="20">
         <v>268</v>
       </c>
@@ -17125,7 +17773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A276" s="20">
         <v>269</v>
       </c>
@@ -17159,7 +17807,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A277" s="20">
         <v>270</v>
       </c>
@@ -17193,7 +17841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A278" s="20">
         <v>271</v>
       </c>
@@ -17227,7 +17875,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1">
+    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1" thickBot="1">
       <c r="A279" s="20">
         <v>272</v>
       </c>
@@ -17261,7 +17909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A280" s="20">
         <v>273</v>
       </c>
@@ -17295,7 +17943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A281" s="20">
         <v>274</v>
       </c>
@@ -17329,7 +17977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A282" s="20">
         <v>275</v>
       </c>
@@ -17363,7 +18011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A283" s="20">
         <v>276</v>
       </c>
@@ -17397,7 +18045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A284" s="20">
         <v>277</v>
       </c>
@@ -17431,7 +18079,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A285" s="20">
         <v>278</v>
       </c>
@@ -17465,7 +18113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A286" s="20">
         <v>279</v>
       </c>
@@ -17499,7 +18147,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A287" s="20">
         <v>280</v>
       </c>
@@ -17533,7 +18181,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A288" s="20">
         <v>281</v>
       </c>
@@ -17567,7 +18215,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A289" s="20">
         <v>282</v>
       </c>
@@ -17601,7 +18249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A290" s="20">
         <v>283</v>
       </c>
@@ -17635,7 +18283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A291" s="20">
         <v>284</v>
       </c>
@@ -17669,7 +18317,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A292" s="20">
         <v>285</v>
       </c>
@@ -17703,7 +18351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A293" s="20">
         <v>286</v>
       </c>
@@ -17737,7 +18385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1">
+    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A294" s="20">
         <v>287</v>
       </c>
@@ -17805,7 +18453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="296" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A296" s="20">
         <v>289</v>
       </c>
@@ -17839,7 +18487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="297" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A297" s="20">
         <v>290</v>
       </c>
@@ -17873,7 +18521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="298" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A298" s="20">
         <v>291</v>
       </c>
@@ -17907,7 +18555,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="299" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A299" s="20">
         <v>292</v>
       </c>
@@ -17941,7 +18589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="300" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A300" s="20">
         <v>293</v>
       </c>
@@ -17975,7 +18623,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="301" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A301" s="20">
         <v>294</v>
       </c>
@@ -18009,7 +18657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="302" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A302" s="20">
         <v>295</v>
       </c>
@@ -18043,7 +18691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="303" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A303" s="20">
         <v>296</v>
       </c>
@@ -18077,7 +18725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="304" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A304" s="20">
         <v>297</v>
       </c>
@@ -18111,7 +18759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="305" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A305" s="20">
         <v>298</v>
       </c>
@@ -18145,7 +18793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="306" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A306" s="20">
         <v>299</v>
       </c>
@@ -18179,7 +18827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="307" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A307" s="20">
         <v>300</v>
       </c>
@@ -18213,7 +18861,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="308" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A308" s="20">
         <v>301</v>
       </c>
@@ -18247,7 +18895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="309" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A309" s="20">
         <v>302</v>
       </c>
@@ -18281,7 +18929,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="310" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A310" s="20">
         <v>303</v>
       </c>
@@ -18315,7 +18963,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A311" s="20">
         <v>304</v>
       </c>
@@ -18349,7 +18997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A312" s="20">
         <v>305</v>
       </c>
@@ -18383,7 +19031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A313" s="20">
         <v>306</v>
       </c>
@@ -18417,7 +19065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A314" s="20">
         <v>307</v>
       </c>
@@ -18451,7 +19099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A315" s="20">
         <v>308</v>
       </c>
@@ -18485,7 +19133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A316" s="20">
         <v>309</v>
       </c>
@@ -18519,7 +19167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A317" s="20">
         <v>310</v>
       </c>
@@ -18553,7 +19201,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A318" s="20">
         <v>311</v>
       </c>
@@ -18587,7 +19235,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A319" s="20">
         <v>312</v>
       </c>
@@ -18621,7 +19269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A320" s="20">
         <v>313</v>
       </c>
@@ -18655,7 +19303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A321" s="20">
         <v>314</v>
       </c>
@@ -18689,7 +19337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A322" s="20">
         <v>315</v>
       </c>
@@ -18723,7 +19371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A323" s="20">
         <v>316</v>
       </c>
@@ -18757,7 +19405,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1">
+    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A324" s="20">
         <v>317</v>
       </c>
@@ -18791,7 +19439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1">
+    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A325" s="20">
         <v>318</v>
       </c>
@@ -18825,7 +19473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A326" s="20">
         <v>319</v>
       </c>
@@ -18859,7 +19507,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A327" s="20">
         <v>320</v>
       </c>
@@ -18893,7 +19541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A328" s="20">
         <v>321</v>
       </c>
@@ -18927,7 +19575,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A329" s="20">
         <v>322</v>
       </c>
@@ -18961,7 +19609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A330" s="20">
         <v>323</v>
       </c>
@@ -18995,7 +19643,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A331" s="20">
         <v>324</v>
       </c>
@@ -19029,7 +19677,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A332" s="20">
         <v>325</v>
       </c>
@@ -19063,7 +19711,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A333" s="20">
         <v>326</v>
       </c>
@@ -19097,7 +19745,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A334" s="20">
         <v>327</v>
       </c>
@@ -19131,7 +19779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="335" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A335" s="20">
         <v>328</v>
       </c>
@@ -19165,7 +19813,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="336" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A336" s="20">
         <v>329</v>
       </c>
@@ -19199,7 +19847,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="337" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A337" s="20">
         <v>330</v>
       </c>
@@ -19233,7 +19881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="338" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A338" s="20">
         <v>331</v>
       </c>
@@ -19267,7 +19915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A339" s="20">
         <v>332</v>
       </c>
@@ -19301,7 +19949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A340" s="20">
         <v>333</v>
       </c>
@@ -19335,7 +19983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A341" s="20">
         <v>334</v>
       </c>
@@ -19369,7 +20017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A342" s="20">
         <v>335</v>
       </c>
@@ -19403,7 +20051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A343" s="20">
         <v>336</v>
       </c>
@@ -19437,7 +20085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A344" s="20">
         <v>337</v>
       </c>
@@ -19471,7 +20119,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A345" s="20">
         <v>338</v>
       </c>
@@ -19505,7 +20153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A346" s="20">
         <v>339</v>
       </c>
@@ -19539,7 +20187,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A347" s="20">
         <v>340</v>
       </c>
@@ -19573,7 +20221,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A348" s="20">
         <v>341</v>
       </c>
@@ -19607,7 +20255,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A349" s="20">
         <v>342</v>
       </c>
@@ -19641,7 +20289,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A350" s="20">
         <v>343</v>
       </c>
@@ -19675,7 +20323,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="18.75" hidden="1" customHeight="1">
+    <row r="351" spans="1:20" ht="18.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A351" s="20">
         <v>344</v>
       </c>
@@ -19709,7 +20357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="16.5" hidden="1" customHeight="1">
+    <row r="352" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A352" s="20">
         <v>345</v>
       </c>
@@ -19743,7 +20391,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="15.75" hidden="1" customHeight="1">
+    <row r="353" spans="1:20" ht="15.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A353" s="20">
         <v>346</v>
       </c>
@@ -19777,7 +20425,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="18.75" hidden="1" customHeight="1">
+    <row r="354" spans="1:20" ht="18.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A354" s="20">
         <v>347</v>
       </c>
@@ -19811,7 +20459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A355" s="20">
         <v>348</v>
       </c>
@@ -19845,7 +20493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A356" s="20">
         <v>349</v>
       </c>
@@ -19879,7 +20527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1" thickBot="1">
       <c r="A357" s="20">
         <v>350</v>
       </c>
@@ -19913,7 +20561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A358" s="20">
         <v>351</v>
       </c>
@@ -19947,7 +20595,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A359" s="20">
         <v>352</v>
       </c>
@@ -19981,7 +20629,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A360" s="20">
         <v>353</v>
       </c>
@@ -20015,7 +20663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A361" s="20">
         <v>354</v>
       </c>
@@ -20049,7 +20697,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A362" s="20">
         <v>355</v>
       </c>
@@ -20083,7 +20731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="363" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A363" s="20">
         <v>356</v>
       </c>
@@ -20117,7 +20765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="364" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A364" s="20">
         <v>357</v>
       </c>
@@ -20151,7 +20799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A365" s="20">
         <v>358</v>
       </c>
@@ -20185,7 +20833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A366" s="20">
         <v>359</v>
       </c>
@@ -20219,7 +20867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A367" s="20">
         <v>360</v>
       </c>
@@ -20253,7 +20901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A368" s="20">
         <v>361</v>
       </c>
@@ -20287,7 +20935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A369" s="20">
         <v>362</v>
       </c>
@@ -20321,7 +20969,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A370" s="20">
         <v>363</v>
       </c>
@@ -20355,7 +21003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="18" hidden="1" customHeight="1">
+    <row r="371" spans="1:20" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A371" s="20">
         <v>364</v>
       </c>
@@ -20389,7 +21037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="16.5" hidden="1" customHeight="1">
+    <row r="372" spans="1:20" ht="16.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A372" s="20">
         <v>365</v>
       </c>
@@ -20423,7 +21071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A373" s="20">
         <v>366</v>
       </c>
@@ -20457,7 +21105,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A374" s="20">
         <v>367</v>
       </c>
@@ -20491,7 +21139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="375" spans="1:20" ht="79.5" customHeight="1" thickBot="1">
       <c r="A375" s="20">
         <v>368</v>
       </c>
@@ -20507,11 +21155,21 @@
       <c r="E375" s="22" t="s">
         <v>777</v>
       </c>
-      <c r="F375" s="23"/>
-      <c r="G375" s="24"/>
-      <c r="H375" s="24"/>
-      <c r="I375" s="24"/>
-      <c r="J375" s="25"/>
+      <c r="F375" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G375" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="H375" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="I375" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="J375" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K375" s="25"/>
       <c r="L375" s="25"/>
       <c r="M375" s="25"/>
@@ -20525,7 +21183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="376" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A376" s="20">
         <v>369</v>
       </c>
@@ -20559,7 +21217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="377" spans="1:20" ht="117.75" customHeight="1" thickBot="1">
       <c r="A377" s="20">
         <v>370</v>
       </c>
@@ -20575,11 +21233,21 @@
       <c r="E377" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="F377" s="23"/>
-      <c r="G377" s="24"/>
-      <c r="H377" s="24"/>
-      <c r="I377" s="24"/>
-      <c r="J377" s="25"/>
+      <c r="F377" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G377" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="H377" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="I377" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="J377" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K377" s="25"/>
       <c r="L377" s="25"/>
       <c r="M377" s="25"/>
@@ -20593,7 +21261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="378" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A378" s="20">
         <v>371</v>
       </c>
@@ -20627,7 +21295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="379" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A379" s="20">
         <v>372</v>
       </c>
@@ -20695,7 +21363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="84.75" customHeight="1">
+    <row r="381" spans="1:20" ht="84.75" customHeight="1" thickBot="1">
       <c r="A381" s="20">
         <v>374</v>
       </c>
@@ -20712,16 +21380,16 @@
         <v>789</v>
       </c>
       <c r="F381" s="23">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="H381" s="24" t="s">
-        <v>895</v>
+        <v>891</v>
+      </c>
+      <c r="H381" s="48" t="s">
+        <v>892</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>
@@ -20739,7 +21407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="382" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A382" s="20">
         <v>375</v>
       </c>
@@ -20773,7 +21441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="383" spans="1:20" ht="115.5" customHeight="1">
       <c r="A383" s="20">
         <v>376</v>
       </c>
@@ -20789,11 +21457,21 @@
       <c r="E383" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="F383" s="23"/>
-      <c r="G383" s="24"/>
-      <c r="H383" s="24"/>
-      <c r="I383" s="24"/>
-      <c r="J383" s="25"/>
+      <c r="F383" s="23">
+        <v>45306</v>
+      </c>
+      <c r="G383" s="51" t="s">
+        <v>921</v>
+      </c>
+      <c r="H383" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="I383" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="J383" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K383" s="25"/>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
@@ -20810,7 +21488,7 @@
     <row r="384" spans="1:20" ht="14.25" customHeight="1">
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
-      <c r="H384" s="12"/>
+      <c r="H384" s="47"/>
       <c r="I384" s="12"/>
       <c r="J384" s="13"/>
       <c r="K384" s="13"/>
@@ -20827,7 +21505,7 @@
     <row r="385" spans="6:20" ht="14.25" customHeight="1">
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
-      <c r="H385" s="12"/>
+      <c r="H385" s="47"/>
       <c r="I385" s="12"/>
       <c r="J385" s="13"/>
       <c r="K385" s="13"/>
@@ -20844,7 +21522,7 @@
     <row r="386" spans="6:20" ht="14.25" customHeight="1">
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
-      <c r="H386" s="12"/>
+      <c r="H386" s="47"/>
       <c r="I386" s="12"/>
       <c r="J386" s="13"/>
       <c r="K386" s="13"/>
@@ -20861,7 +21539,7 @@
     <row r="387" spans="6:20" ht="14.25" customHeight="1">
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
-      <c r="H387" s="12"/>
+      <c r="H387" s="47"/>
       <c r="I387" s="12"/>
       <c r="J387" s="13"/>
       <c r="K387" s="13"/>
@@ -20878,7 +21556,7 @@
     <row r="388" spans="6:20" ht="14.25" customHeight="1">
       <c r="F388" s="12"/>
       <c r="G388" s="12"/>
-      <c r="H388" s="12"/>
+      <c r="H388" s="47"/>
       <c r="I388" s="12" t="s">
         <v>863</v>
       </c>
@@ -20897,7 +21575,7 @@
     <row r="389" spans="6:20" ht="14.25" customHeight="1">
       <c r="F389" s="12"/>
       <c r="G389" s="12"/>
-      <c r="H389" s="12"/>
+      <c r="H389" s="47"/>
       <c r="I389" s="12"/>
       <c r="J389" s="13"/>
       <c r="K389" s="13"/>
@@ -20914,7 +21592,7 @@
     <row r="390" spans="6:20" ht="14.25" customHeight="1">
       <c r="F390" s="12"/>
       <c r="G390" s="12"/>
-      <c r="H390" s="12"/>
+      <c r="H390" s="47"/>
       <c r="I390" s="12"/>
       <c r="J390" s="13"/>
       <c r="K390" s="13"/>
@@ -20931,7 +21609,7 @@
     <row r="391" spans="6:20" ht="14.25" customHeight="1">
       <c r="F391" s="12"/>
       <c r="G391" s="12"/>
-      <c r="H391" s="12"/>
+      <c r="H391" s="47"/>
       <c r="I391" s="12"/>
       <c r="J391" s="13"/>
       <c r="K391" s="13"/>
@@ -20948,7 +21626,7 @@
     <row r="392" spans="6:20" ht="14.25" customHeight="1">
       <c r="F392" s="12"/>
       <c r="G392" s="12"/>
-      <c r="H392" s="12"/>
+      <c r="H392" s="47"/>
       <c r="I392" s="12"/>
       <c r="J392" s="13"/>
       <c r="K392" s="13"/>
@@ -20965,7 +21643,7 @@
     <row r="393" spans="6:20" ht="14.25" customHeight="1">
       <c r="F393" s="12"/>
       <c r="G393" s="12"/>
-      <c r="H393" s="12"/>
+      <c r="H393" s="47"/>
       <c r="I393" s="12"/>
       <c r="J393" s="13"/>
       <c r="K393" s="13"/>
@@ -20982,7 +21660,7 @@
     <row r="394" spans="6:20" ht="14.25" customHeight="1">
       <c r="F394" s="12"/>
       <c r="G394" s="12"/>
-      <c r="H394" s="12"/>
+      <c r="H394" s="47"/>
       <c r="I394" s="12"/>
       <c r="J394" s="13"/>
       <c r="K394" s="13"/>
@@ -20999,7 +21677,7 @@
     <row r="395" spans="6:20" ht="14.25" customHeight="1">
       <c r="F395" s="12"/>
       <c r="G395" s="12"/>
-      <c r="H395" s="12"/>
+      <c r="H395" s="47"/>
       <c r="I395" s="12"/>
       <c r="J395" s="13"/>
       <c r="K395" s="13"/>
@@ -21016,7 +21694,7 @@
     <row r="396" spans="6:20" ht="14.25" customHeight="1">
       <c r="F396" s="12"/>
       <c r="G396" s="12"/>
-      <c r="H396" s="12"/>
+      <c r="H396" s="47"/>
       <c r="I396" s="12"/>
       <c r="J396" s="13"/>
       <c r="K396" s="13"/>
@@ -21033,7 +21711,7 @@
     <row r="397" spans="6:20" ht="14.25" customHeight="1">
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
-      <c r="H397" s="12"/>
+      <c r="H397" s="47"/>
       <c r="I397" s="12"/>
       <c r="J397" s="13"/>
       <c r="K397" s="13"/>
@@ -21050,7 +21728,7 @@
     <row r="398" spans="6:20" ht="14.25" customHeight="1">
       <c r="F398" s="12"/>
       <c r="G398" s="12"/>
-      <c r="H398" s="12"/>
+      <c r="H398" s="47"/>
       <c r="I398" s="12"/>
       <c r="J398" s="13"/>
       <c r="K398" s="13"/>
@@ -21067,7 +21745,7 @@
     <row r="399" spans="6:20" ht="14.25" customHeight="1">
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
-      <c r="H399" s="12"/>
+      <c r="H399" s="47"/>
       <c r="I399" s="12"/>
       <c r="J399" s="13"/>
       <c r="K399" s="13"/>
@@ -21084,7 +21762,7 @@
     <row r="400" spans="6:20" ht="14.25" customHeight="1">
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
-      <c r="H400" s="12"/>
+      <c r="H400" s="47"/>
       <c r="I400" s="12"/>
       <c r="J400" s="13"/>
       <c r="K400" s="13"/>
@@ -21101,7 +21779,7 @@
     <row r="401" spans="6:20" ht="14.25" customHeight="1">
       <c r="F401" s="12"/>
       <c r="G401" s="12"/>
-      <c r="H401" s="12"/>
+      <c r="H401" s="47"/>
       <c r="I401" s="12"/>
       <c r="J401" s="13"/>
       <c r="K401" s="13"/>
@@ -21118,7 +21796,7 @@
     <row r="402" spans="6:20" ht="14.25" customHeight="1">
       <c r="F402" s="12"/>
       <c r="G402" s="12"/>
-      <c r="H402" s="12"/>
+      <c r="H402" s="47"/>
       <c r="I402" s="12"/>
       <c r="J402" s="13"/>
       <c r="K402" s="13"/>
@@ -21135,7 +21813,7 @@
     <row r="403" spans="6:20" ht="14.25" customHeight="1">
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
-      <c r="H403" s="12"/>
+      <c r="H403" s="47"/>
       <c r="I403" s="12"/>
       <c r="J403" s="13"/>
       <c r="K403" s="13"/>
@@ -21152,7 +21830,7 @@
     <row r="404" spans="6:20" ht="14.25" customHeight="1">
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
-      <c r="H404" s="12"/>
+      <c r="H404" s="47"/>
       <c r="I404" s="12"/>
       <c r="J404" s="13"/>
       <c r="K404" s="13"/>
@@ -21169,7 +21847,7 @@
     <row r="405" spans="6:20" ht="14.25" customHeight="1">
       <c r="F405" s="12"/>
       <c r="G405" s="12"/>
-      <c r="H405" s="12"/>
+      <c r="H405" s="47"/>
       <c r="I405" s="12"/>
       <c r="J405" s="13"/>
       <c r="K405" s="13"/>
@@ -21186,7 +21864,7 @@
     <row r="406" spans="6:20" ht="14.25" customHeight="1">
       <c r="F406" s="12"/>
       <c r="G406" s="12"/>
-      <c r="H406" s="12"/>
+      <c r="H406" s="47"/>
       <c r="I406" s="12"/>
       <c r="J406" s="13"/>
       <c r="K406" s="13"/>
@@ -21203,7 +21881,7 @@
     <row r="407" spans="6:20" ht="14.25" customHeight="1">
       <c r="F407" s="12"/>
       <c r="G407" s="12"/>
-      <c r="H407" s="12"/>
+      <c r="H407" s="47"/>
       <c r="I407" s="12"/>
       <c r="J407" s="13"/>
       <c r="K407" s="13"/>
@@ -21220,7 +21898,7 @@
     <row r="408" spans="6:20" ht="14.25" customHeight="1">
       <c r="F408" s="12"/>
       <c r="G408" s="12"/>
-      <c r="H408" s="12"/>
+      <c r="H408" s="47"/>
       <c r="I408" s="12"/>
       <c r="J408" s="13"/>
       <c r="K408" s="13"/>
@@ -21237,7 +21915,7 @@
     <row r="409" spans="6:20" ht="14.25" customHeight="1">
       <c r="F409" s="12"/>
       <c r="G409" s="12"/>
-      <c r="H409" s="12"/>
+      <c r="H409" s="47"/>
       <c r="I409" s="12"/>
       <c r="J409" s="13"/>
       <c r="K409" s="13"/>
@@ -21254,7 +21932,7 @@
     <row r="410" spans="6:20" ht="14.25" customHeight="1">
       <c r="F410" s="12"/>
       <c r="G410" s="12"/>
-      <c r="H410" s="12"/>
+      <c r="H410" s="47"/>
       <c r="I410" s="12"/>
       <c r="J410" s="13"/>
       <c r="K410" s="13"/>
@@ -21271,7 +21949,7 @@
     <row r="411" spans="6:20" ht="14.25" customHeight="1">
       <c r="F411" s="12"/>
       <c r="G411" s="12"/>
-      <c r="H411" s="12"/>
+      <c r="H411" s="47"/>
       <c r="I411" s="12"/>
       <c r="J411" s="13"/>
       <c r="K411" s="13"/>
@@ -21288,7 +21966,7 @@
     <row r="412" spans="6:20" ht="14.25" customHeight="1">
       <c r="F412" s="12"/>
       <c r="G412" s="12"/>
-      <c r="H412" s="12"/>
+      <c r="H412" s="47"/>
       <c r="I412" s="12"/>
       <c r="J412" s="13"/>
       <c r="K412" s="13"/>
@@ -21305,7 +21983,7 @@
     <row r="413" spans="6:20" ht="14.25" customHeight="1">
       <c r="F413" s="12"/>
       <c r="G413" s="12"/>
-      <c r="H413" s="12"/>
+      <c r="H413" s="47"/>
       <c r="I413" s="12"/>
       <c r="J413" s="13"/>
       <c r="K413" s="13"/>
@@ -21322,7 +22000,7 @@
     <row r="414" spans="6:20" ht="14.25" customHeight="1">
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
-      <c r="H414" s="12"/>
+      <c r="H414" s="47"/>
       <c r="I414" s="12"/>
       <c r="J414" s="13"/>
       <c r="K414" s="13"/>
@@ -21339,7 +22017,7 @@
     <row r="415" spans="6:20" ht="14.25" customHeight="1">
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
-      <c r="H415" s="12"/>
+      <c r="H415" s="47"/>
       <c r="I415" s="12"/>
       <c r="J415" s="13"/>
       <c r="K415" s="13"/>
@@ -21356,7 +22034,7 @@
     <row r="416" spans="6:20" ht="14.25" customHeight="1">
       <c r="F416" s="12"/>
       <c r="G416" s="12"/>
-      <c r="H416" s="12"/>
+      <c r="H416" s="47"/>
       <c r="I416" s="12"/>
       <c r="J416" s="13"/>
       <c r="K416" s="13"/>
@@ -21373,7 +22051,7 @@
     <row r="417" spans="6:20" ht="14.25" customHeight="1">
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
-      <c r="H417" s="12"/>
+      <c r="H417" s="47"/>
       <c r="I417" s="12"/>
       <c r="J417" s="13"/>
       <c r="K417" s="13"/>
@@ -21390,7 +22068,7 @@
     <row r="418" spans="6:20" ht="14.25" customHeight="1">
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
-      <c r="H418" s="12"/>
+      <c r="H418" s="47"/>
       <c r="I418" s="12"/>
       <c r="J418" s="13"/>
       <c r="K418" s="13"/>
@@ -21407,7 +22085,7 @@
     <row r="419" spans="6:20" ht="14.25" customHeight="1">
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
-      <c r="H419" s="12"/>
+      <c r="H419" s="47"/>
       <c r="I419" s="12"/>
       <c r="J419" s="13"/>
       <c r="K419" s="13"/>
@@ -21424,7 +22102,7 @@
     <row r="420" spans="6:20" ht="14.25" customHeight="1">
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
-      <c r="H420" s="12"/>
+      <c r="H420" s="47"/>
       <c r="I420" s="12"/>
       <c r="J420" s="13"/>
       <c r="K420" s="13"/>
@@ -21441,7 +22119,7 @@
     <row r="421" spans="6:20" ht="14.25" customHeight="1">
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
-      <c r="H421" s="12"/>
+      <c r="H421" s="47"/>
       <c r="I421" s="12"/>
       <c r="J421" s="13"/>
       <c r="K421" s="13"/>
@@ -21458,7 +22136,7 @@
     <row r="422" spans="6:20" ht="14.25" customHeight="1">
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
-      <c r="H422" s="12"/>
+      <c r="H422" s="47"/>
       <c r="I422" s="12"/>
       <c r="J422" s="13"/>
       <c r="K422" s="13"/>
@@ -21475,7 +22153,7 @@
     <row r="423" spans="6:20" ht="14.25" customHeight="1">
       <c r="F423" s="12"/>
       <c r="G423" s="12"/>
-      <c r="H423" s="12"/>
+      <c r="H423" s="47"/>
       <c r="I423" s="12"/>
       <c r="J423" s="13"/>
       <c r="K423" s="13"/>
@@ -21492,7 +22170,7 @@
     <row r="424" spans="6:20" ht="14.25" customHeight="1">
       <c r="F424" s="12"/>
       <c r="G424" s="12"/>
-      <c r="H424" s="12"/>
+      <c r="H424" s="47"/>
       <c r="I424" s="12"/>
       <c r="J424" s="13"/>
       <c r="K424" s="13"/>
@@ -21509,7 +22187,7 @@
     <row r="425" spans="6:20" ht="14.25" customHeight="1">
       <c r="F425" s="12"/>
       <c r="G425" s="12"/>
-      <c r="H425" s="12"/>
+      <c r="H425" s="47"/>
       <c r="I425" s="12"/>
       <c r="J425" s="13"/>
       <c r="K425" s="13"/>
@@ -21526,7 +22204,7 @@
     <row r="426" spans="6:20" ht="14.25" customHeight="1">
       <c r="F426" s="12"/>
       <c r="G426" s="12"/>
-      <c r="H426" s="12"/>
+      <c r="H426" s="47"/>
       <c r="I426" s="12"/>
       <c r="J426" s="13"/>
       <c r="K426" s="13"/>
@@ -21543,7 +22221,7 @@
     <row r="427" spans="6:20" ht="14.25" customHeight="1">
       <c r="F427" s="12"/>
       <c r="G427" s="12"/>
-      <c r="H427" s="12"/>
+      <c r="H427" s="47"/>
       <c r="I427" s="12"/>
       <c r="J427" s="13"/>
       <c r="K427" s="13"/>
@@ -21560,7 +22238,7 @@
     <row r="428" spans="6:20" ht="14.25" customHeight="1">
       <c r="F428" s="12"/>
       <c r="G428" s="12"/>
-      <c r="H428" s="12"/>
+      <c r="H428" s="47"/>
       <c r="I428" s="12"/>
       <c r="J428" s="13"/>
       <c r="K428" s="13"/>
@@ -21577,7 +22255,7 @@
     <row r="429" spans="6:20" ht="14.25" customHeight="1">
       <c r="F429" s="12"/>
       <c r="G429" s="12"/>
-      <c r="H429" s="12"/>
+      <c r="H429" s="47"/>
       <c r="I429" s="12"/>
       <c r="J429" s="13"/>
       <c r="K429" s="13"/>
@@ -21594,7 +22272,7 @@
     <row r="430" spans="6:20" ht="14.25" customHeight="1">
       <c r="F430" s="12"/>
       <c r="G430" s="12"/>
-      <c r="H430" s="12"/>
+      <c r="H430" s="47"/>
       <c r="I430" s="12"/>
       <c r="J430" s="13"/>
       <c r="K430" s="13"/>
@@ -21611,7 +22289,7 @@
     <row r="431" spans="6:20" ht="14.25" customHeight="1">
       <c r="F431" s="12"/>
       <c r="G431" s="12"/>
-      <c r="H431" s="12"/>
+      <c r="H431" s="47"/>
       <c r="I431" s="12"/>
       <c r="J431" s="13"/>
       <c r="K431" s="13"/>
@@ -21628,7 +22306,7 @@
     <row r="432" spans="6:20" ht="14.25" customHeight="1">
       <c r="F432" s="12"/>
       <c r="G432" s="12"/>
-      <c r="H432" s="12"/>
+      <c r="H432" s="47"/>
       <c r="I432" s="12"/>
       <c r="J432" s="13"/>
       <c r="K432" s="13"/>
@@ -21645,7 +22323,7 @@
     <row r="433" spans="6:20" ht="14.25" customHeight="1">
       <c r="F433" s="12"/>
       <c r="G433" s="12"/>
-      <c r="H433" s="12"/>
+      <c r="H433" s="47"/>
       <c r="I433" s="12"/>
       <c r="J433" s="13"/>
       <c r="K433" s="13"/>
@@ -21662,7 +22340,7 @@
     <row r="434" spans="6:20" ht="14.25" customHeight="1">
       <c r="F434" s="12"/>
       <c r="G434" s="12"/>
-      <c r="H434" s="12"/>
+      <c r="H434" s="47"/>
       <c r="I434" s="12"/>
       <c r="J434" s="13"/>
       <c r="K434" s="13"/>
@@ -21679,7 +22357,7 @@
     <row r="435" spans="6:20" ht="14.25" customHeight="1">
       <c r="F435" s="12"/>
       <c r="G435" s="12"/>
-      <c r="H435" s="12"/>
+      <c r="H435" s="47"/>
       <c r="I435" s="12"/>
       <c r="J435" s="13"/>
       <c r="K435" s="13"/>
@@ -21696,7 +22374,7 @@
     <row r="436" spans="6:20" ht="14.25" customHeight="1">
       <c r="F436" s="12"/>
       <c r="G436" s="12"/>
-      <c r="H436" s="12"/>
+      <c r="H436" s="47"/>
       <c r="I436" s="12"/>
       <c r="J436" s="13"/>
       <c r="K436" s="13"/>
@@ -21713,7 +22391,7 @@
     <row r="437" spans="6:20" ht="14.25" customHeight="1">
       <c r="F437" s="12"/>
       <c r="G437" s="12"/>
-      <c r="H437" s="12"/>
+      <c r="H437" s="47"/>
       <c r="I437" s="12"/>
       <c r="J437" s="13"/>
       <c r="K437" s="13"/>
@@ -21730,7 +22408,7 @@
     <row r="438" spans="6:20" ht="14.25" customHeight="1">
       <c r="F438" s="12"/>
       <c r="G438" s="12"/>
-      <c r="H438" s="12"/>
+      <c r="H438" s="47"/>
       <c r="I438" s="12"/>
       <c r="J438" s="13"/>
       <c r="K438" s="13"/>
@@ -21747,7 +22425,7 @@
     <row r="439" spans="6:20" ht="14.25" customHeight="1">
       <c r="F439" s="12"/>
       <c r="G439" s="12"/>
-      <c r="H439" s="12"/>
+      <c r="H439" s="47"/>
       <c r="I439" s="12"/>
       <c r="J439" s="13"/>
       <c r="K439" s="13"/>
@@ -21764,7 +22442,7 @@
     <row r="440" spans="6:20" ht="14.25" customHeight="1">
       <c r="F440" s="12"/>
       <c r="G440" s="12"/>
-      <c r="H440" s="12"/>
+      <c r="H440" s="47"/>
       <c r="I440" s="12"/>
       <c r="J440" s="13"/>
       <c r="K440" s="13"/>
@@ -21781,7 +22459,7 @@
     <row r="441" spans="6:20" ht="14.25" customHeight="1">
       <c r="F441" s="12"/>
       <c r="G441" s="12"/>
-      <c r="H441" s="12"/>
+      <c r="H441" s="47"/>
       <c r="I441" s="12"/>
       <c r="J441" s="13"/>
       <c r="K441" s="13"/>
@@ -21798,7 +22476,7 @@
     <row r="442" spans="6:20" ht="14.25" customHeight="1">
       <c r="F442" s="12"/>
       <c r="G442" s="12"/>
-      <c r="H442" s="12"/>
+      <c r="H442" s="47"/>
       <c r="I442" s="12"/>
       <c r="J442" s="13"/>
       <c r="K442" s="13"/>
@@ -21815,7 +22493,7 @@
     <row r="443" spans="6:20" ht="14.25" customHeight="1">
       <c r="F443" s="12"/>
       <c r="G443" s="12"/>
-      <c r="H443" s="12"/>
+      <c r="H443" s="47"/>
       <c r="I443" s="12"/>
       <c r="J443" s="13"/>
       <c r="K443" s="13"/>
@@ -21832,7 +22510,7 @@
     <row r="444" spans="6:20" ht="14.25" customHeight="1">
       <c r="F444" s="12"/>
       <c r="G444" s="12"/>
-      <c r="H444" s="12"/>
+      <c r="H444" s="47"/>
       <c r="I444" s="12"/>
       <c r="J444" s="13"/>
       <c r="K444" s="13"/>
@@ -21849,7 +22527,7 @@
     <row r="445" spans="6:20" ht="14.25" customHeight="1">
       <c r="F445" s="12"/>
       <c r="G445" s="12"/>
-      <c r="H445" s="12"/>
+      <c r="H445" s="47"/>
       <c r="I445" s="12"/>
       <c r="J445" s="13"/>
       <c r="K445" s="13"/>
@@ -21866,7 +22544,7 @@
     <row r="446" spans="6:20" ht="14.25" customHeight="1">
       <c r="F446" s="12"/>
       <c r="G446" s="12"/>
-      <c r="H446" s="12"/>
+      <c r="H446" s="47"/>
       <c r="I446" s="12"/>
       <c r="J446" s="13"/>
       <c r="K446" s="13"/>
@@ -21883,7 +22561,7 @@
     <row r="447" spans="6:20" ht="14.25" customHeight="1">
       <c r="F447" s="12"/>
       <c r="G447" s="12"/>
-      <c r="H447" s="12"/>
+      <c r="H447" s="47"/>
       <c r="I447" s="12"/>
       <c r="J447" s="13"/>
       <c r="K447" s="13"/>
@@ -21900,7 +22578,7 @@
     <row r="448" spans="6:20" ht="14.25" customHeight="1">
       <c r="F448" s="12"/>
       <c r="G448" s="12"/>
-      <c r="H448" s="12"/>
+      <c r="H448" s="47"/>
       <c r="I448" s="12"/>
       <c r="J448" s="13"/>
       <c r="K448" s="13"/>
@@ -21917,7 +22595,7 @@
     <row r="449" spans="6:20" ht="14.25" customHeight="1">
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
-      <c r="H449" s="12"/>
+      <c r="H449" s="47"/>
       <c r="I449" s="12"/>
       <c r="J449" s="13"/>
       <c r="K449" s="13"/>
@@ -21934,7 +22612,7 @@
     <row r="450" spans="6:20" ht="14.25" customHeight="1">
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
-      <c r="H450" s="12"/>
+      <c r="H450" s="47"/>
       <c r="I450" s="12"/>
       <c r="J450" s="13"/>
       <c r="K450" s="13"/>
@@ -21951,7 +22629,7 @@
     <row r="451" spans="6:20" ht="14.25" customHeight="1">
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
-      <c r="H451" s="12"/>
+      <c r="H451" s="47"/>
       <c r="I451" s="12"/>
       <c r="J451" s="13"/>
       <c r="K451" s="13"/>
@@ -21968,7 +22646,7 @@
     <row r="452" spans="6:20" ht="14.25" customHeight="1">
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
-      <c r="H452" s="12"/>
+      <c r="H452" s="47"/>
       <c r="I452" s="12"/>
       <c r="J452" s="13"/>
       <c r="K452" s="13"/>
@@ -21985,7 +22663,7 @@
     <row r="453" spans="6:20" ht="14.25" customHeight="1">
       <c r="F453" s="12"/>
       <c r="G453" s="12"/>
-      <c r="H453" s="12"/>
+      <c r="H453" s="47"/>
       <c r="I453" s="12"/>
       <c r="J453" s="13"/>
       <c r="K453" s="13"/>
@@ -22002,7 +22680,7 @@
     <row r="454" spans="6:20" ht="14.25" customHeight="1">
       <c r="F454" s="12"/>
       <c r="G454" s="12"/>
-      <c r="H454" s="12"/>
+      <c r="H454" s="47"/>
       <c r="I454" s="12"/>
       <c r="J454" s="13"/>
       <c r="K454" s="13"/>
@@ -22019,7 +22697,7 @@
     <row r="455" spans="6:20" ht="14.25" customHeight="1">
       <c r="F455" s="12"/>
       <c r="G455" s="12"/>
-      <c r="H455" s="12"/>
+      <c r="H455" s="47"/>
       <c r="I455" s="12"/>
       <c r="J455" s="13"/>
       <c r="K455" s="13"/>
@@ -22036,7 +22714,7 @@
     <row r="456" spans="6:20" ht="14.25" customHeight="1">
       <c r="F456" s="12"/>
       <c r="G456" s="12"/>
-      <c r="H456" s="12"/>
+      <c r="H456" s="47"/>
       <c r="I456" s="12"/>
       <c r="J456" s="13"/>
       <c r="K456" s="13"/>
@@ -22053,7 +22731,7 @@
     <row r="457" spans="6:20" ht="14.25" customHeight="1">
       <c r="F457" s="12"/>
       <c r="G457" s="12"/>
-      <c r="H457" s="12"/>
+      <c r="H457" s="47"/>
       <c r="I457" s="12"/>
       <c r="J457" s="13"/>
       <c r="K457" s="13"/>
@@ -22070,7 +22748,7 @@
     <row r="458" spans="6:20" ht="14.25" customHeight="1">
       <c r="F458" s="12"/>
       <c r="G458" s="12"/>
-      <c r="H458" s="12"/>
+      <c r="H458" s="47"/>
       <c r="I458" s="12"/>
       <c r="J458" s="13"/>
       <c r="K458" s="13"/>
@@ -22087,7 +22765,7 @@
     <row r="459" spans="6:20" ht="14.25" customHeight="1">
       <c r="F459" s="12"/>
       <c r="G459" s="12"/>
-      <c r="H459" s="12"/>
+      <c r="H459" s="47"/>
       <c r="I459" s="12"/>
       <c r="J459" s="13"/>
       <c r="K459" s="13"/>
@@ -22104,7 +22782,7 @@
     <row r="460" spans="6:20" ht="14.25" customHeight="1">
       <c r="F460" s="12"/>
       <c r="G460" s="12"/>
-      <c r="H460" s="12"/>
+      <c r="H460" s="47"/>
       <c r="I460" s="12"/>
       <c r="J460" s="13"/>
       <c r="K460" s="13"/>
@@ -22121,7 +22799,7 @@
     <row r="461" spans="6:20" ht="14.25" customHeight="1">
       <c r="F461" s="12"/>
       <c r="G461" s="12"/>
-      <c r="H461" s="12"/>
+      <c r="H461" s="47"/>
       <c r="I461" s="12"/>
       <c r="J461" s="13"/>
       <c r="K461" s="13"/>
@@ -22138,7 +22816,7 @@
     <row r="462" spans="6:20" ht="14.25" customHeight="1">
       <c r="F462" s="12"/>
       <c r="G462" s="12"/>
-      <c r="H462" s="12"/>
+      <c r="H462" s="47"/>
       <c r="I462" s="12"/>
       <c r="J462" s="13"/>
       <c r="K462" s="13"/>
@@ -22155,7 +22833,7 @@
     <row r="463" spans="6:20" ht="14.25" customHeight="1">
       <c r="F463" s="12"/>
       <c r="G463" s="12"/>
-      <c r="H463" s="12"/>
+      <c r="H463" s="47"/>
       <c r="I463" s="12"/>
       <c r="J463" s="13"/>
       <c r="K463" s="13"/>
@@ -22172,7 +22850,7 @@
     <row r="464" spans="6:20" ht="14.25" customHeight="1">
       <c r="F464" s="12"/>
       <c r="G464" s="12"/>
-      <c r="H464" s="12"/>
+      <c r="H464" s="47"/>
       <c r="I464" s="12"/>
       <c r="J464" s="13"/>
       <c r="K464" s="13"/>
@@ -22189,7 +22867,7 @@
     <row r="465" spans="6:20" ht="14.25" customHeight="1">
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
-      <c r="H465" s="12"/>
+      <c r="H465" s="47"/>
       <c r="I465" s="12"/>
       <c r="J465" s="13"/>
       <c r="K465" s="13"/>
@@ -22206,7 +22884,7 @@
     <row r="466" spans="6:20" ht="14.25" customHeight="1">
       <c r="F466" s="12"/>
       <c r="G466" s="12"/>
-      <c r="H466" s="12"/>
+      <c r="H466" s="47"/>
       <c r="I466" s="12"/>
       <c r="J466" s="13"/>
       <c r="K466" s="13"/>
@@ -22223,7 +22901,7 @@
     <row r="467" spans="6:20" ht="14.25" customHeight="1">
       <c r="F467" s="12"/>
       <c r="G467" s="12"/>
-      <c r="H467" s="12"/>
+      <c r="H467" s="47"/>
       <c r="I467" s="12"/>
       <c r="J467" s="13"/>
       <c r="K467" s="13"/>
@@ -22240,7 +22918,7 @@
     <row r="468" spans="6:20" ht="14.25" customHeight="1">
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
-      <c r="H468" s="12"/>
+      <c r="H468" s="47"/>
       <c r="I468" s="12"/>
       <c r="J468" s="13"/>
       <c r="K468" s="13"/>
@@ -22257,7 +22935,7 @@
     <row r="469" spans="6:20" ht="14.25" customHeight="1">
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
-      <c r="H469" s="12"/>
+      <c r="H469" s="47"/>
       <c r="I469" s="12"/>
       <c r="J469" s="13"/>
       <c r="K469" s="13"/>
@@ -22274,7 +22952,7 @@
     <row r="470" spans="6:20" ht="14.25" customHeight="1">
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
-      <c r="H470" s="12"/>
+      <c r="H470" s="47"/>
       <c r="I470" s="12"/>
       <c r="J470" s="13"/>
       <c r="K470" s="13"/>
@@ -22291,7 +22969,7 @@
     <row r="471" spans="6:20" ht="14.25" customHeight="1">
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
-      <c r="H471" s="12"/>
+      <c r="H471" s="47"/>
       <c r="I471" s="12"/>
       <c r="J471" s="13"/>
       <c r="K471" s="13"/>
@@ -22308,7 +22986,7 @@
     <row r="472" spans="6:20" ht="14.25" customHeight="1">
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
-      <c r="H472" s="12"/>
+      <c r="H472" s="47"/>
       <c r="I472" s="12"/>
       <c r="J472" s="13"/>
       <c r="K472" s="13"/>
@@ -22325,7 +23003,7 @@
     <row r="473" spans="6:20" ht="14.25" customHeight="1">
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
-      <c r="H473" s="12"/>
+      <c r="H473" s="47"/>
       <c r="I473" s="12"/>
       <c r="J473" s="13"/>
       <c r="K473" s="13"/>
@@ -22342,7 +23020,7 @@
     <row r="474" spans="6:20" ht="14.25" customHeight="1">
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
-      <c r="H474" s="12"/>
+      <c r="H474" s="47"/>
       <c r="I474" s="12"/>
       <c r="J474" s="13"/>
       <c r="K474" s="13"/>
@@ -22359,7 +23037,7 @@
     <row r="475" spans="6:20" ht="14.25" customHeight="1">
       <c r="F475" s="12"/>
       <c r="G475" s="12"/>
-      <c r="H475" s="12"/>
+      <c r="H475" s="47"/>
       <c r="I475" s="12"/>
       <c r="J475" s="13"/>
       <c r="K475" s="13"/>
@@ -22376,7 +23054,7 @@
     <row r="476" spans="6:20" ht="14.25" customHeight="1">
       <c r="F476" s="12"/>
       <c r="G476" s="12"/>
-      <c r="H476" s="12"/>
+      <c r="H476" s="47"/>
       <c r="I476" s="12"/>
       <c r="J476" s="13"/>
       <c r="K476" s="13"/>
@@ -22393,7 +23071,7 @@
     <row r="477" spans="6:20" ht="14.25" customHeight="1">
       <c r="F477" s="12"/>
       <c r="G477" s="12"/>
-      <c r="H477" s="12"/>
+      <c r="H477" s="47"/>
       <c r="I477" s="12"/>
       <c r="J477" s="13"/>
       <c r="K477" s="13"/>
@@ -22410,7 +23088,7 @@
     <row r="478" spans="6:20" ht="14.25" customHeight="1">
       <c r="F478" s="12"/>
       <c r="G478" s="12"/>
-      <c r="H478" s="12"/>
+      <c r="H478" s="47"/>
       <c r="I478" s="12"/>
       <c r="J478" s="13"/>
       <c r="K478" s="13"/>
@@ -22427,7 +23105,7 @@
     <row r="479" spans="6:20" ht="14.25" customHeight="1">
       <c r="F479" s="12"/>
       <c r="G479" s="12"/>
-      <c r="H479" s="12"/>
+      <c r="H479" s="47"/>
       <c r="I479" s="12"/>
       <c r="J479" s="13"/>
       <c r="K479" s="13"/>
@@ -22444,7 +23122,7 @@
     <row r="480" spans="6:20" ht="14.25" customHeight="1">
       <c r="F480" s="12"/>
       <c r="G480" s="12"/>
-      <c r="H480" s="12"/>
+      <c r="H480" s="47"/>
       <c r="I480" s="12"/>
       <c r="J480" s="13"/>
       <c r="K480" s="13"/>
@@ -22461,7 +23139,7 @@
     <row r="481" spans="6:20" ht="14.25" customHeight="1">
       <c r="F481" s="12"/>
       <c r="G481" s="12"/>
-      <c r="H481" s="12"/>
+      <c r="H481" s="47"/>
       <c r="I481" s="12"/>
       <c r="J481" s="13"/>
       <c r="K481" s="13"/>
@@ -22478,7 +23156,7 @@
     <row r="482" spans="6:20" ht="14.25" customHeight="1">
       <c r="F482" s="12"/>
       <c r="G482" s="12"/>
-      <c r="H482" s="12"/>
+      <c r="H482" s="47"/>
       <c r="I482" s="12"/>
       <c r="J482" s="13"/>
       <c r="K482" s="13"/>
@@ -22495,7 +23173,7 @@
     <row r="483" spans="6:20" ht="14.25" customHeight="1">
       <c r="F483" s="12"/>
       <c r="G483" s="12"/>
-      <c r="H483" s="12"/>
+      <c r="H483" s="47"/>
       <c r="I483" s="12"/>
       <c r="J483" s="13"/>
       <c r="K483" s="13"/>
@@ -22512,7 +23190,7 @@
     <row r="484" spans="6:20" ht="14.25" customHeight="1">
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
-      <c r="H484" s="12"/>
+      <c r="H484" s="47"/>
       <c r="I484" s="12"/>
       <c r="J484" s="13"/>
       <c r="K484" s="13"/>
@@ -22529,7 +23207,7 @@
     <row r="485" spans="6:20" ht="14.25" customHeight="1">
       <c r="F485" s="12"/>
       <c r="G485" s="12"/>
-      <c r="H485" s="12"/>
+      <c r="H485" s="47"/>
       <c r="I485" s="12"/>
       <c r="J485" s="13"/>
       <c r="K485" s="13"/>
@@ -22546,7 +23224,7 @@
     <row r="486" spans="6:20" ht="14.25" customHeight="1">
       <c r="F486" s="12"/>
       <c r="G486" s="12"/>
-      <c r="H486" s="12"/>
+      <c r="H486" s="47"/>
       <c r="I486" s="12"/>
       <c r="J486" s="13"/>
       <c r="K486" s="13"/>
@@ -22563,7 +23241,7 @@
     <row r="487" spans="6:20" ht="14.25" customHeight="1">
       <c r="F487" s="12"/>
       <c r="G487" s="12"/>
-      <c r="H487" s="12"/>
+      <c r="H487" s="47"/>
       <c r="I487" s="12"/>
       <c r="J487" s="13"/>
       <c r="K487" s="13"/>
@@ -22580,7 +23258,7 @@
     <row r="488" spans="6:20" ht="14.25" customHeight="1">
       <c r="F488" s="12"/>
       <c r="G488" s="12"/>
-      <c r="H488" s="12"/>
+      <c r="H488" s="47"/>
       <c r="I488" s="12"/>
       <c r="J488" s="13"/>
       <c r="K488" s="13"/>
@@ -22597,7 +23275,7 @@
     <row r="489" spans="6:20" ht="14.25" customHeight="1">
       <c r="F489" s="12"/>
       <c r="G489" s="12"/>
-      <c r="H489" s="12"/>
+      <c r="H489" s="47"/>
       <c r="I489" s="12"/>
       <c r="J489" s="13"/>
       <c r="K489" s="13"/>
@@ -22614,7 +23292,7 @@
     <row r="490" spans="6:20" ht="14.25" customHeight="1">
       <c r="F490" s="12"/>
       <c r="G490" s="12"/>
-      <c r="H490" s="12"/>
+      <c r="H490" s="47"/>
       <c r="I490" s="12"/>
       <c r="J490" s="13"/>
       <c r="K490" s="13"/>
@@ -22631,7 +23309,7 @@
     <row r="491" spans="6:20" ht="14.25" customHeight="1">
       <c r="F491" s="12"/>
       <c r="G491" s="12"/>
-      <c r="H491" s="12"/>
+      <c r="H491" s="47"/>
       <c r="I491" s="12"/>
       <c r="J491" s="13"/>
       <c r="K491" s="13"/>
@@ -22648,7 +23326,7 @@
     <row r="492" spans="6:20" ht="14.25" customHeight="1">
       <c r="F492" s="12"/>
       <c r="G492" s="12"/>
-      <c r="H492" s="12"/>
+      <c r="H492" s="47"/>
       <c r="I492" s="12"/>
       <c r="J492" s="13"/>
       <c r="K492" s="13"/>
@@ -22665,7 +23343,7 @@
     <row r="493" spans="6:20" ht="14.25" customHeight="1">
       <c r="F493" s="12"/>
       <c r="G493" s="12"/>
-      <c r="H493" s="12"/>
+      <c r="H493" s="47"/>
       <c r="I493" s="12"/>
       <c r="J493" s="13"/>
       <c r="K493" s="13"/>
@@ -22682,7 +23360,7 @@
     <row r="494" spans="6:20" ht="14.25" customHeight="1">
       <c r="F494" s="12"/>
       <c r="G494" s="12"/>
-      <c r="H494" s="12"/>
+      <c r="H494" s="47"/>
       <c r="I494" s="12"/>
       <c r="J494" s="13"/>
       <c r="K494" s="13"/>
@@ -22699,7 +23377,7 @@
     <row r="495" spans="6:20" ht="14.25" customHeight="1">
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
-      <c r="H495" s="12"/>
+      <c r="H495" s="47"/>
       <c r="I495" s="12"/>
       <c r="J495" s="13"/>
       <c r="K495" s="13"/>
@@ -22716,7 +23394,7 @@
     <row r="496" spans="6:20" ht="14.25" customHeight="1">
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
-      <c r="H496" s="12"/>
+      <c r="H496" s="47"/>
       <c r="I496" s="12"/>
       <c r="J496" s="13"/>
       <c r="K496" s="13"/>
@@ -22733,7 +23411,7 @@
     <row r="497" spans="6:20" ht="14.25" customHeight="1">
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
-      <c r="H497" s="12"/>
+      <c r="H497" s="47"/>
       <c r="I497" s="12"/>
       <c r="J497" s="13"/>
       <c r="K497" s="13"/>
@@ -22750,7 +23428,7 @@
     <row r="498" spans="6:20" ht="14.25" customHeight="1">
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
-      <c r="H498" s="12"/>
+      <c r="H498" s="47"/>
       <c r="I498" s="12"/>
       <c r="J498" s="13"/>
       <c r="K498" s="13"/>
@@ -22767,7 +23445,7 @@
     <row r="499" spans="6:20" ht="14.25" customHeight="1">
       <c r="F499" s="12"/>
       <c r="G499" s="12"/>
-      <c r="H499" s="12"/>
+      <c r="H499" s="47"/>
       <c r="I499" s="12"/>
       <c r="J499" s="13"/>
       <c r="K499" s="13"/>
@@ -22784,7 +23462,7 @@
     <row r="500" spans="6:20" ht="14.25" customHeight="1">
       <c r="F500" s="12"/>
       <c r="G500" s="12"/>
-      <c r="H500" s="12"/>
+      <c r="H500" s="47"/>
       <c r="I500" s="12"/>
       <c r="J500" s="13"/>
       <c r="K500" s="13"/>
@@ -22801,7 +23479,7 @@
     <row r="501" spans="6:20" ht="14.25" customHeight="1">
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
-      <c r="H501" s="12"/>
+      <c r="H501" s="47"/>
       <c r="I501" s="12"/>
       <c r="J501" s="13"/>
       <c r="K501" s="13"/>
@@ -22818,7 +23496,7 @@
     <row r="502" spans="6:20" ht="14.25" customHeight="1">
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
-      <c r="H502" s="12"/>
+      <c r="H502" s="47"/>
       <c r="I502" s="12"/>
       <c r="J502" s="13"/>
       <c r="K502" s="13"/>
@@ -22835,7 +23513,7 @@
     <row r="503" spans="6:20" ht="14.25" customHeight="1">
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
-      <c r="H503" s="12"/>
+      <c r="H503" s="47"/>
       <c r="I503" s="12"/>
       <c r="J503" s="13"/>
       <c r="K503" s="13"/>
@@ -22852,7 +23530,7 @@
     <row r="504" spans="6:20" ht="14.25" customHeight="1">
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
-      <c r="H504" s="12"/>
+      <c r="H504" s="47"/>
       <c r="I504" s="12"/>
       <c r="J504" s="13"/>
       <c r="K504" s="13"/>
@@ -22869,7 +23547,7 @@
     <row r="505" spans="6:20" ht="14.25" customHeight="1">
       <c r="F505" s="12"/>
       <c r="G505" s="12"/>
-      <c r="H505" s="12"/>
+      <c r="H505" s="47"/>
       <c r="I505" s="12"/>
       <c r="J505" s="13"/>
       <c r="K505" s="13"/>
@@ -22886,7 +23564,7 @@
     <row r="506" spans="6:20" ht="14.25" customHeight="1">
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
-      <c r="H506" s="12"/>
+      <c r="H506" s="47"/>
       <c r="I506" s="12"/>
       <c r="J506" s="13"/>
       <c r="K506" s="13"/>
@@ -22903,7 +23581,7 @@
     <row r="507" spans="6:20" ht="14.25" customHeight="1">
       <c r="F507" s="12"/>
       <c r="G507" s="12"/>
-      <c r="H507" s="12"/>
+      <c r="H507" s="47"/>
       <c r="I507" s="12"/>
       <c r="J507" s="13"/>
       <c r="K507" s="13"/>
@@ -22920,7 +23598,7 @@
     <row r="508" spans="6:20" ht="14.25" customHeight="1">
       <c r="F508" s="12"/>
       <c r="G508" s="12"/>
-      <c r="H508" s="12"/>
+      <c r="H508" s="47"/>
       <c r="I508" s="12"/>
       <c r="J508" s="13"/>
       <c r="K508" s="13"/>
@@ -22937,7 +23615,7 @@
     <row r="509" spans="6:20" ht="14.25" customHeight="1">
       <c r="F509" s="12"/>
       <c r="G509" s="12"/>
-      <c r="H509" s="12"/>
+      <c r="H509" s="47"/>
       <c r="I509" s="12"/>
       <c r="J509" s="13"/>
       <c r="K509" s="13"/>
@@ -22954,7 +23632,7 @@
     <row r="510" spans="6:20" ht="14.25" customHeight="1">
       <c r="F510" s="12"/>
       <c r="G510" s="12"/>
-      <c r="H510" s="12"/>
+      <c r="H510" s="47"/>
       <c r="I510" s="12"/>
       <c r="J510" s="13"/>
       <c r="K510" s="13"/>
@@ -22971,7 +23649,7 @@
     <row r="511" spans="6:20" ht="14.25" customHeight="1">
       <c r="F511" s="12"/>
       <c r="G511" s="12"/>
-      <c r="H511" s="12"/>
+      <c r="H511" s="47"/>
       <c r="I511" s="12"/>
       <c r="J511" s="13"/>
       <c r="K511" s="13"/>
@@ -22988,7 +23666,7 @@
     <row r="512" spans="6:20" ht="14.25" customHeight="1">
       <c r="F512" s="12"/>
       <c r="G512" s="12"/>
-      <c r="H512" s="12"/>
+      <c r="H512" s="47"/>
       <c r="I512" s="12"/>
       <c r="J512" s="13"/>
       <c r="K512" s="13"/>
@@ -23005,7 +23683,7 @@
     <row r="513" spans="6:20" ht="14.25" customHeight="1">
       <c r="F513" s="12"/>
       <c r="G513" s="12"/>
-      <c r="H513" s="12"/>
+      <c r="H513" s="47"/>
       <c r="I513" s="12"/>
       <c r="J513" s="13"/>
       <c r="K513" s="13"/>
@@ -23022,7 +23700,7 @@
     <row r="514" spans="6:20" ht="14.25" customHeight="1">
       <c r="F514" s="12"/>
       <c r="G514" s="12"/>
-      <c r="H514" s="12"/>
+      <c r="H514" s="47"/>
       <c r="I514" s="12"/>
       <c r="J514" s="13"/>
       <c r="K514" s="13"/>
@@ -23039,7 +23717,7 @@
     <row r="515" spans="6:20" ht="14.25" customHeight="1">
       <c r="F515" s="12"/>
       <c r="G515" s="12"/>
-      <c r="H515" s="12"/>
+      <c r="H515" s="47"/>
       <c r="I515" s="12"/>
       <c r="J515" s="13"/>
       <c r="K515" s="13"/>
@@ -23056,7 +23734,7 @@
     <row r="516" spans="6:20" ht="14.25" customHeight="1">
       <c r="F516" s="12"/>
       <c r="G516" s="12"/>
-      <c r="H516" s="12"/>
+      <c r="H516" s="47"/>
       <c r="I516" s="12"/>
       <c r="J516" s="13"/>
       <c r="K516" s="13"/>
@@ -23073,7 +23751,7 @@
     <row r="517" spans="6:20" ht="14.25" customHeight="1">
       <c r="F517" s="12"/>
       <c r="G517" s="12"/>
-      <c r="H517" s="12"/>
+      <c r="H517" s="47"/>
       <c r="I517" s="12"/>
       <c r="J517" s="13"/>
       <c r="K517" s="13"/>
@@ -23090,7 +23768,7 @@
     <row r="518" spans="6:20" ht="14.25" customHeight="1">
       <c r="F518" s="12"/>
       <c r="G518" s="12"/>
-      <c r="H518" s="12"/>
+      <c r="H518" s="47"/>
       <c r="I518" s="12"/>
       <c r="J518" s="13"/>
       <c r="K518" s="13"/>
@@ -23107,7 +23785,7 @@
     <row r="519" spans="6:20" ht="14.25" customHeight="1">
       <c r="F519" s="12"/>
       <c r="G519" s="12"/>
-      <c r="H519" s="12"/>
+      <c r="H519" s="47"/>
       <c r="I519" s="12"/>
       <c r="J519" s="13"/>
       <c r="K519" s="13"/>
@@ -23124,7 +23802,7 @@
     <row r="520" spans="6:20" ht="14.25" customHeight="1">
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
-      <c r="H520" s="12"/>
+      <c r="H520" s="47"/>
       <c r="I520" s="12"/>
       <c r="J520" s="13"/>
       <c r="K520" s="13"/>
@@ -23141,7 +23819,7 @@
     <row r="521" spans="6:20" ht="14.25" customHeight="1">
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
-      <c r="H521" s="12"/>
+      <c r="H521" s="47"/>
       <c r="I521" s="12"/>
       <c r="J521" s="13"/>
       <c r="K521" s="13"/>
@@ -23158,7 +23836,7 @@
     <row r="522" spans="6:20" ht="14.25" customHeight="1">
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
-      <c r="H522" s="12"/>
+      <c r="H522" s="47"/>
       <c r="I522" s="12"/>
       <c r="J522" s="13"/>
       <c r="K522" s="13"/>
@@ -23175,7 +23853,7 @@
     <row r="523" spans="6:20" ht="14.25" customHeight="1">
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
-      <c r="H523" s="12"/>
+      <c r="H523" s="47"/>
       <c r="I523" s="12"/>
       <c r="J523" s="13"/>
       <c r="K523" s="13"/>
@@ -23192,7 +23870,7 @@
     <row r="524" spans="6:20" ht="14.25" customHeight="1">
       <c r="F524" s="12"/>
       <c r="G524" s="12"/>
-      <c r="H524" s="12"/>
+      <c r="H524" s="47"/>
       <c r="I524" s="12"/>
       <c r="J524" s="13"/>
       <c r="K524" s="13"/>
@@ -23209,7 +23887,7 @@
     <row r="525" spans="6:20" ht="14.25" customHeight="1">
       <c r="F525" s="12"/>
       <c r="G525" s="12"/>
-      <c r="H525" s="12"/>
+      <c r="H525" s="47"/>
       <c r="I525" s="12"/>
       <c r="J525" s="13"/>
       <c r="K525" s="13"/>
@@ -23226,7 +23904,7 @@
     <row r="526" spans="6:20" ht="14.25" customHeight="1">
       <c r="F526" s="12"/>
       <c r="G526" s="12"/>
-      <c r="H526" s="12"/>
+      <c r="H526" s="47"/>
       <c r="I526" s="12"/>
       <c r="J526" s="13"/>
       <c r="K526" s="13"/>
@@ -23243,7 +23921,7 @@
     <row r="527" spans="6:20" ht="14.25" customHeight="1">
       <c r="F527" s="12"/>
       <c r="G527" s="12"/>
-      <c r="H527" s="12"/>
+      <c r="H527" s="47"/>
       <c r="I527" s="12"/>
       <c r="J527" s="13"/>
       <c r="K527" s="13"/>
@@ -23260,7 +23938,7 @@
     <row r="528" spans="6:20" ht="14.25" customHeight="1">
       <c r="F528" s="12"/>
       <c r="G528" s="12"/>
-      <c r="H528" s="12"/>
+      <c r="H528" s="47"/>
       <c r="I528" s="12"/>
       <c r="J528" s="13"/>
       <c r="K528" s="13"/>
@@ -23277,7 +23955,7 @@
     <row r="529" spans="6:20" ht="14.25" customHeight="1">
       <c r="F529" s="12"/>
       <c r="G529" s="12"/>
-      <c r="H529" s="12"/>
+      <c r="H529" s="47"/>
       <c r="I529" s="12"/>
       <c r="J529" s="13"/>
       <c r="K529" s="13"/>
@@ -23294,7 +23972,7 @@
     <row r="530" spans="6:20" ht="14.25" customHeight="1">
       <c r="F530" s="12"/>
       <c r="G530" s="12"/>
-      <c r="H530" s="12"/>
+      <c r="H530" s="47"/>
       <c r="I530" s="12"/>
       <c r="J530" s="13"/>
       <c r="K530" s="13"/>
@@ -23311,7 +23989,7 @@
     <row r="531" spans="6:20" ht="14.25" customHeight="1">
       <c r="F531" s="12"/>
       <c r="G531" s="12"/>
-      <c r="H531" s="12"/>
+      <c r="H531" s="47"/>
       <c r="I531" s="12"/>
       <c r="J531" s="13"/>
       <c r="K531" s="13"/>
@@ -23328,7 +24006,7 @@
     <row r="532" spans="6:20" ht="14.25" customHeight="1">
       <c r="F532" s="12"/>
       <c r="G532" s="12"/>
-      <c r="H532" s="12"/>
+      <c r="H532" s="47"/>
       <c r="I532" s="12"/>
       <c r="J532" s="13"/>
       <c r="K532" s="13"/>
@@ -23345,7 +24023,7 @@
     <row r="533" spans="6:20" ht="14.25" customHeight="1">
       <c r="F533" s="12"/>
       <c r="G533" s="12"/>
-      <c r="H533" s="12"/>
+      <c r="H533" s="47"/>
       <c r="I533" s="12"/>
       <c r="J533" s="13"/>
       <c r="K533" s="13"/>
@@ -23362,7 +24040,7 @@
     <row r="534" spans="6:20" ht="14.25" customHeight="1">
       <c r="F534" s="12"/>
       <c r="G534" s="12"/>
-      <c r="H534" s="12"/>
+      <c r="H534" s="47"/>
       <c r="I534" s="12"/>
       <c r="J534" s="13"/>
       <c r="K534" s="13"/>
@@ -23379,7 +24057,7 @@
     <row r="535" spans="6:20" ht="14.25" customHeight="1">
       <c r="F535" s="12"/>
       <c r="G535" s="12"/>
-      <c r="H535" s="12"/>
+      <c r="H535" s="47"/>
       <c r="I535" s="12"/>
       <c r="J535" s="13"/>
       <c r="K535" s="13"/>
@@ -23396,7 +24074,7 @@
     <row r="536" spans="6:20" ht="14.25" customHeight="1">
       <c r="F536" s="12"/>
       <c r="G536" s="12"/>
-      <c r="H536" s="12"/>
+      <c r="H536" s="47"/>
       <c r="I536" s="12"/>
       <c r="J536" s="13"/>
       <c r="K536" s="13"/>
@@ -23413,7 +24091,7 @@
     <row r="537" spans="6:20" ht="14.25" customHeight="1">
       <c r="F537" s="12"/>
       <c r="G537" s="12"/>
-      <c r="H537" s="12"/>
+      <c r="H537" s="47"/>
       <c r="I537" s="12"/>
       <c r="J537" s="13"/>
       <c r="K537" s="13"/>
@@ -23430,7 +24108,7 @@
     <row r="538" spans="6:20" ht="14.25" customHeight="1">
       <c r="F538" s="12"/>
       <c r="G538" s="12"/>
-      <c r="H538" s="12"/>
+      <c r="H538" s="47"/>
       <c r="I538" s="12"/>
       <c r="J538" s="13"/>
       <c r="K538" s="13"/>
@@ -23447,7 +24125,7 @@
     <row r="539" spans="6:20" ht="14.25" customHeight="1">
       <c r="F539" s="12"/>
       <c r="G539" s="12"/>
-      <c r="H539" s="12"/>
+      <c r="H539" s="47"/>
       <c r="I539" s="12"/>
       <c r="J539" s="13"/>
       <c r="K539" s="13"/>
@@ -23464,7 +24142,7 @@
     <row r="540" spans="6:20" ht="14.25" customHeight="1">
       <c r="F540" s="12"/>
       <c r="G540" s="12"/>
-      <c r="H540" s="12"/>
+      <c r="H540" s="47"/>
       <c r="I540" s="12"/>
       <c r="J540" s="13"/>
       <c r="K540" s="13"/>
@@ -23481,7 +24159,7 @@
     <row r="541" spans="6:20" ht="14.25" customHeight="1">
       <c r="F541" s="12"/>
       <c r="G541" s="12"/>
-      <c r="H541" s="12"/>
+      <c r="H541" s="47"/>
       <c r="I541" s="12"/>
       <c r="J541" s="13"/>
       <c r="K541" s="13"/>
@@ -23498,7 +24176,7 @@
     <row r="542" spans="6:20" ht="14.25" customHeight="1">
       <c r="F542" s="12"/>
       <c r="G542" s="12"/>
-      <c r="H542" s="12"/>
+      <c r="H542" s="47"/>
       <c r="I542" s="12"/>
       <c r="J542" s="13"/>
       <c r="K542" s="13"/>
@@ -23515,7 +24193,7 @@
     <row r="543" spans="6:20" ht="14.25" customHeight="1">
       <c r="F543" s="12"/>
       <c r="G543" s="12"/>
-      <c r="H543" s="12"/>
+      <c r="H543" s="47"/>
       <c r="I543" s="12"/>
       <c r="J543" s="13"/>
       <c r="K543" s="13"/>
@@ -23532,7 +24210,7 @@
     <row r="544" spans="6:20" ht="14.25" customHeight="1">
       <c r="F544" s="12"/>
       <c r="G544" s="12"/>
-      <c r="H544" s="12"/>
+      <c r="H544" s="47"/>
       <c r="I544" s="12"/>
       <c r="J544" s="13"/>
       <c r="K544" s="13"/>
@@ -23549,7 +24227,7 @@
     <row r="545" spans="6:20" ht="14.25" customHeight="1">
       <c r="F545" s="12"/>
       <c r="G545" s="12"/>
-      <c r="H545" s="12"/>
+      <c r="H545" s="47"/>
       <c r="I545" s="12"/>
       <c r="J545" s="13"/>
       <c r="K545" s="13"/>
@@ -23566,7 +24244,7 @@
     <row r="546" spans="6:20" ht="14.25" customHeight="1">
       <c r="F546" s="12"/>
       <c r="G546" s="12"/>
-      <c r="H546" s="12"/>
+      <c r="H546" s="47"/>
       <c r="I546" s="12"/>
       <c r="J546" s="13"/>
       <c r="K546" s="13"/>
@@ -23583,7 +24261,7 @@
     <row r="547" spans="6:20" ht="14.25" customHeight="1">
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
-      <c r="H547" s="12"/>
+      <c r="H547" s="47"/>
       <c r="I547" s="12"/>
       <c r="J547" s="13"/>
       <c r="K547" s="13"/>
@@ -23600,7 +24278,7 @@
     <row r="548" spans="6:20" ht="14.25" customHeight="1">
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
-      <c r="H548" s="12"/>
+      <c r="H548" s="47"/>
       <c r="I548" s="12"/>
       <c r="J548" s="13"/>
       <c r="K548" s="13"/>
@@ -23617,7 +24295,7 @@
     <row r="549" spans="6:20" ht="14.25" customHeight="1">
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
-      <c r="H549" s="12"/>
+      <c r="H549" s="47"/>
       <c r="I549" s="12"/>
       <c r="J549" s="13"/>
       <c r="K549" s="13"/>
@@ -23634,7 +24312,7 @@
     <row r="550" spans="6:20" ht="14.25" customHeight="1">
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
-      <c r="H550" s="12"/>
+      <c r="H550" s="47"/>
       <c r="I550" s="12"/>
       <c r="J550" s="13"/>
       <c r="K550" s="13"/>
@@ -23651,7 +24329,7 @@
     <row r="551" spans="6:20" ht="14.25" customHeight="1">
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
-      <c r="H551" s="12"/>
+      <c r="H551" s="47"/>
       <c r="I551" s="12"/>
       <c r="J551" s="13"/>
       <c r="K551" s="13"/>
@@ -23668,7 +24346,7 @@
     <row r="552" spans="6:20" ht="14.25" customHeight="1">
       <c r="F552" s="12"/>
       <c r="G552" s="12"/>
-      <c r="H552" s="12"/>
+      <c r="H552" s="47"/>
       <c r="I552" s="12"/>
       <c r="J552" s="13"/>
       <c r="K552" s="13"/>
@@ -23685,7 +24363,7 @@
     <row r="553" spans="6:20" ht="14.25" customHeight="1">
       <c r="F553" s="12"/>
       <c r="G553" s="12"/>
-      <c r="H553" s="12"/>
+      <c r="H553" s="47"/>
       <c r="I553" s="12"/>
       <c r="J553" s="13"/>
       <c r="K553" s="13"/>
@@ -23702,7 +24380,7 @@
     <row r="554" spans="6:20" ht="14.25" customHeight="1">
       <c r="F554" s="12"/>
       <c r="G554" s="12"/>
-      <c r="H554" s="12"/>
+      <c r="H554" s="47"/>
       <c r="I554" s="12"/>
       <c r="J554" s="13"/>
       <c r="K554" s="13"/>
@@ -23719,7 +24397,7 @@
     <row r="555" spans="6:20" ht="14.25" customHeight="1">
       <c r="F555" s="12"/>
       <c r="G555" s="12"/>
-      <c r="H555" s="12"/>
+      <c r="H555" s="47"/>
       <c r="I555" s="12"/>
       <c r="J555" s="13"/>
       <c r="K555" s="13"/>
@@ -23736,7 +24414,7 @@
     <row r="556" spans="6:20" ht="14.25" customHeight="1">
       <c r="F556" s="12"/>
       <c r="G556" s="12"/>
-      <c r="H556" s="12"/>
+      <c r="H556" s="47"/>
       <c r="I556" s="12"/>
       <c r="J556" s="13"/>
       <c r="K556" s="13"/>
@@ -23753,7 +24431,7 @@
     <row r="557" spans="6:20" ht="14.25" customHeight="1">
       <c r="F557" s="12"/>
       <c r="G557" s="12"/>
-      <c r="H557" s="12"/>
+      <c r="H557" s="47"/>
       <c r="I557" s="12"/>
       <c r="J557" s="13"/>
       <c r="K557" s="13"/>
@@ -23770,7 +24448,7 @@
     <row r="558" spans="6:20" ht="14.25" customHeight="1">
       <c r="F558" s="12"/>
       <c r="G558" s="12"/>
-      <c r="H558" s="12"/>
+      <c r="H558" s="47"/>
       <c r="I558" s="12"/>
       <c r="J558" s="13"/>
       <c r="K558" s="13"/>
@@ -23787,7 +24465,7 @@
     <row r="559" spans="6:20" ht="14.25" customHeight="1">
       <c r="F559" s="12"/>
       <c r="G559" s="12"/>
-      <c r="H559" s="12"/>
+      <c r="H559" s="47"/>
       <c r="I559" s="12"/>
       <c r="J559" s="13"/>
       <c r="K559" s="13"/>
@@ -23804,7 +24482,7 @@
     <row r="560" spans="6:20" ht="14.25" customHeight="1">
       <c r="F560" s="12"/>
       <c r="G560" s="12"/>
-      <c r="H560" s="12"/>
+      <c r="H560" s="47"/>
       <c r="I560" s="12"/>
       <c r="J560" s="13"/>
       <c r="K560" s="13"/>
@@ -23821,7 +24499,7 @@
     <row r="561" spans="6:20" ht="14.25" customHeight="1">
       <c r="F561" s="12"/>
       <c r="G561" s="12"/>
-      <c r="H561" s="12"/>
+      <c r="H561" s="47"/>
       <c r="I561" s="12"/>
       <c r="J561" s="13"/>
       <c r="K561" s="13"/>
@@ -23838,7 +24516,7 @@
     <row r="562" spans="6:20" ht="14.25" customHeight="1">
       <c r="F562" s="12"/>
       <c r="G562" s="12"/>
-      <c r="H562" s="12"/>
+      <c r="H562" s="47"/>
       <c r="I562" s="12"/>
       <c r="J562" s="13"/>
       <c r="K562" s="13"/>
@@ -23855,7 +24533,7 @@
     <row r="563" spans="6:20" ht="14.25" customHeight="1">
       <c r="F563" s="12"/>
       <c r="G563" s="12"/>
-      <c r="H563" s="12"/>
+      <c r="H563" s="47"/>
       <c r="I563" s="12"/>
       <c r="J563" s="13"/>
       <c r="K563" s="13"/>
@@ -23872,7 +24550,7 @@
     <row r="564" spans="6:20" ht="14.25" customHeight="1">
       <c r="F564" s="12"/>
       <c r="G564" s="12"/>
-      <c r="H564" s="12"/>
+      <c r="H564" s="47"/>
       <c r="I564" s="12"/>
       <c r="J564" s="13"/>
       <c r="K564" s="13"/>
@@ -23889,7 +24567,7 @@
     <row r="565" spans="6:20" ht="14.25" customHeight="1">
       <c r="F565" s="12"/>
       <c r="G565" s="12"/>
-      <c r="H565" s="12"/>
+      <c r="H565" s="47"/>
       <c r="I565" s="12"/>
       <c r="J565" s="13"/>
       <c r="K565" s="13"/>
@@ -23906,7 +24584,7 @@
     <row r="566" spans="6:20" ht="14.25" customHeight="1">
       <c r="F566" s="12"/>
       <c r="G566" s="12"/>
-      <c r="H566" s="12"/>
+      <c r="H566" s="47"/>
       <c r="I566" s="12"/>
       <c r="J566" s="13"/>
       <c r="K566" s="13"/>
@@ -23923,7 +24601,7 @@
     <row r="567" spans="6:20" ht="14.25" customHeight="1">
       <c r="F567" s="12"/>
       <c r="G567" s="12"/>
-      <c r="H567" s="12"/>
+      <c r="H567" s="47"/>
       <c r="I567" s="12"/>
       <c r="J567" s="13"/>
       <c r="K567" s="13"/>
@@ -23940,7 +24618,7 @@
     <row r="568" spans="6:20" ht="14.25" customHeight="1">
       <c r="F568" s="12"/>
       <c r="G568" s="12"/>
-      <c r="H568" s="12"/>
+      <c r="H568" s="47"/>
       <c r="I568" s="12"/>
       <c r="J568" s="13"/>
       <c r="K568" s="13"/>
@@ -23957,7 +24635,7 @@
     <row r="569" spans="6:20" ht="14.25" customHeight="1">
       <c r="F569" s="12"/>
       <c r="G569" s="12"/>
-      <c r="H569" s="12"/>
+      <c r="H569" s="47"/>
       <c r="I569" s="12"/>
       <c r="J569" s="13"/>
       <c r="K569" s="13"/>
@@ -23974,7 +24652,7 @@
     <row r="570" spans="6:20" ht="14.25" customHeight="1">
       <c r="F570" s="12"/>
       <c r="G570" s="12"/>
-      <c r="H570" s="12"/>
+      <c r="H570" s="47"/>
       <c r="I570" s="12"/>
       <c r="J570" s="13"/>
       <c r="K570" s="13"/>
@@ -23991,7 +24669,7 @@
     <row r="571" spans="6:20" ht="14.25" customHeight="1">
       <c r="F571" s="12"/>
       <c r="G571" s="12"/>
-      <c r="H571" s="12"/>
+      <c r="H571" s="47"/>
       <c r="I571" s="12"/>
       <c r="J571" s="13"/>
       <c r="K571" s="13"/>
@@ -24008,7 +24686,7 @@
     <row r="572" spans="6:20" ht="14.25" customHeight="1">
       <c r="F572" s="12"/>
       <c r="G572" s="12"/>
-      <c r="H572" s="12"/>
+      <c r="H572" s="47"/>
       <c r="I572" s="12"/>
       <c r="J572" s="13"/>
       <c r="K572" s="13"/>
@@ -24025,7 +24703,7 @@
     <row r="573" spans="6:20" ht="14.25" customHeight="1">
       <c r="F573" s="12"/>
       <c r="G573" s="12"/>
-      <c r="H573" s="12"/>
+      <c r="H573" s="47"/>
       <c r="I573" s="12"/>
       <c r="J573" s="13"/>
       <c r="K573" s="13"/>
@@ -24042,7 +24720,7 @@
     <row r="574" spans="6:20" ht="14.25" customHeight="1">
       <c r="F574" s="12"/>
       <c r="G574" s="12"/>
-      <c r="H574" s="12"/>
+      <c r="H574" s="47"/>
       <c r="I574" s="12"/>
       <c r="J574" s="13"/>
       <c r="K574" s="13"/>
@@ -24059,7 +24737,7 @@
     <row r="575" spans="6:20" ht="14.25" customHeight="1">
       <c r="F575" s="12"/>
       <c r="G575" s="12"/>
-      <c r="H575" s="12"/>
+      <c r="H575" s="47"/>
       <c r="I575" s="12"/>
       <c r="J575" s="13"/>
       <c r="K575" s="13"/>
@@ -24076,7 +24754,7 @@
     <row r="576" spans="6:20" ht="14.25" customHeight="1">
       <c r="F576" s="12"/>
       <c r="G576" s="12"/>
-      <c r="H576" s="12"/>
+      <c r="H576" s="47"/>
       <c r="I576" s="12"/>
       <c r="J576" s="13"/>
       <c r="K576" s="13"/>
@@ -24093,7 +24771,7 @@
     <row r="577" spans="6:20" ht="14.25" customHeight="1">
       <c r="F577" s="12"/>
       <c r="G577" s="12"/>
-      <c r="H577" s="12"/>
+      <c r="H577" s="47"/>
       <c r="I577" s="12"/>
       <c r="J577" s="13"/>
       <c r="K577" s="13"/>
@@ -24110,7 +24788,7 @@
     <row r="578" spans="6:20" ht="14.25" customHeight="1">
       <c r="F578" s="12"/>
       <c r="G578" s="12"/>
-      <c r="H578" s="12"/>
+      <c r="H578" s="47"/>
       <c r="I578" s="12"/>
       <c r="J578" s="13"/>
       <c r="K578" s="13"/>
@@ -24127,7 +24805,7 @@
     <row r="579" spans="6:20" ht="14.25" customHeight="1">
       <c r="F579" s="12"/>
       <c r="G579" s="12"/>
-      <c r="H579" s="12"/>
+      <c r="H579" s="47"/>
       <c r="I579" s="12"/>
       <c r="J579" s="13"/>
       <c r="K579" s="13"/>
@@ -24144,7 +24822,7 @@
     <row r="580" spans="6:20" ht="14.25" customHeight="1">
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
-      <c r="H580" s="12"/>
+      <c r="H580" s="47"/>
       <c r="I580" s="12"/>
       <c r="J580" s="13"/>
       <c r="K580" s="13"/>
@@ -24161,7 +24839,7 @@
     <row r="581" spans="6:20" ht="14.25" customHeight="1">
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
-      <c r="H581" s="12"/>
+      <c r="H581" s="47"/>
       <c r="I581" s="12"/>
       <c r="J581" s="13"/>
       <c r="K581" s="13"/>
@@ -24178,7 +24856,7 @@
     <row r="582" spans="6:20" ht="14.25" customHeight="1">
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
-      <c r="H582" s="12"/>
+      <c r="H582" s="47"/>
       <c r="I582" s="12"/>
       <c r="J582" s="13"/>
       <c r="K582" s="13"/>
@@ -24195,7 +24873,7 @@
     <row r="583" spans="6:20" ht="14.25" customHeight="1">
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
-      <c r="H583" s="12"/>
+      <c r="H583" s="47"/>
       <c r="I583" s="12"/>
       <c r="J583" s="13"/>
       <c r="K583" s="13"/>
@@ -25469,6 +26147,8 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
+        <filter val="LAB"/>
+        <filter val="RAD"/>
         <filter val="RSA"/>
       </filters>
     </filterColumn>
@@ -25484,21 +26164,24 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="H168" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J36 L10:M36 O10:O36 J38 O38 J40:J44 O40:O44 J46 O46 J48:J52 O48:O52 O375:O383 L54:M198 L375:M383 J54:J153 L38:M44 K155 K157 K171:K174 K380 J375:J379 J381:J383 J155:J198 L46:M52 O54:O198</xm:sqref>
+          <xm:sqref>J10:J36 K96:K98 L10:M36 O40:O42 L46:M52 J40:J44 K93 J46 O44 L38:M44 O375:O383 J38 L375:M383 O48:O52 O36 K155 K157 K171:K174 K380 J375:J379 J381:J383 J155:J198 J48:J52 O10:O34 L54:M198 O54:O198 J54:J153</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q10:Q36 Q38 Q40:Q44 Q46 Q48:Q52 Q375:Q383 Q54:Q198</xm:sqref>
+          <xm:sqref>Q10:Q36 Q38 Q40:Q44 Q46 Q48:Q52 Q375:Q383 Q54:Q198 R62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSALABRAD_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA4E19-5886-47E6-B187-6DEC019B4814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8889D2-6B30-4184-B3C4-64A9A8FC0799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="957">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4648,202 +4648,211 @@
     <t>Il sistema ammette l'invio del solo valore RAD_PROG</t>
   </si>
   <si>
-    <t>2024-01-15T16:57:21Z</t>
-  </si>
-  <si>
-    <t>eca5764534a895bf</t>
-  </si>
-  <si>
-    <t>3966c4b54f554380</t>
-  </si>
-  <si>
-    <t>2024-01-15T16:57:22Z</t>
-  </si>
-  <si>
-    <t>b8f466fea372aaeb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.53e48aaf99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e256e6c254c7501e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.baa244796e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-15T16:57:23Z</t>
-  </si>
-  <si>
-    <t>2c1ff91de0685cbc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.464116104a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>92df7afcb4d8b889</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.41e805d358^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-15T16:57:24Z</t>
-  </si>
-  <si>
-    <t>413c0e25bbbbc8fb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c8a99622e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6450973656900e76</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3beff36111^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a94a93021aaee05e</t>
-  </si>
-  <si>
-    <t>e328753f6a207570</t>
-  </si>
-  <si>
-    <t>9add43a8c6d32410</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f61f34d50e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>df9f215b6f446716</t>
-  </si>
-  <si>
-    <t>705fb72127bfddcb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.c89eb14d7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.771420d3fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ff5f571059134595</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e5fb95c2a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>63ca723fdb13d63e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0dcbeb2d76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-15T16:57:25Z</t>
-  </si>
-  <si>
-    <t>eae7c680ada15f1b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.076136ebc5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-15T16:57:26Z</t>
-  </si>
-  <si>
-    <t>eadcade2a6900e00</t>
-  </si>
-  <si>
-    <t>09457ad155a5d590</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4177e301fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4e4d19d443^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-15T16:57:27Z</t>
-  </si>
-  <si>
-    <t>6f0a22b3a026cd4e</t>
-  </si>
-  <si>
-    <t>70154ea0b7ac6ea3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.057c4f5d9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e99e0972c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-15T16:57:28Z</t>
-  </si>
-  <si>
-    <t>7c0e92ac460778e4</t>
-  </si>
-  <si>
-    <t>c51a7a2a9c6c9565</t>
-  </si>
-  <si>
-    <t>4a6bc06e54cef548</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.5abb786165^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.16b4610d62^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.5eed82688d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>00a8d2d4f648862d</t>
-  </si>
-  <si>
-    <t>6e13d6e599c3b657</t>
-  </si>
-  <si>
-    <t>81148ac8ad28b259</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1932d68dfe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16ffa3f4dee7a4a2</t>
-  </si>
-  <si>
-    <t>62513684bae02a1f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2e20748dc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8b8996e87a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d7d27d1556871213</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.891ee5c6d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f2ce53e65d841eea</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6c7281759f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>53be140d11fc3ffc</t>
-  </si>
-  <si>
-    <t>c5f11ceb149f0cf2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.37aa0ec54a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.438937e731^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">L'applicativo non gestisce l'esame batterio isolato da esami colturali diversi </t>
+  </si>
+  <si>
+    <t>L'applicativo non gestisce gli esami di laboratorio trasfusionale</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:41Z</t>
+  </si>
+  <si>
+    <t>ee103961afeb70dd</t>
+  </si>
+  <si>
+    <t>96992857169994b8</t>
+  </si>
+  <si>
+    <t>abce663967720209</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9e5848403f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:42Z</t>
+  </si>
+  <si>
+    <t>a3827c6bd4100df7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.264d522315^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:43Z</t>
+  </si>
+  <si>
+    <t>e613e4eec8f973b4</t>
+  </si>
+  <si>
+    <t>4188719155631f64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e4ccf8d8b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.cd62b17e20^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0a22222308bef3f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2d2ad385d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:44Z</t>
+  </si>
+  <si>
+    <t>eb3b3eea4b05bfc7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.7c9173c1d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:17Z</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:18Z</t>
+  </si>
+  <si>
+    <t>7da5c40475a672bc</t>
+  </si>
+  <si>
+    <t>047ae4613f50f700</t>
+  </si>
+  <si>
+    <t>f84716711acec6cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6da5d3531e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:19Z</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:20Z</t>
+  </si>
+  <si>
+    <t>c56a77002cd7ea6b</t>
+  </si>
+  <si>
+    <t>4de418ce36335587</t>
+  </si>
+  <si>
+    <t>f6c2c37ac0f4b4b7</t>
+  </si>
+  <si>
+    <t>e5e9a58d775ff120</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.77c62cfd66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0d6a4413c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9cf6cae4c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9fd92d7c84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:21Z</t>
+  </si>
+  <si>
+    <t>95a0471fce60ca10</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.eaea61bedb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>14369fc92bff5b8b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fbe6838556^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:22Z</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:23Z</t>
+  </si>
+  <si>
+    <t>b9887b505c686f65</t>
+  </si>
+  <si>
+    <t>d63fb6f8928e51ee</t>
+  </si>
+  <si>
+    <t>b5deeb09b698a372</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f3f48c70dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.079a6f8f38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b9670acab5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:29Z</t>
+  </si>
+  <si>
+    <t>de434bc35d3faad6</t>
+  </si>
+  <si>
+    <t>ec5397d301c9634c</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:30Z</t>
+  </si>
+  <si>
+    <t>7d582179fd968b27</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2340d61396^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>87e11d47e494eddd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.cb06710cdc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:31Z</t>
+  </si>
+  <si>
+    <t>a7fc17d0ce75309d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.91960c068e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5068377fd71c08eb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ed92f555e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f78c8b9043ca06f7</t>
+  </si>
+  <si>
+    <t>2024-01-17T10:56:32Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.adf7770de0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>62dd0efaf4c91847</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ba7c1d5c4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b62e69d6d5c76793</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b87ae35ed2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5268,6 +5277,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5289,19 +5311,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7770,7 +7779,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7781,7 +7790,7 @@
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="38" customWidth="1"/>
     <col min="9" max="9" width="47.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
@@ -7795,7 +7804,7 @@
       <c r="C1" s="4"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="47"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -7810,17 +7819,17 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
         <v>872</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="47"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -7835,17 +7844,17 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="51" t="s">
         <v>870</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -7860,16 +7869,16 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51" t="s">
         <v>848</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -7884,15 +7893,15 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>871</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -7907,12 +7916,12 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -7932,7 +7941,7 @@
       <c r="C7" s="16"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -7949,7 +7958,7 @@
     <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -8042,16 +8051,16 @@
         <v>47</v>
       </c>
       <c r="F10" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>138</v>
@@ -8086,16 +8095,16 @@
         <v>50</v>
       </c>
       <c r="F11" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>138</v>
@@ -8130,16 +8139,16 @@
         <v>52</v>
       </c>
       <c r="F12" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>138</v>
@@ -8157,7 +8166,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="65.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:20" ht="93" customHeight="1" thickBot="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -8173,22 +8182,16 @@
       <c r="E13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>916</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>917</v>
-      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="25"/>
+        <v>847</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>888</v>
+      </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -8218,16 +8221,16 @@
         <v>56</v>
       </c>
       <c r="F14" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>919</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>138</v>
@@ -8398,13 +8401,13 @@
         <v>68</v>
       </c>
       <c r="F19" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>891</v>
+        <v>940</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>944</v>
@@ -8442,16 +8445,16 @@
         <v>70</v>
       </c>
       <c r="F20" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>896</v>
+        <v>945</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>138</v>
@@ -8970,13 +8973,13 @@
         <v>103</v>
       </c>
       <c r="F35" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>873</v>
@@ -9094,10 +9097,10 @@
         <v>111</v>
       </c>
       <c r="F38" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>888</v>
+        <v>937</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>938</v>
@@ -9150,13 +9153,13 @@
         <v>103</v>
       </c>
       <c r="F39" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>889</v>
+        <v>890</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>891</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>873</v>
@@ -9308,13 +9311,13 @@
         <v>121</v>
       </c>
       <c r="F43" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>873</v>
@@ -9432,10 +9435,10 @@
         <v>127</v>
       </c>
       <c r="F46" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>888</v>
+        <v>937</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>939</v>
@@ -9488,13 +9491,13 @@
         <v>129</v>
       </c>
       <c r="F47" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>888</v>
-      </c>
-      <c r="H47" s="48" t="s">
         <v>890</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>892</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>873</v>
@@ -9811,7 +9814,7 @@
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="24"/>
-      <c r="H55" s="48"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="24"/>
       <c r="J55" s="25" t="s">
         <v>138</v>
@@ -10002,16 +10005,16 @@
         <v>149</v>
       </c>
       <c r="F60" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>138</v>
@@ -10096,16 +10099,16 @@
         <v>153</v>
       </c>
       <c r="F62" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G62" s="51" t="s">
-        <v>926</v>
+        <v>45308</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>924</v>
       </c>
       <c r="H62" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="I62" s="24" t="s">
         <v>928</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>930</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>138</v>
@@ -10226,16 +10229,16 @@
         <v>159</v>
       </c>
       <c r="F65" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>138</v>
@@ -10282,16 +10285,16 @@
         <v>161</v>
       </c>
       <c r="F66" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G66" s="51" t="s">
-        <v>931</v>
+        <v>45308</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>929</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>138</v>
@@ -10336,16 +10339,16 @@
         <v>163</v>
       </c>
       <c r="F67" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G67" s="51" t="s">
-        <v>931</v>
+        <v>45308</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>930</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>138</v>
@@ -10912,16 +10915,16 @@
         <v>195</v>
       </c>
       <c r="F83" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>896</v>
+        <v>945</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J83" s="25" t="s">
         <v>138</v>
@@ -11006,16 +11009,16 @@
         <v>199</v>
       </c>
       <c r="F85" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>901</v>
+        <v>951</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="J85" s="25" t="s">
         <v>138</v>
@@ -11174,16 +11177,16 @@
         <v>207</v>
       </c>
       <c r="F89" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>901</v>
+        <v>951</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J89" s="25" t="s">
         <v>138</v>
@@ -11306,16 +11309,16 @@
         <v>213</v>
       </c>
       <c r="F92" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="J92" s="25" t="s">
         <v>138</v>
@@ -13466,16 +13469,16 @@
         <v>337</v>
       </c>
       <c r="F154" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="H154" s="48" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="H154" s="36" t="s">
+        <v>896</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="J154" s="25" t="s">
         <v>138</v>
@@ -13511,7 +13514,7 @@
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
-      <c r="H155" s="48"/>
+      <c r="H155" s="36"/>
       <c r="I155" s="24"/>
       <c r="J155" s="33" t="s">
         <v>847</v>
@@ -13549,7 +13552,7 @@
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
-      <c r="H156" s="48"/>
+      <c r="H156" s="36"/>
       <c r="I156" s="24"/>
       <c r="J156" s="25" t="s">
         <v>847</v>
@@ -13587,7 +13590,7 @@
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
-      <c r="H157" s="48"/>
+      <c r="H157" s="36"/>
       <c r="I157" s="24"/>
       <c r="J157" s="25" t="s">
         <v>847</v>
@@ -13625,7 +13628,7 @@
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="24"/>
-      <c r="H158" s="48"/>
+      <c r="H158" s="36"/>
       <c r="I158" s="24"/>
       <c r="J158" s="25" t="s">
         <v>847</v>
@@ -13662,16 +13665,16 @@
         <v>347</v>
       </c>
       <c r="F159" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="H159" s="48" t="s">
-        <v>897</v>
+        <v>895</v>
+      </c>
+      <c r="H159" s="36" t="s">
+        <v>899</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
@@ -13719,7 +13722,7 @@
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="24"/>
-      <c r="H160" s="48"/>
+      <c r="H160" s="36"/>
       <c r="I160" s="24"/>
       <c r="J160" s="25" t="s">
         <v>847</v>
@@ -13756,16 +13759,16 @@
         <v>351</v>
       </c>
       <c r="F161" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="H161" s="48" t="s">
-        <v>899</v>
+        <v>898</v>
+      </c>
+      <c r="H161" s="36" t="s">
+        <v>900</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -13811,7 +13814,7 @@
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="24"/>
-      <c r="H162" s="48"/>
+      <c r="H162" s="36"/>
       <c r="I162" s="24"/>
       <c r="J162" s="25" t="s">
         <v>847</v>
@@ -13849,7 +13852,7 @@
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="24"/>
-      <c r="H163" s="48"/>
+      <c r="H163" s="36"/>
       <c r="I163" s="24"/>
       <c r="J163" s="25" t="s">
         <v>847</v>
@@ -13887,7 +13890,7 @@
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="23"/>
-      <c r="H164" s="49"/>
+      <c r="H164" s="37"/>
       <c r="I164" s="23"/>
       <c r="J164" s="25" t="s">
         <v>847</v>
@@ -13924,16 +13927,16 @@
         <v>359</v>
       </c>
       <c r="F165" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="H165" s="48" t="s">
-        <v>902</v>
+        <v>898</v>
+      </c>
+      <c r="H165" s="36" t="s">
+        <v>903</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -13981,7 +13984,7 @@
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
-      <c r="H166" s="48"/>
+      <c r="H166" s="36"/>
       <c r="I166" s="24"/>
       <c r="J166" s="25" t="s">
         <v>847</v>
@@ -14019,7 +14022,7 @@
       </c>
       <c r="F167" s="23"/>
       <c r="G167" s="24"/>
-      <c r="H167" s="48"/>
+      <c r="H167" s="36"/>
       <c r="I167" s="24"/>
       <c r="J167" s="25" t="s">
         <v>847</v>
@@ -14056,16 +14059,16 @@
         <v>365</v>
       </c>
       <c r="F168" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="H168" s="48" t="s">
-        <v>904</v>
+        <v>905</v>
+      </c>
+      <c r="H168" s="36" t="s">
+        <v>906</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -14111,7 +14114,7 @@
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
-      <c r="H169" s="48"/>
+      <c r="H169" s="36"/>
       <c r="I169" s="24"/>
       <c r="J169" s="25" t="s">
         <v>847</v>
@@ -14149,7 +14152,7 @@
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
-      <c r="H170" s="48"/>
+      <c r="H170" s="36"/>
       <c r="I170" s="24"/>
       <c r="J170" s="25" t="s">
         <v>847</v>
@@ -14187,7 +14190,7 @@
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
-      <c r="H171" s="48"/>
+      <c r="H171" s="36"/>
       <c r="I171" s="24"/>
       <c r="J171" s="25" t="s">
         <v>847</v>
@@ -14225,7 +14228,7 @@
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="36"/>
       <c r="I172" s="24"/>
       <c r="J172" s="25" t="s">
         <v>847</v>
@@ -14263,7 +14266,7 @@
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
-      <c r="H173" s="48"/>
+      <c r="H173" s="36"/>
       <c r="I173" s="24"/>
       <c r="J173" s="25" t="s">
         <v>847</v>
@@ -14301,7 +14304,7 @@
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
-      <c r="H174" s="48"/>
+      <c r="H174" s="36"/>
       <c r="I174" s="24"/>
       <c r="J174" s="25" t="s">
         <v>847</v>
@@ -14339,7 +14342,7 @@
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
-      <c r="H175" s="48"/>
+      <c r="H175" s="36"/>
       <c r="I175" s="24"/>
       <c r="J175" s="25" t="s">
         <v>847</v>
@@ -14377,7 +14380,7 @@
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="24"/>
-      <c r="H176" s="48"/>
+      <c r="H176" s="36"/>
       <c r="I176" s="24"/>
       <c r="J176" s="25" t="s">
         <v>847</v>
@@ -15127,22 +15130,16 @@
       <c r="E198" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="F198" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G198" s="24" t="s">
-        <v>918</v>
-      </c>
-      <c r="H198" s="24" t="s">
-        <v>922</v>
-      </c>
-      <c r="I198" s="24" t="s">
-        <v>924</v>
-      </c>
+      <c r="F198" s="23"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="24"/>
+      <c r="I198" s="24"/>
       <c r="J198" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="K198" s="25"/>
+        <v>847</v>
+      </c>
+      <c r="K198" s="25" t="s">
+        <v>889</v>
+      </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
       <c r="N198" s="25"/>
@@ -21156,16 +21153,16 @@
         <v>777</v>
       </c>
       <c r="F375" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G375" s="24" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="H375" s="24" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I375" s="24" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="J375" s="25" t="s">
         <v>138</v>
@@ -21234,16 +21231,16 @@
         <v>781</v>
       </c>
       <c r="F377" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G377" s="24" t="s">
-        <v>891</v>
+        <v>940</v>
       </c>
       <c r="H377" s="24" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I377" s="24" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J377" s="25" t="s">
         <v>138</v>
@@ -21380,16 +21377,16 @@
         <v>789</v>
       </c>
       <c r="F381" s="23">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="H381" s="48" t="s">
-        <v>892</v>
+        <v>890</v>
+      </c>
+      <c r="H381" s="36" t="s">
+        <v>893</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>
@@ -21457,22 +21454,16 @@
       <c r="E383" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="F383" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G383" s="51" t="s">
-        <v>921</v>
-      </c>
-      <c r="H383" s="24" t="s">
-        <v>923</v>
-      </c>
-      <c r="I383" s="24" t="s">
-        <v>925</v>
-      </c>
+      <c r="F383" s="23"/>
+      <c r="G383" s="39"/>
+      <c r="H383" s="24"/>
+      <c r="I383" s="24"/>
       <c r="J383" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="K383" s="25"/>
+        <v>847</v>
+      </c>
+      <c r="K383" s="25" t="s">
+        <v>889</v>
+      </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
       <c r="N383" s="25"/>
@@ -21488,7 +21479,7 @@
     <row r="384" spans="1:20" ht="14.25" customHeight="1">
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
-      <c r="H384" s="47"/>
+      <c r="H384" s="35"/>
       <c r="I384" s="12"/>
       <c r="J384" s="13"/>
       <c r="K384" s="13"/>
@@ -21505,7 +21496,7 @@
     <row r="385" spans="6:20" ht="14.25" customHeight="1">
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
-      <c r="H385" s="47"/>
+      <c r="H385" s="35"/>
       <c r="I385" s="12"/>
       <c r="J385" s="13"/>
       <c r="K385" s="13"/>
@@ -21522,7 +21513,7 @@
     <row r="386" spans="6:20" ht="14.25" customHeight="1">
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
-      <c r="H386" s="47"/>
+      <c r="H386" s="35"/>
       <c r="I386" s="12"/>
       <c r="J386" s="13"/>
       <c r="K386" s="13"/>
@@ -21539,7 +21530,7 @@
     <row r="387" spans="6:20" ht="14.25" customHeight="1">
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
-      <c r="H387" s="47"/>
+      <c r="H387" s="35"/>
       <c r="I387" s="12"/>
       <c r="J387" s="13"/>
       <c r="K387" s="13"/>
@@ -21556,7 +21547,7 @@
     <row r="388" spans="6:20" ht="14.25" customHeight="1">
       <c r="F388" s="12"/>
       <c r="G388" s="12"/>
-      <c r="H388" s="47"/>
+      <c r="H388" s="35"/>
       <c r="I388" s="12" t="s">
         <v>863</v>
       </c>
@@ -21575,7 +21566,7 @@
     <row r="389" spans="6:20" ht="14.25" customHeight="1">
       <c r="F389" s="12"/>
       <c r="G389" s="12"/>
-      <c r="H389" s="47"/>
+      <c r="H389" s="35"/>
       <c r="I389" s="12"/>
       <c r="J389" s="13"/>
       <c r="K389" s="13"/>
@@ -21592,7 +21583,7 @@
     <row r="390" spans="6:20" ht="14.25" customHeight="1">
       <c r="F390" s="12"/>
       <c r="G390" s="12"/>
-      <c r="H390" s="47"/>
+      <c r="H390" s="35"/>
       <c r="I390" s="12"/>
       <c r="J390" s="13"/>
       <c r="K390" s="13"/>
@@ -21609,7 +21600,7 @@
     <row r="391" spans="6:20" ht="14.25" customHeight="1">
       <c r="F391" s="12"/>
       <c r="G391" s="12"/>
-      <c r="H391" s="47"/>
+      <c r="H391" s="35"/>
       <c r="I391" s="12"/>
       <c r="J391" s="13"/>
       <c r="K391" s="13"/>
@@ -21626,7 +21617,7 @@
     <row r="392" spans="6:20" ht="14.25" customHeight="1">
       <c r="F392" s="12"/>
       <c r="G392" s="12"/>
-      <c r="H392" s="47"/>
+      <c r="H392" s="35"/>
       <c r="I392" s="12"/>
       <c r="J392" s="13"/>
       <c r="K392" s="13"/>
@@ -21643,7 +21634,7 @@
     <row r="393" spans="6:20" ht="14.25" customHeight="1">
       <c r="F393" s="12"/>
       <c r="G393" s="12"/>
-      <c r="H393" s="47"/>
+      <c r="H393" s="35"/>
       <c r="I393" s="12"/>
       <c r="J393" s="13"/>
       <c r="K393" s="13"/>
@@ -21660,7 +21651,7 @@
     <row r="394" spans="6:20" ht="14.25" customHeight="1">
       <c r="F394" s="12"/>
       <c r="G394" s="12"/>
-      <c r="H394" s="47"/>
+      <c r="H394" s="35"/>
       <c r="I394" s="12"/>
       <c r="J394" s="13"/>
       <c r="K394" s="13"/>
@@ -21677,7 +21668,7 @@
     <row r="395" spans="6:20" ht="14.25" customHeight="1">
       <c r="F395" s="12"/>
       <c r="G395" s="12"/>
-      <c r="H395" s="47"/>
+      <c r="H395" s="35"/>
       <c r="I395" s="12"/>
       <c r="J395" s="13"/>
       <c r="K395" s="13"/>
@@ -21694,7 +21685,7 @@
     <row r="396" spans="6:20" ht="14.25" customHeight="1">
       <c r="F396" s="12"/>
       <c r="G396" s="12"/>
-      <c r="H396" s="47"/>
+      <c r="H396" s="35"/>
       <c r="I396" s="12"/>
       <c r="J396" s="13"/>
       <c r="K396" s="13"/>
@@ -21711,7 +21702,7 @@
     <row r="397" spans="6:20" ht="14.25" customHeight="1">
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
-      <c r="H397" s="47"/>
+      <c r="H397" s="35"/>
       <c r="I397" s="12"/>
       <c r="J397" s="13"/>
       <c r="K397" s="13"/>
@@ -21728,7 +21719,7 @@
     <row r="398" spans="6:20" ht="14.25" customHeight="1">
       <c r="F398" s="12"/>
       <c r="G398" s="12"/>
-      <c r="H398" s="47"/>
+      <c r="H398" s="35"/>
       <c r="I398" s="12"/>
       <c r="J398" s="13"/>
       <c r="K398" s="13"/>
@@ -21745,7 +21736,7 @@
     <row r="399" spans="6:20" ht="14.25" customHeight="1">
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
-      <c r="H399" s="47"/>
+      <c r="H399" s="35"/>
       <c r="I399" s="12"/>
       <c r="J399" s="13"/>
       <c r="K399" s="13"/>
@@ -21762,7 +21753,7 @@
     <row r="400" spans="6:20" ht="14.25" customHeight="1">
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
-      <c r="H400" s="47"/>
+      <c r="H400" s="35"/>
       <c r="I400" s="12"/>
       <c r="J400" s="13"/>
       <c r="K400" s="13"/>
@@ -21779,7 +21770,7 @@
     <row r="401" spans="6:20" ht="14.25" customHeight="1">
       <c r="F401" s="12"/>
       <c r="G401" s="12"/>
-      <c r="H401" s="47"/>
+      <c r="H401" s="35"/>
       <c r="I401" s="12"/>
       <c r="J401" s="13"/>
       <c r="K401" s="13"/>
@@ -21796,7 +21787,7 @@
     <row r="402" spans="6:20" ht="14.25" customHeight="1">
       <c r="F402" s="12"/>
       <c r="G402" s="12"/>
-      <c r="H402" s="47"/>
+      <c r="H402" s="35"/>
       <c r="I402" s="12"/>
       <c r="J402" s="13"/>
       <c r="K402" s="13"/>
@@ -21813,7 +21804,7 @@
     <row r="403" spans="6:20" ht="14.25" customHeight="1">
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
-      <c r="H403" s="47"/>
+      <c r="H403" s="35"/>
       <c r="I403" s="12"/>
       <c r="J403" s="13"/>
       <c r="K403" s="13"/>
@@ -21830,7 +21821,7 @@
     <row r="404" spans="6:20" ht="14.25" customHeight="1">
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
-      <c r="H404" s="47"/>
+      <c r="H404" s="35"/>
       <c r="I404" s="12"/>
       <c r="J404" s="13"/>
       <c r="K404" s="13"/>
@@ -21847,7 +21838,7 @@
     <row r="405" spans="6:20" ht="14.25" customHeight="1">
       <c r="F405" s="12"/>
       <c r="G405" s="12"/>
-      <c r="H405" s="47"/>
+      <c r="H405" s="35"/>
       <c r="I405" s="12"/>
       <c r="J405" s="13"/>
       <c r="K405" s="13"/>
@@ -21864,7 +21855,7 @@
     <row r="406" spans="6:20" ht="14.25" customHeight="1">
       <c r="F406" s="12"/>
       <c r="G406" s="12"/>
-      <c r="H406" s="47"/>
+      <c r="H406" s="35"/>
       <c r="I406" s="12"/>
       <c r="J406" s="13"/>
       <c r="K406" s="13"/>
@@ -21881,7 +21872,7 @@
     <row r="407" spans="6:20" ht="14.25" customHeight="1">
       <c r="F407" s="12"/>
       <c r="G407" s="12"/>
-      <c r="H407" s="47"/>
+      <c r="H407" s="35"/>
       <c r="I407" s="12"/>
       <c r="J407" s="13"/>
       <c r="K407" s="13"/>
@@ -21898,7 +21889,7 @@
     <row r="408" spans="6:20" ht="14.25" customHeight="1">
       <c r="F408" s="12"/>
       <c r="G408" s="12"/>
-      <c r="H408" s="47"/>
+      <c r="H408" s="35"/>
       <c r="I408" s="12"/>
       <c r="J408" s="13"/>
       <c r="K408" s="13"/>
@@ -21915,7 +21906,7 @@
     <row r="409" spans="6:20" ht="14.25" customHeight="1">
       <c r="F409" s="12"/>
       <c r="G409" s="12"/>
-      <c r="H409" s="47"/>
+      <c r="H409" s="35"/>
       <c r="I409" s="12"/>
       <c r="J409" s="13"/>
       <c r="K409" s="13"/>
@@ -21932,7 +21923,7 @@
     <row r="410" spans="6:20" ht="14.25" customHeight="1">
       <c r="F410" s="12"/>
       <c r="G410" s="12"/>
-      <c r="H410" s="47"/>
+      <c r="H410" s="35"/>
       <c r="I410" s="12"/>
       <c r="J410" s="13"/>
       <c r="K410" s="13"/>
@@ -21949,7 +21940,7 @@
     <row r="411" spans="6:20" ht="14.25" customHeight="1">
       <c r="F411" s="12"/>
       <c r="G411" s="12"/>
-      <c r="H411" s="47"/>
+      <c r="H411" s="35"/>
       <c r="I411" s="12"/>
       <c r="J411" s="13"/>
       <c r="K411" s="13"/>
@@ -21966,7 +21957,7 @@
     <row r="412" spans="6:20" ht="14.25" customHeight="1">
       <c r="F412" s="12"/>
       <c r="G412" s="12"/>
-      <c r="H412" s="47"/>
+      <c r="H412" s="35"/>
       <c r="I412" s="12"/>
       <c r="J412" s="13"/>
       <c r="K412" s="13"/>
@@ -21983,7 +21974,7 @@
     <row r="413" spans="6:20" ht="14.25" customHeight="1">
       <c r="F413" s="12"/>
       <c r="G413" s="12"/>
-      <c r="H413" s="47"/>
+      <c r="H413" s="35"/>
       <c r="I413" s="12"/>
       <c r="J413" s="13"/>
       <c r="K413" s="13"/>
@@ -22000,7 +21991,7 @@
     <row r="414" spans="6:20" ht="14.25" customHeight="1">
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
-      <c r="H414" s="47"/>
+      <c r="H414" s="35"/>
       <c r="I414" s="12"/>
       <c r="J414" s="13"/>
       <c r="K414" s="13"/>
@@ -22017,7 +22008,7 @@
     <row r="415" spans="6:20" ht="14.25" customHeight="1">
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
-      <c r="H415" s="47"/>
+      <c r="H415" s="35"/>
       <c r="I415" s="12"/>
       <c r="J415" s="13"/>
       <c r="K415" s="13"/>
@@ -22034,7 +22025,7 @@
     <row r="416" spans="6:20" ht="14.25" customHeight="1">
       <c r="F416" s="12"/>
       <c r="G416" s="12"/>
-      <c r="H416" s="47"/>
+      <c r="H416" s="35"/>
       <c r="I416" s="12"/>
       <c r="J416" s="13"/>
       <c r="K416" s="13"/>
@@ -22051,7 +22042,7 @@
     <row r="417" spans="6:20" ht="14.25" customHeight="1">
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
-      <c r="H417" s="47"/>
+      <c r="H417" s="35"/>
       <c r="I417" s="12"/>
       <c r="J417" s="13"/>
       <c r="K417" s="13"/>
@@ -22068,7 +22059,7 @@
     <row r="418" spans="6:20" ht="14.25" customHeight="1">
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
-      <c r="H418" s="47"/>
+      <c r="H418" s="35"/>
       <c r="I418" s="12"/>
       <c r="J418" s="13"/>
       <c r="K418" s="13"/>
@@ -22085,7 +22076,7 @@
     <row r="419" spans="6:20" ht="14.25" customHeight="1">
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
-      <c r="H419" s="47"/>
+      <c r="H419" s="35"/>
       <c r="I419" s="12"/>
       <c r="J419" s="13"/>
       <c r="K419" s="13"/>
@@ -22102,7 +22093,7 @@
     <row r="420" spans="6:20" ht="14.25" customHeight="1">
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
-      <c r="H420" s="47"/>
+      <c r="H420" s="35"/>
       <c r="I420" s="12"/>
       <c r="J420" s="13"/>
       <c r="K420" s="13"/>
@@ -22119,7 +22110,7 @@
     <row r="421" spans="6:20" ht="14.25" customHeight="1">
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
-      <c r="H421" s="47"/>
+      <c r="H421" s="35"/>
       <c r="I421" s="12"/>
       <c r="J421" s="13"/>
       <c r="K421" s="13"/>
@@ -22136,7 +22127,7 @@
     <row r="422" spans="6:20" ht="14.25" customHeight="1">
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
-      <c r="H422" s="47"/>
+      <c r="H422" s="35"/>
       <c r="I422" s="12"/>
       <c r="J422" s="13"/>
       <c r="K422" s="13"/>
@@ -22153,7 +22144,7 @@
     <row r="423" spans="6:20" ht="14.25" customHeight="1">
       <c r="F423" s="12"/>
       <c r="G423" s="12"/>
-      <c r="H423" s="47"/>
+      <c r="H423" s="35"/>
       <c r="I423" s="12"/>
       <c r="J423" s="13"/>
       <c r="K423" s="13"/>
@@ -22170,7 +22161,7 @@
     <row r="424" spans="6:20" ht="14.25" customHeight="1">
       <c r="F424" s="12"/>
       <c r="G424" s="12"/>
-      <c r="H424" s="47"/>
+      <c r="H424" s="35"/>
       <c r="I424" s="12"/>
       <c r="J424" s="13"/>
       <c r="K424" s="13"/>
@@ -22187,7 +22178,7 @@
     <row r="425" spans="6:20" ht="14.25" customHeight="1">
       <c r="F425" s="12"/>
       <c r="G425" s="12"/>
-      <c r="H425" s="47"/>
+      <c r="H425" s="35"/>
       <c r="I425" s="12"/>
       <c r="J425" s="13"/>
       <c r="K425" s="13"/>
@@ -22204,7 +22195,7 @@
     <row r="426" spans="6:20" ht="14.25" customHeight="1">
       <c r="F426" s="12"/>
       <c r="G426" s="12"/>
-      <c r="H426" s="47"/>
+      <c r="H426" s="35"/>
       <c r="I426" s="12"/>
       <c r="J426" s="13"/>
       <c r="K426" s="13"/>
@@ -22221,7 +22212,7 @@
     <row r="427" spans="6:20" ht="14.25" customHeight="1">
       <c r="F427" s="12"/>
       <c r="G427" s="12"/>
-      <c r="H427" s="47"/>
+      <c r="H427" s="35"/>
       <c r="I427" s="12"/>
       <c r="J427" s="13"/>
       <c r="K427" s="13"/>
@@ -22238,7 +22229,7 @@
     <row r="428" spans="6:20" ht="14.25" customHeight="1">
       <c r="F428" s="12"/>
       <c r="G428" s="12"/>
-      <c r="H428" s="47"/>
+      <c r="H428" s="35"/>
       <c r="I428" s="12"/>
       <c r="J428" s="13"/>
       <c r="K428" s="13"/>
@@ -22255,7 +22246,7 @@
     <row r="429" spans="6:20" ht="14.25" customHeight="1">
       <c r="F429" s="12"/>
       <c r="G429" s="12"/>
-      <c r="H429" s="47"/>
+      <c r="H429" s="35"/>
       <c r="I429" s="12"/>
       <c r="J429" s="13"/>
       <c r="K429" s="13"/>
@@ -22272,7 +22263,7 @@
     <row r="430" spans="6:20" ht="14.25" customHeight="1">
       <c r="F430" s="12"/>
       <c r="G430" s="12"/>
-      <c r="H430" s="47"/>
+      <c r="H430" s="35"/>
       <c r="I430" s="12"/>
       <c r="J430" s="13"/>
       <c r="K430" s="13"/>
@@ -22289,7 +22280,7 @@
     <row r="431" spans="6:20" ht="14.25" customHeight="1">
       <c r="F431" s="12"/>
       <c r="G431" s="12"/>
-      <c r="H431" s="47"/>
+      <c r="H431" s="35"/>
       <c r="I431" s="12"/>
       <c r="J431" s="13"/>
       <c r="K431" s="13"/>
@@ -22306,7 +22297,7 @@
     <row r="432" spans="6:20" ht="14.25" customHeight="1">
       <c r="F432" s="12"/>
       <c r="G432" s="12"/>
-      <c r="H432" s="47"/>
+      <c r="H432" s="35"/>
       <c r="I432" s="12"/>
       <c r="J432" s="13"/>
       <c r="K432" s="13"/>
@@ -22323,7 +22314,7 @@
     <row r="433" spans="6:20" ht="14.25" customHeight="1">
       <c r="F433" s="12"/>
       <c r="G433" s="12"/>
-      <c r="H433" s="47"/>
+      <c r="H433" s="35"/>
       <c r="I433" s="12"/>
       <c r="J433" s="13"/>
       <c r="K433" s="13"/>
@@ -22340,7 +22331,7 @@
     <row r="434" spans="6:20" ht="14.25" customHeight="1">
       <c r="F434" s="12"/>
       <c r="G434" s="12"/>
-      <c r="H434" s="47"/>
+      <c r="H434" s="35"/>
       <c r="I434" s="12"/>
       <c r="J434" s="13"/>
       <c r="K434" s="13"/>
@@ -22357,7 +22348,7 @@
     <row r="435" spans="6:20" ht="14.25" customHeight="1">
       <c r="F435" s="12"/>
       <c r="G435" s="12"/>
-      <c r="H435" s="47"/>
+      <c r="H435" s="35"/>
       <c r="I435" s="12"/>
       <c r="J435" s="13"/>
       <c r="K435" s="13"/>
@@ -22374,7 +22365,7 @@
     <row r="436" spans="6:20" ht="14.25" customHeight="1">
       <c r="F436" s="12"/>
       <c r="G436" s="12"/>
-      <c r="H436" s="47"/>
+      <c r="H436" s="35"/>
       <c r="I436" s="12"/>
       <c r="J436" s="13"/>
       <c r="K436" s="13"/>
@@ -22391,7 +22382,7 @@
     <row r="437" spans="6:20" ht="14.25" customHeight="1">
       <c r="F437" s="12"/>
       <c r="G437" s="12"/>
-      <c r="H437" s="47"/>
+      <c r="H437" s="35"/>
       <c r="I437" s="12"/>
       <c r="J437" s="13"/>
       <c r="K437" s="13"/>
@@ -22408,7 +22399,7 @@
     <row r="438" spans="6:20" ht="14.25" customHeight="1">
       <c r="F438" s="12"/>
       <c r="G438" s="12"/>
-      <c r="H438" s="47"/>
+      <c r="H438" s="35"/>
       <c r="I438" s="12"/>
       <c r="J438" s="13"/>
       <c r="K438" s="13"/>
@@ -22425,7 +22416,7 @@
     <row r="439" spans="6:20" ht="14.25" customHeight="1">
       <c r="F439" s="12"/>
       <c r="G439" s="12"/>
-      <c r="H439" s="47"/>
+      <c r="H439" s="35"/>
       <c r="I439" s="12"/>
       <c r="J439" s="13"/>
       <c r="K439" s="13"/>
@@ -22442,7 +22433,7 @@
     <row r="440" spans="6:20" ht="14.25" customHeight="1">
       <c r="F440" s="12"/>
       <c r="G440" s="12"/>
-      <c r="H440" s="47"/>
+      <c r="H440" s="35"/>
       <c r="I440" s="12"/>
       <c r="J440" s="13"/>
       <c r="K440" s="13"/>
@@ -22459,7 +22450,7 @@
     <row r="441" spans="6:20" ht="14.25" customHeight="1">
       <c r="F441" s="12"/>
       <c r="G441" s="12"/>
-      <c r="H441" s="47"/>
+      <c r="H441" s="35"/>
       <c r="I441" s="12"/>
       <c r="J441" s="13"/>
       <c r="K441" s="13"/>
@@ -22476,7 +22467,7 @@
     <row r="442" spans="6:20" ht="14.25" customHeight="1">
       <c r="F442" s="12"/>
       <c r="G442" s="12"/>
-      <c r="H442" s="47"/>
+      <c r="H442" s="35"/>
       <c r="I442" s="12"/>
       <c r="J442" s="13"/>
       <c r="K442" s="13"/>
@@ -22493,7 +22484,7 @@
     <row r="443" spans="6:20" ht="14.25" customHeight="1">
       <c r="F443" s="12"/>
       <c r="G443" s="12"/>
-      <c r="H443" s="47"/>
+      <c r="H443" s="35"/>
       <c r="I443" s="12"/>
       <c r="J443" s="13"/>
       <c r="K443" s="13"/>
@@ -22510,7 +22501,7 @@
     <row r="444" spans="6:20" ht="14.25" customHeight="1">
       <c r="F444" s="12"/>
       <c r="G444" s="12"/>
-      <c r="H444" s="47"/>
+      <c r="H444" s="35"/>
       <c r="I444" s="12"/>
       <c r="J444" s="13"/>
       <c r="K444" s="13"/>
@@ -22527,7 +22518,7 @@
     <row r="445" spans="6:20" ht="14.25" customHeight="1">
       <c r="F445" s="12"/>
       <c r="G445" s="12"/>
-      <c r="H445" s="47"/>
+      <c r="H445" s="35"/>
       <c r="I445" s="12"/>
       <c r="J445" s="13"/>
       <c r="K445" s="13"/>
@@ -22544,7 +22535,7 @@
     <row r="446" spans="6:20" ht="14.25" customHeight="1">
       <c r="F446" s="12"/>
       <c r="G446" s="12"/>
-      <c r="H446" s="47"/>
+      <c r="H446" s="35"/>
       <c r="I446" s="12"/>
       <c r="J446" s="13"/>
       <c r="K446" s="13"/>
@@ -22561,7 +22552,7 @@
     <row r="447" spans="6:20" ht="14.25" customHeight="1">
       <c r="F447" s="12"/>
       <c r="G447" s="12"/>
-      <c r="H447" s="47"/>
+      <c r="H447" s="35"/>
       <c r="I447" s="12"/>
       <c r="J447" s="13"/>
       <c r="K447" s="13"/>
@@ -22578,7 +22569,7 @@
     <row r="448" spans="6:20" ht="14.25" customHeight="1">
       <c r="F448" s="12"/>
       <c r="G448" s="12"/>
-      <c r="H448" s="47"/>
+      <c r="H448" s="35"/>
       <c r="I448" s="12"/>
       <c r="J448" s="13"/>
       <c r="K448" s="13"/>
@@ -22595,7 +22586,7 @@
     <row r="449" spans="6:20" ht="14.25" customHeight="1">
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
-      <c r="H449" s="47"/>
+      <c r="H449" s="35"/>
       <c r="I449" s="12"/>
       <c r="J449" s="13"/>
       <c r="K449" s="13"/>
@@ -22612,7 +22603,7 @@
     <row r="450" spans="6:20" ht="14.25" customHeight="1">
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
-      <c r="H450" s="47"/>
+      <c r="H450" s="35"/>
       <c r="I450" s="12"/>
       <c r="J450" s="13"/>
       <c r="K450" s="13"/>
@@ -22629,7 +22620,7 @@
     <row r="451" spans="6:20" ht="14.25" customHeight="1">
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
-      <c r="H451" s="47"/>
+      <c r="H451" s="35"/>
       <c r="I451" s="12"/>
       <c r="J451" s="13"/>
       <c r="K451" s="13"/>
@@ -22646,7 +22637,7 @@
     <row r="452" spans="6:20" ht="14.25" customHeight="1">
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
-      <c r="H452" s="47"/>
+      <c r="H452" s="35"/>
       <c r="I452" s="12"/>
       <c r="J452" s="13"/>
       <c r="K452" s="13"/>
@@ -22663,7 +22654,7 @@
     <row r="453" spans="6:20" ht="14.25" customHeight="1">
       <c r="F453" s="12"/>
       <c r="G453" s="12"/>
-      <c r="H453" s="47"/>
+      <c r="H453" s="35"/>
       <c r="I453" s="12"/>
       <c r="J453" s="13"/>
       <c r="K453" s="13"/>
@@ -22680,7 +22671,7 @@
     <row r="454" spans="6:20" ht="14.25" customHeight="1">
       <c r="F454" s="12"/>
       <c r="G454" s="12"/>
-      <c r="H454" s="47"/>
+      <c r="H454" s="35"/>
       <c r="I454" s="12"/>
       <c r="J454" s="13"/>
       <c r="K454" s="13"/>
@@ -22697,7 +22688,7 @@
     <row r="455" spans="6:20" ht="14.25" customHeight="1">
       <c r="F455" s="12"/>
       <c r="G455" s="12"/>
-      <c r="H455" s="47"/>
+      <c r="H455" s="35"/>
       <c r="I455" s="12"/>
       <c r="J455" s="13"/>
       <c r="K455" s="13"/>
@@ -22714,7 +22705,7 @@
     <row r="456" spans="6:20" ht="14.25" customHeight="1">
       <c r="F456" s="12"/>
       <c r="G456" s="12"/>
-      <c r="H456" s="47"/>
+      <c r="H456" s="35"/>
       <c r="I456" s="12"/>
       <c r="J456" s="13"/>
       <c r="K456" s="13"/>
@@ -22731,7 +22722,7 @@
     <row r="457" spans="6:20" ht="14.25" customHeight="1">
       <c r="F457" s="12"/>
       <c r="G457" s="12"/>
-      <c r="H457" s="47"/>
+      <c r="H457" s="35"/>
       <c r="I457" s="12"/>
       <c r="J457" s="13"/>
       <c r="K457" s="13"/>
@@ -22748,7 +22739,7 @@
     <row r="458" spans="6:20" ht="14.25" customHeight="1">
       <c r="F458" s="12"/>
       <c r="G458" s="12"/>
-      <c r="H458" s="47"/>
+      <c r="H458" s="35"/>
       <c r="I458" s="12"/>
       <c r="J458" s="13"/>
       <c r="K458" s="13"/>
@@ -22765,7 +22756,7 @@
     <row r="459" spans="6:20" ht="14.25" customHeight="1">
       <c r="F459" s="12"/>
       <c r="G459" s="12"/>
-      <c r="H459" s="47"/>
+      <c r="H459" s="35"/>
       <c r="I459" s="12"/>
       <c r="J459" s="13"/>
       <c r="K459" s="13"/>
@@ -22782,7 +22773,7 @@
     <row r="460" spans="6:20" ht="14.25" customHeight="1">
       <c r="F460" s="12"/>
       <c r="G460" s="12"/>
-      <c r="H460" s="47"/>
+      <c r="H460" s="35"/>
       <c r="I460" s="12"/>
       <c r="J460" s="13"/>
       <c r="K460" s="13"/>
@@ -22799,7 +22790,7 @@
     <row r="461" spans="6:20" ht="14.25" customHeight="1">
       <c r="F461" s="12"/>
       <c r="G461" s="12"/>
-      <c r="H461" s="47"/>
+      <c r="H461" s="35"/>
       <c r="I461" s="12"/>
       <c r="J461" s="13"/>
       <c r="K461" s="13"/>
@@ -22816,7 +22807,7 @@
     <row r="462" spans="6:20" ht="14.25" customHeight="1">
       <c r="F462" s="12"/>
       <c r="G462" s="12"/>
-      <c r="H462" s="47"/>
+      <c r="H462" s="35"/>
       <c r="I462" s="12"/>
       <c r="J462" s="13"/>
       <c r="K462" s="13"/>
@@ -22833,7 +22824,7 @@
     <row r="463" spans="6:20" ht="14.25" customHeight="1">
       <c r="F463" s="12"/>
       <c r="G463" s="12"/>
-      <c r="H463" s="47"/>
+      <c r="H463" s="35"/>
       <c r="I463" s="12"/>
       <c r="J463" s="13"/>
       <c r="K463" s="13"/>
@@ -22850,7 +22841,7 @@
     <row r="464" spans="6:20" ht="14.25" customHeight="1">
       <c r="F464" s="12"/>
       <c r="G464" s="12"/>
-      <c r="H464" s="47"/>
+      <c r="H464" s="35"/>
       <c r="I464" s="12"/>
       <c r="J464" s="13"/>
       <c r="K464" s="13"/>
@@ -22867,7 +22858,7 @@
     <row r="465" spans="6:20" ht="14.25" customHeight="1">
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
-      <c r="H465" s="47"/>
+      <c r="H465" s="35"/>
       <c r="I465" s="12"/>
       <c r="J465" s="13"/>
       <c r="K465" s="13"/>
@@ -22884,7 +22875,7 @@
     <row r="466" spans="6:20" ht="14.25" customHeight="1">
       <c r="F466" s="12"/>
       <c r="G466" s="12"/>
-      <c r="H466" s="47"/>
+      <c r="H466" s="35"/>
       <c r="I466" s="12"/>
       <c r="J466" s="13"/>
       <c r="K466" s="13"/>
@@ -22901,7 +22892,7 @@
     <row r="467" spans="6:20" ht="14.25" customHeight="1">
       <c r="F467" s="12"/>
       <c r="G467" s="12"/>
-      <c r="H467" s="47"/>
+      <c r="H467" s="35"/>
       <c r="I467" s="12"/>
       <c r="J467" s="13"/>
       <c r="K467" s="13"/>
@@ -22918,7 +22909,7 @@
     <row r="468" spans="6:20" ht="14.25" customHeight="1">
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
-      <c r="H468" s="47"/>
+      <c r="H468" s="35"/>
       <c r="I468" s="12"/>
       <c r="J468" s="13"/>
       <c r="K468" s="13"/>
@@ -22935,7 +22926,7 @@
     <row r="469" spans="6:20" ht="14.25" customHeight="1">
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
-      <c r="H469" s="47"/>
+      <c r="H469" s="35"/>
       <c r="I469" s="12"/>
       <c r="J469" s="13"/>
       <c r="K469" s="13"/>
@@ -22952,7 +22943,7 @@
     <row r="470" spans="6:20" ht="14.25" customHeight="1">
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
-      <c r="H470" s="47"/>
+      <c r="H470" s="35"/>
       <c r="I470" s="12"/>
       <c r="J470" s="13"/>
       <c r="K470" s="13"/>
@@ -22969,7 +22960,7 @@
     <row r="471" spans="6:20" ht="14.25" customHeight="1">
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
-      <c r="H471" s="47"/>
+      <c r="H471" s="35"/>
       <c r="I471" s="12"/>
       <c r="J471" s="13"/>
       <c r="K471" s="13"/>
@@ -22986,7 +22977,7 @@
     <row r="472" spans="6:20" ht="14.25" customHeight="1">
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
-      <c r="H472" s="47"/>
+      <c r="H472" s="35"/>
       <c r="I472" s="12"/>
       <c r="J472" s="13"/>
       <c r="K472" s="13"/>
@@ -23003,7 +22994,7 @@
     <row r="473" spans="6:20" ht="14.25" customHeight="1">
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
-      <c r="H473" s="47"/>
+      <c r="H473" s="35"/>
       <c r="I473" s="12"/>
       <c r="J473" s="13"/>
       <c r="K473" s="13"/>
@@ -23020,7 +23011,7 @@
     <row r="474" spans="6:20" ht="14.25" customHeight="1">
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
-      <c r="H474" s="47"/>
+      <c r="H474" s="35"/>
       <c r="I474" s="12"/>
       <c r="J474" s="13"/>
       <c r="K474" s="13"/>
@@ -23037,7 +23028,7 @@
     <row r="475" spans="6:20" ht="14.25" customHeight="1">
       <c r="F475" s="12"/>
       <c r="G475" s="12"/>
-      <c r="H475" s="47"/>
+      <c r="H475" s="35"/>
       <c r="I475" s="12"/>
       <c r="J475" s="13"/>
       <c r="K475" s="13"/>
@@ -23054,7 +23045,7 @@
     <row r="476" spans="6:20" ht="14.25" customHeight="1">
       <c r="F476" s="12"/>
       <c r="G476" s="12"/>
-      <c r="H476" s="47"/>
+      <c r="H476" s="35"/>
       <c r="I476" s="12"/>
       <c r="J476" s="13"/>
       <c r="K476" s="13"/>
@@ -23071,7 +23062,7 @@
     <row r="477" spans="6:20" ht="14.25" customHeight="1">
       <c r="F477" s="12"/>
       <c r="G477" s="12"/>
-      <c r="H477" s="47"/>
+      <c r="H477" s="35"/>
       <c r="I477" s="12"/>
       <c r="J477" s="13"/>
       <c r="K477" s="13"/>
@@ -23088,7 +23079,7 @@
     <row r="478" spans="6:20" ht="14.25" customHeight="1">
       <c r="F478" s="12"/>
       <c r="G478" s="12"/>
-      <c r="H478" s="47"/>
+      <c r="H478" s="35"/>
       <c r="I478" s="12"/>
       <c r="J478" s="13"/>
       <c r="K478" s="13"/>
@@ -23105,7 +23096,7 @@
     <row r="479" spans="6:20" ht="14.25" customHeight="1">
       <c r="F479" s="12"/>
       <c r="G479" s="12"/>
-      <c r="H479" s="47"/>
+      <c r="H479" s="35"/>
       <c r="I479" s="12"/>
       <c r="J479" s="13"/>
       <c r="K479" s="13"/>
@@ -23122,7 +23113,7 @@
     <row r="480" spans="6:20" ht="14.25" customHeight="1">
       <c r="F480" s="12"/>
       <c r="G480" s="12"/>
-      <c r="H480" s="47"/>
+      <c r="H480" s="35"/>
       <c r="I480" s="12"/>
       <c r="J480" s="13"/>
       <c r="K480" s="13"/>
@@ -23139,7 +23130,7 @@
     <row r="481" spans="6:20" ht="14.25" customHeight="1">
       <c r="F481" s="12"/>
       <c r="G481" s="12"/>
-      <c r="H481" s="47"/>
+      <c r="H481" s="35"/>
       <c r="I481" s="12"/>
       <c r="J481" s="13"/>
       <c r="K481" s="13"/>
@@ -23156,7 +23147,7 @@
     <row r="482" spans="6:20" ht="14.25" customHeight="1">
       <c r="F482" s="12"/>
       <c r="G482" s="12"/>
-      <c r="H482" s="47"/>
+      <c r="H482" s="35"/>
       <c r="I482" s="12"/>
       <c r="J482" s="13"/>
       <c r="K482" s="13"/>
@@ -23173,7 +23164,7 @@
     <row r="483" spans="6:20" ht="14.25" customHeight="1">
       <c r="F483" s="12"/>
       <c r="G483" s="12"/>
-      <c r="H483" s="47"/>
+      <c r="H483" s="35"/>
       <c r="I483" s="12"/>
       <c r="J483" s="13"/>
       <c r="K483" s="13"/>
@@ -23190,7 +23181,7 @@
     <row r="484" spans="6:20" ht="14.25" customHeight="1">
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
-      <c r="H484" s="47"/>
+      <c r="H484" s="35"/>
       <c r="I484" s="12"/>
       <c r="J484" s="13"/>
       <c r="K484" s="13"/>
@@ -23207,7 +23198,7 @@
     <row r="485" spans="6:20" ht="14.25" customHeight="1">
       <c r="F485" s="12"/>
       <c r="G485" s="12"/>
-      <c r="H485" s="47"/>
+      <c r="H485" s="35"/>
       <c r="I485" s="12"/>
       <c r="J485" s="13"/>
       <c r="K485" s="13"/>
@@ -23224,7 +23215,7 @@
     <row r="486" spans="6:20" ht="14.25" customHeight="1">
       <c r="F486" s="12"/>
       <c r="G486" s="12"/>
-      <c r="H486" s="47"/>
+      <c r="H486" s="35"/>
       <c r="I486" s="12"/>
       <c r="J486" s="13"/>
       <c r="K486" s="13"/>
@@ -23241,7 +23232,7 @@
     <row r="487" spans="6:20" ht="14.25" customHeight="1">
       <c r="F487" s="12"/>
       <c r="G487" s="12"/>
-      <c r="H487" s="47"/>
+      <c r="H487" s="35"/>
       <c r="I487" s="12"/>
       <c r="J487" s="13"/>
       <c r="K487" s="13"/>
@@ -23258,7 +23249,7 @@
     <row r="488" spans="6:20" ht="14.25" customHeight="1">
       <c r="F488" s="12"/>
       <c r="G488" s="12"/>
-      <c r="H488" s="47"/>
+      <c r="H488" s="35"/>
       <c r="I488" s="12"/>
       <c r="J488" s="13"/>
       <c r="K488" s="13"/>
@@ -23275,7 +23266,7 @@
     <row r="489" spans="6:20" ht="14.25" customHeight="1">
       <c r="F489" s="12"/>
       <c r="G489" s="12"/>
-      <c r="H489" s="47"/>
+      <c r="H489" s="35"/>
       <c r="I489" s="12"/>
       <c r="J489" s="13"/>
       <c r="K489" s="13"/>
@@ -23292,7 +23283,7 @@
     <row r="490" spans="6:20" ht="14.25" customHeight="1">
       <c r="F490" s="12"/>
       <c r="G490" s="12"/>
-      <c r="H490" s="47"/>
+      <c r="H490" s="35"/>
       <c r="I490" s="12"/>
       <c r="J490" s="13"/>
       <c r="K490" s="13"/>
@@ -23309,7 +23300,7 @@
     <row r="491" spans="6:20" ht="14.25" customHeight="1">
       <c r="F491" s="12"/>
       <c r="G491" s="12"/>
-      <c r="H491" s="47"/>
+      <c r="H491" s="35"/>
       <c r="I491" s="12"/>
       <c r="J491" s="13"/>
       <c r="K491" s="13"/>
@@ -23326,7 +23317,7 @@
     <row r="492" spans="6:20" ht="14.25" customHeight="1">
       <c r="F492" s="12"/>
       <c r="G492" s="12"/>
-      <c r="H492" s="47"/>
+      <c r="H492" s="35"/>
       <c r="I492" s="12"/>
       <c r="J492" s="13"/>
       <c r="K492" s="13"/>
@@ -23343,7 +23334,7 @@
     <row r="493" spans="6:20" ht="14.25" customHeight="1">
       <c r="F493" s="12"/>
       <c r="G493" s="12"/>
-      <c r="H493" s="47"/>
+      <c r="H493" s="35"/>
       <c r="I493" s="12"/>
       <c r="J493" s="13"/>
       <c r="K493" s="13"/>
@@ -23360,7 +23351,7 @@
     <row r="494" spans="6:20" ht="14.25" customHeight="1">
       <c r="F494" s="12"/>
       <c r="G494" s="12"/>
-      <c r="H494" s="47"/>
+      <c r="H494" s="35"/>
       <c r="I494" s="12"/>
       <c r="J494" s="13"/>
       <c r="K494" s="13"/>
@@ -23377,7 +23368,7 @@
     <row r="495" spans="6:20" ht="14.25" customHeight="1">
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
-      <c r="H495" s="47"/>
+      <c r="H495" s="35"/>
       <c r="I495" s="12"/>
       <c r="J495" s="13"/>
       <c r="K495" s="13"/>
@@ -23394,7 +23385,7 @@
     <row r="496" spans="6:20" ht="14.25" customHeight="1">
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
-      <c r="H496" s="47"/>
+      <c r="H496" s="35"/>
       <c r="I496" s="12"/>
       <c r="J496" s="13"/>
       <c r="K496" s="13"/>
@@ -23411,7 +23402,7 @@
     <row r="497" spans="6:20" ht="14.25" customHeight="1">
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
-      <c r="H497" s="47"/>
+      <c r="H497" s="35"/>
       <c r="I497" s="12"/>
       <c r="J497" s="13"/>
       <c r="K497" s="13"/>
@@ -23428,7 +23419,7 @@
     <row r="498" spans="6:20" ht="14.25" customHeight="1">
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
-      <c r="H498" s="47"/>
+      <c r="H498" s="35"/>
       <c r="I498" s="12"/>
       <c r="J498" s="13"/>
       <c r="K498" s="13"/>
@@ -23445,7 +23436,7 @@
     <row r="499" spans="6:20" ht="14.25" customHeight="1">
       <c r="F499" s="12"/>
       <c r="G499" s="12"/>
-      <c r="H499" s="47"/>
+      <c r="H499" s="35"/>
       <c r="I499" s="12"/>
       <c r="J499" s="13"/>
       <c r="K499" s="13"/>
@@ -23462,7 +23453,7 @@
     <row r="500" spans="6:20" ht="14.25" customHeight="1">
       <c r="F500" s="12"/>
       <c r="G500" s="12"/>
-      <c r="H500" s="47"/>
+      <c r="H500" s="35"/>
       <c r="I500" s="12"/>
       <c r="J500" s="13"/>
       <c r="K500" s="13"/>
@@ -23479,7 +23470,7 @@
     <row r="501" spans="6:20" ht="14.25" customHeight="1">
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
-      <c r="H501" s="47"/>
+      <c r="H501" s="35"/>
       <c r="I501" s="12"/>
       <c r="J501" s="13"/>
       <c r="K501" s="13"/>
@@ -23496,7 +23487,7 @@
     <row r="502" spans="6:20" ht="14.25" customHeight="1">
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
-      <c r="H502" s="47"/>
+      <c r="H502" s="35"/>
       <c r="I502" s="12"/>
       <c r="J502" s="13"/>
       <c r="K502" s="13"/>
@@ -23513,7 +23504,7 @@
     <row r="503" spans="6:20" ht="14.25" customHeight="1">
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
-      <c r="H503" s="47"/>
+      <c r="H503" s="35"/>
       <c r="I503" s="12"/>
       <c r="J503" s="13"/>
       <c r="K503" s="13"/>
@@ -23530,7 +23521,7 @@
     <row r="504" spans="6:20" ht="14.25" customHeight="1">
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
-      <c r="H504" s="47"/>
+      <c r="H504" s="35"/>
       <c r="I504" s="12"/>
       <c r="J504" s="13"/>
       <c r="K504" s="13"/>
@@ -23547,7 +23538,7 @@
     <row r="505" spans="6:20" ht="14.25" customHeight="1">
       <c r="F505" s="12"/>
       <c r="G505" s="12"/>
-      <c r="H505" s="47"/>
+      <c r="H505" s="35"/>
       <c r="I505" s="12"/>
       <c r="J505" s="13"/>
       <c r="K505" s="13"/>
@@ -23564,7 +23555,7 @@
     <row r="506" spans="6:20" ht="14.25" customHeight="1">
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
-      <c r="H506" s="47"/>
+      <c r="H506" s="35"/>
       <c r="I506" s="12"/>
       <c r="J506" s="13"/>
       <c r="K506" s="13"/>
@@ -23581,7 +23572,7 @@
     <row r="507" spans="6:20" ht="14.25" customHeight="1">
       <c r="F507" s="12"/>
       <c r="G507" s="12"/>
-      <c r="H507" s="47"/>
+      <c r="H507" s="35"/>
       <c r="I507" s="12"/>
       <c r="J507" s="13"/>
       <c r="K507" s="13"/>
@@ -23598,7 +23589,7 @@
     <row r="508" spans="6:20" ht="14.25" customHeight="1">
       <c r="F508" s="12"/>
       <c r="G508" s="12"/>
-      <c r="H508" s="47"/>
+      <c r="H508" s="35"/>
       <c r="I508" s="12"/>
       <c r="J508" s="13"/>
       <c r="K508" s="13"/>
@@ -23615,7 +23606,7 @@
     <row r="509" spans="6:20" ht="14.25" customHeight="1">
       <c r="F509" s="12"/>
       <c r="G509" s="12"/>
-      <c r="H509" s="47"/>
+      <c r="H509" s="35"/>
       <c r="I509" s="12"/>
       <c r="J509" s="13"/>
       <c r="K509" s="13"/>
@@ -23632,7 +23623,7 @@
     <row r="510" spans="6:20" ht="14.25" customHeight="1">
       <c r="F510" s="12"/>
       <c r="G510" s="12"/>
-      <c r="H510" s="47"/>
+      <c r="H510" s="35"/>
       <c r="I510" s="12"/>
       <c r="J510" s="13"/>
       <c r="K510" s="13"/>
@@ -23649,7 +23640,7 @@
     <row r="511" spans="6:20" ht="14.25" customHeight="1">
       <c r="F511" s="12"/>
       <c r="G511" s="12"/>
-      <c r="H511" s="47"/>
+      <c r="H511" s="35"/>
       <c r="I511" s="12"/>
       <c r="J511" s="13"/>
       <c r="K511" s="13"/>
@@ -23666,7 +23657,7 @@
     <row r="512" spans="6:20" ht="14.25" customHeight="1">
       <c r="F512" s="12"/>
       <c r="G512" s="12"/>
-      <c r="H512" s="47"/>
+      <c r="H512" s="35"/>
       <c r="I512" s="12"/>
       <c r="J512" s="13"/>
       <c r="K512" s="13"/>
@@ -23683,7 +23674,7 @@
     <row r="513" spans="6:20" ht="14.25" customHeight="1">
       <c r="F513" s="12"/>
       <c r="G513" s="12"/>
-      <c r="H513" s="47"/>
+      <c r="H513" s="35"/>
       <c r="I513" s="12"/>
       <c r="J513" s="13"/>
       <c r="K513" s="13"/>
@@ -23700,7 +23691,7 @@
     <row r="514" spans="6:20" ht="14.25" customHeight="1">
       <c r="F514" s="12"/>
       <c r="G514" s="12"/>
-      <c r="H514" s="47"/>
+      <c r="H514" s="35"/>
       <c r="I514" s="12"/>
       <c r="J514" s="13"/>
       <c r="K514" s="13"/>
@@ -23717,7 +23708,7 @@
     <row r="515" spans="6:20" ht="14.25" customHeight="1">
       <c r="F515" s="12"/>
       <c r="G515" s="12"/>
-      <c r="H515" s="47"/>
+      <c r="H515" s="35"/>
       <c r="I515" s="12"/>
       <c r="J515" s="13"/>
       <c r="K515" s="13"/>
@@ -23734,7 +23725,7 @@
     <row r="516" spans="6:20" ht="14.25" customHeight="1">
       <c r="F516" s="12"/>
       <c r="G516" s="12"/>
-      <c r="H516" s="47"/>
+      <c r="H516" s="35"/>
       <c r="I516" s="12"/>
       <c r="J516" s="13"/>
       <c r="K516" s="13"/>
@@ -23751,7 +23742,7 @@
     <row r="517" spans="6:20" ht="14.25" customHeight="1">
       <c r="F517" s="12"/>
       <c r="G517" s="12"/>
-      <c r="H517" s="47"/>
+      <c r="H517" s="35"/>
       <c r="I517" s="12"/>
       <c r="J517" s="13"/>
       <c r="K517" s="13"/>
@@ -23768,7 +23759,7 @@
     <row r="518" spans="6:20" ht="14.25" customHeight="1">
       <c r="F518" s="12"/>
       <c r="G518" s="12"/>
-      <c r="H518" s="47"/>
+      <c r="H518" s="35"/>
       <c r="I518" s="12"/>
       <c r="J518" s="13"/>
       <c r="K518" s="13"/>
@@ -23785,7 +23776,7 @@
     <row r="519" spans="6:20" ht="14.25" customHeight="1">
       <c r="F519" s="12"/>
       <c r="G519" s="12"/>
-      <c r="H519" s="47"/>
+      <c r="H519" s="35"/>
       <c r="I519" s="12"/>
       <c r="J519" s="13"/>
       <c r="K519" s="13"/>
@@ -23802,7 +23793,7 @@
     <row r="520" spans="6:20" ht="14.25" customHeight="1">
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
-      <c r="H520" s="47"/>
+      <c r="H520" s="35"/>
       <c r="I520" s="12"/>
       <c r="J520" s="13"/>
       <c r="K520" s="13"/>
@@ -23819,7 +23810,7 @@
     <row r="521" spans="6:20" ht="14.25" customHeight="1">
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
-      <c r="H521" s="47"/>
+      <c r="H521" s="35"/>
       <c r="I521" s="12"/>
       <c r="J521" s="13"/>
       <c r="K521" s="13"/>
@@ -23836,7 +23827,7 @@
     <row r="522" spans="6:20" ht="14.25" customHeight="1">
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
-      <c r="H522" s="47"/>
+      <c r="H522" s="35"/>
       <c r="I522" s="12"/>
       <c r="J522" s="13"/>
       <c r="K522" s="13"/>
@@ -23853,7 +23844,7 @@
     <row r="523" spans="6:20" ht="14.25" customHeight="1">
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
-      <c r="H523" s="47"/>
+      <c r="H523" s="35"/>
       <c r="I523" s="12"/>
       <c r="J523" s="13"/>
       <c r="K523" s="13"/>
@@ -23870,7 +23861,7 @@
     <row r="524" spans="6:20" ht="14.25" customHeight="1">
       <c r="F524" s="12"/>
       <c r="G524" s="12"/>
-      <c r="H524" s="47"/>
+      <c r="H524" s="35"/>
       <c r="I524" s="12"/>
       <c r="J524" s="13"/>
       <c r="K524" s="13"/>
@@ -23887,7 +23878,7 @@
     <row r="525" spans="6:20" ht="14.25" customHeight="1">
       <c r="F525" s="12"/>
       <c r="G525" s="12"/>
-      <c r="H525" s="47"/>
+      <c r="H525" s="35"/>
       <c r="I525" s="12"/>
       <c r="J525" s="13"/>
       <c r="K525" s="13"/>
@@ -23904,7 +23895,7 @@
     <row r="526" spans="6:20" ht="14.25" customHeight="1">
       <c r="F526" s="12"/>
       <c r="G526" s="12"/>
-      <c r="H526" s="47"/>
+      <c r="H526" s="35"/>
       <c r="I526" s="12"/>
       <c r="J526" s="13"/>
       <c r="K526" s="13"/>
@@ -23921,7 +23912,7 @@
     <row r="527" spans="6:20" ht="14.25" customHeight="1">
       <c r="F527" s="12"/>
       <c r="G527" s="12"/>
-      <c r="H527" s="47"/>
+      <c r="H527" s="35"/>
       <c r="I527" s="12"/>
       <c r="J527" s="13"/>
       <c r="K527" s="13"/>
@@ -23938,7 +23929,7 @@
     <row r="528" spans="6:20" ht="14.25" customHeight="1">
       <c r="F528" s="12"/>
       <c r="G528" s="12"/>
-      <c r="H528" s="47"/>
+      <c r="H528" s="35"/>
       <c r="I528" s="12"/>
       <c r="J528" s="13"/>
       <c r="K528" s="13"/>
@@ -23955,7 +23946,7 @@
     <row r="529" spans="6:20" ht="14.25" customHeight="1">
       <c r="F529" s="12"/>
       <c r="G529" s="12"/>
-      <c r="H529" s="47"/>
+      <c r="H529" s="35"/>
       <c r="I529" s="12"/>
       <c r="J529" s="13"/>
       <c r="K529" s="13"/>
@@ -23972,7 +23963,7 @@
     <row r="530" spans="6:20" ht="14.25" customHeight="1">
       <c r="F530" s="12"/>
       <c r="G530" s="12"/>
-      <c r="H530" s="47"/>
+      <c r="H530" s="35"/>
       <c r="I530" s="12"/>
       <c r="J530" s="13"/>
       <c r="K530" s="13"/>
@@ -23989,7 +23980,7 @@
     <row r="531" spans="6:20" ht="14.25" customHeight="1">
       <c r="F531" s="12"/>
       <c r="G531" s="12"/>
-      <c r="H531" s="47"/>
+      <c r="H531" s="35"/>
       <c r="I531" s="12"/>
       <c r="J531" s="13"/>
       <c r="K531" s="13"/>
@@ -24006,7 +23997,7 @@
     <row r="532" spans="6:20" ht="14.25" customHeight="1">
       <c r="F532" s="12"/>
       <c r="G532" s="12"/>
-      <c r="H532" s="47"/>
+      <c r="H532" s="35"/>
       <c r="I532" s="12"/>
       <c r="J532" s="13"/>
       <c r="K532" s="13"/>
@@ -24023,7 +24014,7 @@
     <row r="533" spans="6:20" ht="14.25" customHeight="1">
       <c r="F533" s="12"/>
       <c r="G533" s="12"/>
-      <c r="H533" s="47"/>
+      <c r="H533" s="35"/>
       <c r="I533" s="12"/>
       <c r="J533" s="13"/>
       <c r="K533" s="13"/>
@@ -24040,7 +24031,7 @@
     <row r="534" spans="6:20" ht="14.25" customHeight="1">
       <c r="F534" s="12"/>
       <c r="G534" s="12"/>
-      <c r="H534" s="47"/>
+      <c r="H534" s="35"/>
       <c r="I534" s="12"/>
       <c r="J534" s="13"/>
       <c r="K534" s="13"/>
@@ -24057,7 +24048,7 @@
     <row r="535" spans="6:20" ht="14.25" customHeight="1">
       <c r="F535" s="12"/>
       <c r="G535" s="12"/>
-      <c r="H535" s="47"/>
+      <c r="H535" s="35"/>
       <c r="I535" s="12"/>
       <c r="J535" s="13"/>
       <c r="K535" s="13"/>
@@ -24074,7 +24065,7 @@
     <row r="536" spans="6:20" ht="14.25" customHeight="1">
       <c r="F536" s="12"/>
       <c r="G536" s="12"/>
-      <c r="H536" s="47"/>
+      <c r="H536" s="35"/>
       <c r="I536" s="12"/>
       <c r="J536" s="13"/>
       <c r="K536" s="13"/>
@@ -24091,7 +24082,7 @@
     <row r="537" spans="6:20" ht="14.25" customHeight="1">
       <c r="F537" s="12"/>
       <c r="G537" s="12"/>
-      <c r="H537" s="47"/>
+      <c r="H537" s="35"/>
       <c r="I537" s="12"/>
       <c r="J537" s="13"/>
       <c r="K537" s="13"/>
@@ -24108,7 +24099,7 @@
     <row r="538" spans="6:20" ht="14.25" customHeight="1">
       <c r="F538" s="12"/>
       <c r="G538" s="12"/>
-      <c r="H538" s="47"/>
+      <c r="H538" s="35"/>
       <c r="I538" s="12"/>
       <c r="J538" s="13"/>
       <c r="K538" s="13"/>
@@ -24125,7 +24116,7 @@
     <row r="539" spans="6:20" ht="14.25" customHeight="1">
       <c r="F539" s="12"/>
       <c r="G539" s="12"/>
-      <c r="H539" s="47"/>
+      <c r="H539" s="35"/>
       <c r="I539" s="12"/>
       <c r="J539" s="13"/>
       <c r="K539" s="13"/>
@@ -24142,7 +24133,7 @@
     <row r="540" spans="6:20" ht="14.25" customHeight="1">
       <c r="F540" s="12"/>
       <c r="G540" s="12"/>
-      <c r="H540" s="47"/>
+      <c r="H540" s="35"/>
       <c r="I540" s="12"/>
       <c r="J540" s="13"/>
       <c r="K540" s="13"/>
@@ -24159,7 +24150,7 @@
     <row r="541" spans="6:20" ht="14.25" customHeight="1">
       <c r="F541" s="12"/>
       <c r="G541" s="12"/>
-      <c r="H541" s="47"/>
+      <c r="H541" s="35"/>
       <c r="I541" s="12"/>
       <c r="J541" s="13"/>
       <c r="K541" s="13"/>
@@ -24176,7 +24167,7 @@
     <row r="542" spans="6:20" ht="14.25" customHeight="1">
       <c r="F542" s="12"/>
       <c r="G542" s="12"/>
-      <c r="H542" s="47"/>
+      <c r="H542" s="35"/>
       <c r="I542" s="12"/>
       <c r="J542" s="13"/>
       <c r="K542" s="13"/>
@@ -24193,7 +24184,7 @@
     <row r="543" spans="6:20" ht="14.25" customHeight="1">
       <c r="F543" s="12"/>
       <c r="G543" s="12"/>
-      <c r="H543" s="47"/>
+      <c r="H543" s="35"/>
       <c r="I543" s="12"/>
       <c r="J543" s="13"/>
       <c r="K543" s="13"/>
@@ -24210,7 +24201,7 @@
     <row r="544" spans="6:20" ht="14.25" customHeight="1">
       <c r="F544" s="12"/>
       <c r="G544" s="12"/>
-      <c r="H544" s="47"/>
+      <c r="H544" s="35"/>
       <c r="I544" s="12"/>
       <c r="J544" s="13"/>
       <c r="K544" s="13"/>
@@ -24227,7 +24218,7 @@
     <row r="545" spans="6:20" ht="14.25" customHeight="1">
       <c r="F545" s="12"/>
       <c r="G545" s="12"/>
-      <c r="H545" s="47"/>
+      <c r="H545" s="35"/>
       <c r="I545" s="12"/>
       <c r="J545" s="13"/>
       <c r="K545" s="13"/>
@@ -24244,7 +24235,7 @@
     <row r="546" spans="6:20" ht="14.25" customHeight="1">
       <c r="F546" s="12"/>
       <c r="G546" s="12"/>
-      <c r="H546" s="47"/>
+      <c r="H546" s="35"/>
       <c r="I546" s="12"/>
       <c r="J546" s="13"/>
       <c r="K546" s="13"/>
@@ -24261,7 +24252,7 @@
     <row r="547" spans="6:20" ht="14.25" customHeight="1">
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
-      <c r="H547" s="47"/>
+      <c r="H547" s="35"/>
       <c r="I547" s="12"/>
       <c r="J547" s="13"/>
       <c r="K547" s="13"/>
@@ -24278,7 +24269,7 @@
     <row r="548" spans="6:20" ht="14.25" customHeight="1">
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
-      <c r="H548" s="47"/>
+      <c r="H548" s="35"/>
       <c r="I548" s="12"/>
       <c r="J548" s="13"/>
       <c r="K548" s="13"/>
@@ -24295,7 +24286,7 @@
     <row r="549" spans="6:20" ht="14.25" customHeight="1">
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
-      <c r="H549" s="47"/>
+      <c r="H549" s="35"/>
       <c r="I549" s="12"/>
       <c r="J549" s="13"/>
       <c r="K549" s="13"/>
@@ -24312,7 +24303,7 @@
     <row r="550" spans="6:20" ht="14.25" customHeight="1">
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
-      <c r="H550" s="47"/>
+      <c r="H550" s="35"/>
       <c r="I550" s="12"/>
       <c r="J550" s="13"/>
       <c r="K550" s="13"/>
@@ -24329,7 +24320,7 @@
     <row r="551" spans="6:20" ht="14.25" customHeight="1">
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
-      <c r="H551" s="47"/>
+      <c r="H551" s="35"/>
       <c r="I551" s="12"/>
       <c r="J551" s="13"/>
       <c r="K551" s="13"/>
@@ -24346,7 +24337,7 @@
     <row r="552" spans="6:20" ht="14.25" customHeight="1">
       <c r="F552" s="12"/>
       <c r="G552" s="12"/>
-      <c r="H552" s="47"/>
+      <c r="H552" s="35"/>
       <c r="I552" s="12"/>
       <c r="J552" s="13"/>
       <c r="K552" s="13"/>
@@ -24363,7 +24354,7 @@
     <row r="553" spans="6:20" ht="14.25" customHeight="1">
       <c r="F553" s="12"/>
       <c r="G553" s="12"/>
-      <c r="H553" s="47"/>
+      <c r="H553" s="35"/>
       <c r="I553" s="12"/>
       <c r="J553" s="13"/>
       <c r="K553" s="13"/>
@@ -24380,7 +24371,7 @@
     <row r="554" spans="6:20" ht="14.25" customHeight="1">
       <c r="F554" s="12"/>
       <c r="G554" s="12"/>
-      <c r="H554" s="47"/>
+      <c r="H554" s="35"/>
       <c r="I554" s="12"/>
       <c r="J554" s="13"/>
       <c r="K554" s="13"/>
@@ -24397,7 +24388,7 @@
     <row r="555" spans="6:20" ht="14.25" customHeight="1">
       <c r="F555" s="12"/>
       <c r="G555" s="12"/>
-      <c r="H555" s="47"/>
+      <c r="H555" s="35"/>
       <c r="I555" s="12"/>
       <c r="J555" s="13"/>
       <c r="K555" s="13"/>
@@ -24414,7 +24405,7 @@
     <row r="556" spans="6:20" ht="14.25" customHeight="1">
       <c r="F556" s="12"/>
       <c r="G556" s="12"/>
-      <c r="H556" s="47"/>
+      <c r="H556" s="35"/>
       <c r="I556" s="12"/>
       <c r="J556" s="13"/>
       <c r="K556" s="13"/>
@@ -24431,7 +24422,7 @@
     <row r="557" spans="6:20" ht="14.25" customHeight="1">
       <c r="F557" s="12"/>
       <c r="G557" s="12"/>
-      <c r="H557" s="47"/>
+      <c r="H557" s="35"/>
       <c r="I557" s="12"/>
       <c r="J557" s="13"/>
       <c r="K557" s="13"/>
@@ -24448,7 +24439,7 @@
     <row r="558" spans="6:20" ht="14.25" customHeight="1">
       <c r="F558" s="12"/>
       <c r="G558" s="12"/>
-      <c r="H558" s="47"/>
+      <c r="H558" s="35"/>
       <c r="I558" s="12"/>
       <c r="J558" s="13"/>
       <c r="K558" s="13"/>
@@ -24465,7 +24456,7 @@
     <row r="559" spans="6:20" ht="14.25" customHeight="1">
       <c r="F559" s="12"/>
       <c r="G559" s="12"/>
-      <c r="H559" s="47"/>
+      <c r="H559" s="35"/>
       <c r="I559" s="12"/>
       <c r="J559" s="13"/>
       <c r="K559" s="13"/>
@@ -24482,7 +24473,7 @@
     <row r="560" spans="6:20" ht="14.25" customHeight="1">
       <c r="F560" s="12"/>
       <c r="G560" s="12"/>
-      <c r="H560" s="47"/>
+      <c r="H560" s="35"/>
       <c r="I560" s="12"/>
       <c r="J560" s="13"/>
       <c r="K560" s="13"/>
@@ -24499,7 +24490,7 @@
     <row r="561" spans="6:20" ht="14.25" customHeight="1">
       <c r="F561" s="12"/>
       <c r="G561" s="12"/>
-      <c r="H561" s="47"/>
+      <c r="H561" s="35"/>
       <c r="I561" s="12"/>
       <c r="J561" s="13"/>
       <c r="K561" s="13"/>
@@ -24516,7 +24507,7 @@
     <row r="562" spans="6:20" ht="14.25" customHeight="1">
       <c r="F562" s="12"/>
       <c r="G562" s="12"/>
-      <c r="H562" s="47"/>
+      <c r="H562" s="35"/>
       <c r="I562" s="12"/>
       <c r="J562" s="13"/>
       <c r="K562" s="13"/>
@@ -24533,7 +24524,7 @@
     <row r="563" spans="6:20" ht="14.25" customHeight="1">
       <c r="F563" s="12"/>
       <c r="G563" s="12"/>
-      <c r="H563" s="47"/>
+      <c r="H563" s="35"/>
       <c r="I563" s="12"/>
       <c r="J563" s="13"/>
       <c r="K563" s="13"/>
@@ -24550,7 +24541,7 @@
     <row r="564" spans="6:20" ht="14.25" customHeight="1">
       <c r="F564" s="12"/>
       <c r="G564" s="12"/>
-      <c r="H564" s="47"/>
+      <c r="H564" s="35"/>
       <c r="I564" s="12"/>
       <c r="J564" s="13"/>
       <c r="K564" s="13"/>
@@ -24567,7 +24558,7 @@
     <row r="565" spans="6:20" ht="14.25" customHeight="1">
       <c r="F565" s="12"/>
       <c r="G565" s="12"/>
-      <c r="H565" s="47"/>
+      <c r="H565" s="35"/>
       <c r="I565" s="12"/>
       <c r="J565" s="13"/>
       <c r="K565" s="13"/>
@@ -24584,7 +24575,7 @@
     <row r="566" spans="6:20" ht="14.25" customHeight="1">
       <c r="F566" s="12"/>
       <c r="G566" s="12"/>
-      <c r="H566" s="47"/>
+      <c r="H566" s="35"/>
       <c r="I566" s="12"/>
       <c r="J566" s="13"/>
       <c r="K566" s="13"/>
@@ -24601,7 +24592,7 @@
     <row r="567" spans="6:20" ht="14.25" customHeight="1">
       <c r="F567" s="12"/>
       <c r="G567" s="12"/>
-      <c r="H567" s="47"/>
+      <c r="H567" s="35"/>
       <c r="I567" s="12"/>
       <c r="J567" s="13"/>
       <c r="K567" s="13"/>
@@ -24618,7 +24609,7 @@
     <row r="568" spans="6:20" ht="14.25" customHeight="1">
       <c r="F568" s="12"/>
       <c r="G568" s="12"/>
-      <c r="H568" s="47"/>
+      <c r="H568" s="35"/>
       <c r="I568" s="12"/>
       <c r="J568" s="13"/>
       <c r="K568" s="13"/>
@@ -24635,7 +24626,7 @@
     <row r="569" spans="6:20" ht="14.25" customHeight="1">
       <c r="F569" s="12"/>
       <c r="G569" s="12"/>
-      <c r="H569" s="47"/>
+      <c r="H569" s="35"/>
       <c r="I569" s="12"/>
       <c r="J569" s="13"/>
       <c r="K569" s="13"/>
@@ -24652,7 +24643,7 @@
     <row r="570" spans="6:20" ht="14.25" customHeight="1">
       <c r="F570" s="12"/>
       <c r="G570" s="12"/>
-      <c r="H570" s="47"/>
+      <c r="H570" s="35"/>
       <c r="I570" s="12"/>
       <c r="J570" s="13"/>
       <c r="K570" s="13"/>
@@ -24669,7 +24660,7 @@
     <row r="571" spans="6:20" ht="14.25" customHeight="1">
       <c r="F571" s="12"/>
       <c r="G571" s="12"/>
-      <c r="H571" s="47"/>
+      <c r="H571" s="35"/>
       <c r="I571" s="12"/>
       <c r="J571" s="13"/>
       <c r="K571" s="13"/>
@@ -24686,7 +24677,7 @@
     <row r="572" spans="6:20" ht="14.25" customHeight="1">
       <c r="F572" s="12"/>
       <c r="G572" s="12"/>
-      <c r="H572" s="47"/>
+      <c r="H572" s="35"/>
       <c r="I572" s="12"/>
       <c r="J572" s="13"/>
       <c r="K572" s="13"/>
@@ -24703,7 +24694,7 @@
     <row r="573" spans="6:20" ht="14.25" customHeight="1">
       <c r="F573" s="12"/>
       <c r="G573" s="12"/>
-      <c r="H573" s="47"/>
+      <c r="H573" s="35"/>
       <c r="I573" s="12"/>
       <c r="J573" s="13"/>
       <c r="K573" s="13"/>
@@ -24720,7 +24711,7 @@
     <row r="574" spans="6:20" ht="14.25" customHeight="1">
       <c r="F574" s="12"/>
       <c r="G574" s="12"/>
-      <c r="H574" s="47"/>
+      <c r="H574" s="35"/>
       <c r="I574" s="12"/>
       <c r="J574" s="13"/>
       <c r="K574" s="13"/>
@@ -24737,7 +24728,7 @@
     <row r="575" spans="6:20" ht="14.25" customHeight="1">
       <c r="F575" s="12"/>
       <c r="G575" s="12"/>
-      <c r="H575" s="47"/>
+      <c r="H575" s="35"/>
       <c r="I575" s="12"/>
       <c r="J575" s="13"/>
       <c r="K575" s="13"/>
@@ -24754,7 +24745,7 @@
     <row r="576" spans="6:20" ht="14.25" customHeight="1">
       <c r="F576" s="12"/>
       <c r="G576" s="12"/>
-      <c r="H576" s="47"/>
+      <c r="H576" s="35"/>
       <c r="I576" s="12"/>
       <c r="J576" s="13"/>
       <c r="K576" s="13"/>
@@ -24771,7 +24762,7 @@
     <row r="577" spans="6:20" ht="14.25" customHeight="1">
       <c r="F577" s="12"/>
       <c r="G577" s="12"/>
-      <c r="H577" s="47"/>
+      <c r="H577" s="35"/>
       <c r="I577" s="12"/>
       <c r="J577" s="13"/>
       <c r="K577" s="13"/>
@@ -24788,7 +24779,7 @@
     <row r="578" spans="6:20" ht="14.25" customHeight="1">
       <c r="F578" s="12"/>
       <c r="G578" s="12"/>
-      <c r="H578" s="47"/>
+      <c r="H578" s="35"/>
       <c r="I578" s="12"/>
       <c r="J578" s="13"/>
       <c r="K578" s="13"/>
@@ -24805,7 +24796,7 @@
     <row r="579" spans="6:20" ht="14.25" customHeight="1">
       <c r="F579" s="12"/>
       <c r="G579" s="12"/>
-      <c r="H579" s="47"/>
+      <c r="H579" s="35"/>
       <c r="I579" s="12"/>
       <c r="J579" s="13"/>
       <c r="K579" s="13"/>
@@ -24822,7 +24813,7 @@
     <row r="580" spans="6:20" ht="14.25" customHeight="1">
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
-      <c r="H580" s="47"/>
+      <c r="H580" s="35"/>
       <c r="I580" s="12"/>
       <c r="J580" s="13"/>
       <c r="K580" s="13"/>
@@ -24839,7 +24830,7 @@
     <row r="581" spans="6:20" ht="14.25" customHeight="1">
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
-      <c r="H581" s="47"/>
+      <c r="H581" s="35"/>
       <c r="I581" s="12"/>
       <c r="J581" s="13"/>
       <c r="K581" s="13"/>
@@ -24856,7 +24847,7 @@
     <row r="582" spans="6:20" ht="14.25" customHeight="1">
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
-      <c r="H582" s="47"/>
+      <c r="H582" s="35"/>
       <c r="I582" s="12"/>
       <c r="J582" s="13"/>
       <c r="K582" s="13"/>
@@ -24873,7 +24864,7 @@
     <row r="583" spans="6:20" ht="14.25" customHeight="1">
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
-      <c r="H583" s="47"/>
+      <c r="H583" s="35"/>
       <c r="I583" s="12"/>
       <c r="J583" s="13"/>
       <c r="K583" s="13"/>
@@ -26164,9 +26155,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="H168" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOINFORMATICOXX/GRUPPOINFORMATICO/RESMEDICA/10.1.701/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Laboratorio Software\ResMedica\FSE\RSALABRAD_Validazione\GRUPPOINFORMATICO\A1#111GRUPPOINFORMATICOXX\GRUPPOINFORMATICO\RESMEDICA\10.1.701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8889D2-6B30-4184-B3C4-64A9A8FC0799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A6BABE-7ED5-40DE-B6E0-2F87249CE443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="958">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4738,9 +4738,6 @@
     <t>4de418ce36335587</t>
   </si>
   <si>
-    <t>f6c2c37ac0f4b4b7</t>
-  </si>
-  <si>
     <t>e5e9a58d775ff120</t>
   </si>
   <si>
@@ -4750,9 +4747,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0d6a4413c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9cf6cae4c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9fd92d7c84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -4853,6 +4847,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b87ae35ed2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-19T09:58:17Z</t>
+  </si>
+  <si>
+    <t>0ce47fc268d9c4e3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.36df0aedff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7776,10 +7779,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8060,7 +8063,7 @@
         <v>916</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>138</v>
@@ -8104,7 +8107,7 @@
         <v>917</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>138</v>
@@ -8139,16 +8142,16 @@
         <v>52</v>
       </c>
       <c r="F12" s="23">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>915</v>
+        <v>955</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>918</v>
+        <v>956</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>922</v>
+        <v>957</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>138</v>
@@ -8227,10 +8230,10 @@
         <v>915</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>138</v>
@@ -8404,13 +8407,13 @@
         <v>45308</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>138</v>
@@ -8448,13 +8451,13 @@
         <v>45308</v>
       </c>
       <c r="G20" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>945</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>946</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>947</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>138</v>
@@ -9100,10 +9103,10 @@
         <v>45308</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I38" s="24" t="s">
         <v>873</v>
@@ -9438,10 +9441,10 @@
         <v>45308</v>
       </c>
       <c r="G46" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>937</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>939</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>873</v>
@@ -10008,13 +10011,13 @@
         <v>45308</v>
       </c>
       <c r="G60" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="I60" s="24" t="s">
         <v>924</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>925</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>926</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>138</v>
@@ -10102,13 +10105,13 @@
         <v>45308</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>138</v>
@@ -10232,13 +10235,13 @@
         <v>45308</v>
       </c>
       <c r="G65" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="H65" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="H65" s="24" t="s">
-        <v>931</v>
-      </c>
       <c r="I65" s="24" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>138</v>
@@ -10288,13 +10291,13 @@
         <v>45308</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J66" s="25" t="s">
         <v>138</v>
@@ -10342,13 +10345,13 @@
         <v>45308</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>138</v>
@@ -10918,13 +10921,13 @@
         <v>45308</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J83" s="25" t="s">
         <v>138</v>
@@ -11012,13 +11015,13 @@
         <v>45308</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H85" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="I85" s="24" t="s">
         <v>950</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>952</v>
       </c>
       <c r="J85" s="25" t="s">
         <v>138</v>
@@ -11180,13 +11183,13 @@
         <v>45308</v>
       </c>
       <c r="G89" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="H89" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="H89" s="24" t="s">
-        <v>953</v>
-      </c>
       <c r="I89" s="24" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J89" s="25" t="s">
         <v>138</v>
@@ -11312,13 +11315,13 @@
         <v>45308</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J92" s="25" t="s">
         <v>138</v>
@@ -21234,13 +21237,13 @@
         <v>45308</v>
       </c>
       <c r="G377" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="H377" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="I377" s="24" t="s">
         <v>940</v>
-      </c>
-      <c r="H377" s="24" t="s">
-        <v>941</v>
-      </c>
-      <c r="I377" s="24" t="s">
-        <v>942</v>
       </c>
       <c r="J377" s="25" t="s">
         <v>138</v>
